--- a/data/Demo.xlsx
+++ b/data/Demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="840" windowWidth="19890" windowHeight="9915" tabRatio="776" firstSheet="7" activeTab="12"/>
+    <workbookView xWindow="285" yWindow="330" windowWidth="23955" windowHeight="9780" tabRatio="776" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Root" sheetId="34" r:id="rId1"/>
@@ -19,10 +19,12 @@
     <sheet name="RootAirTime" sheetId="59" r:id="rId10"/>
     <sheet name="RootAirTime2" sheetId="65" r:id="rId11"/>
     <sheet name="ValidateAirTimePosition" sheetId="60" r:id="rId12"/>
-    <sheet name="ToDo" sheetId="32" r:id="rId13"/>
-    <sheet name="Codes" sheetId="52" r:id="rId14"/>
-    <sheet name="Sandbox" sheetId="57" r:id="rId15"/>
-    <sheet name="ValidateAirTimePositionTest" sheetId="64" r:id="rId16"/>
+    <sheet name="IBKR" sheetId="66" r:id="rId13"/>
+    <sheet name="IBKRHomePage" sheetId="67" r:id="rId14"/>
+    <sheet name="ToDo" sheetId="32" r:id="rId15"/>
+    <sheet name="Codes" sheetId="52" r:id="rId16"/>
+    <sheet name="Sandbox" sheetId="57" r:id="rId17"/>
+    <sheet name="ValidateAirTimePositionTest" sheetId="64" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="Action">Codes!$A$2:$A$102</definedName>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="417">
   <si>
     <t>Action</t>
   </si>
@@ -523,12 +525,6 @@
     <t>Spock xpath</t>
   </si>
   <si>
-    <t>Wait until the bardsshow up</t>
-  </si>
-  <si>
-    <t>Value=Spock;CompareMode=Contains;TotalWaitTime=20;WaitInterval=1000;InputSpecs=File!Demo.xlsx!Spock</t>
-  </si>
-  <si>
     <t>Value=2000;Class=long;CompareMode=GE</t>
   </si>
   <si>
@@ -538,9 +534,6 @@
     <t>Value=100000;Class=currency;CompareMode=GE</t>
   </si>
   <si>
-    <t>Value=Bard;CompareMode=Contains;TotalWaitTime=30;WaitInterval=1000;InputSpecs=File!Demo.xlsx!Bards</t>
-  </si>
-  <si>
     <t>//*[@id="backing_backer_reward_id_4072790"]</t>
   </si>
   <si>
@@ -631,9 +624,6 @@
     <t>Click theView KickStarterProject button</t>
   </si>
   <si>
-    <t>SaveAs=KickStarterProjectTitle</t>
-  </si>
-  <si>
     <t>Value={KickStarterProjectTitle}</t>
   </si>
   <si>
@@ -862,18 +852,9 @@
     <t>InputSpecs=File!Testomato.xlsx!Root</t>
   </si>
   <si>
-    <t>Generate the report for the Kick Starter section</t>
-  </si>
-  <si>
-    <t>Generate the report for the Air Time section</t>
-  </si>
-  <si>
     <t>Description=Demo Tomato Results</t>
   </si>
   <si>
-    <t>Generate the report for the Tomato section</t>
-  </si>
-  <si>
     <t>Value=7777</t>
   </si>
   <si>
@@ -1093,9 +1074,6 @@
     <t>Wait a bit more so the error can be seed</t>
   </si>
   <si>
-    <t>Click the 'Paste' option of uploading resume</t>
-  </si>
-  <si>
     <t>Enter a combination of previously entered fields (Resume of {FirstName} {lastname}, {email}, {phone} (thinking constantly about {'power'}) *** --- Please ignore this - this is just an automation challenge proof of concept --- ***)</t>
   </si>
   <si>
@@ -1108,9 +1086,6 @@
     <t>Set variables appropriate for this test case</t>
   </si>
   <si>
-    <t>Iterations=2;TotalWaitTime=30;WaitInterval=1000;Branches=File!Demo.xlsx!Bards|File!Demo.xlsx!Spock|File!Demo.xlsx!Journey|File!Demo.xlsx!Einstein|File!Demo.xlsx!Electoloom|File!Demo.xlsx!Kettle;Values=The Bard|Spock|Journey|Einstein|Electroloom|Kettle;Queries=GetText|GetText|GetText|GetText|GetText|GetText;Comparisons=Contains|Contains|Contains|Contains|Contains|Contains</t>
-  </si>
-  <si>
     <t>Attach</t>
   </si>
   <si>
@@ -1136,6 +1111,183 @@
   </si>
   <si>
     <t>Figure out how to sanitize strings with weird non-xml characters -  current filtering is not working! (in progress)</t>
+  </si>
+  <si>
+    <t>Generate report for the Kick Starter section</t>
+  </si>
+  <si>
+    <t>Generate report for the Air Time section</t>
+  </si>
+  <si>
+    <t>Generate report for the Testomato section</t>
+  </si>
+  <si>
+    <t>RunExternalMethod</t>
+  </si>
+  <si>
+    <t>Try a (trivial) passing External method</t>
+  </si>
+  <si>
+    <t>Try a (trivial) failing External method</t>
+  </si>
+  <si>
+    <t>Class=DDTExternal;type=DDTTestContext;method=trivialFail</t>
+  </si>
+  <si>
+    <t>Class=DDTExternal;type=DDTTestContext;method=trivialPass</t>
+  </si>
+  <si>
+    <t>qtp=QTOF</t>
+  </si>
+  <si>
+    <t>SaveAs=KickStarterProjectTitle;qtp=QTOF</t>
+  </si>
+  <si>
+    <t>Iterations=4;TotalWaitTime=50;WaitInterval=1000;Branches=File!Demo.xlsx!Bards|File!Demo.xlsx!Spock|File!Demo.xlsx!Journey|File!Demo.xlsx!Einstein|File!Demo.xlsx!Electoloom|File!Demo.xlsx!Kettle;Values=The Bard|Spock|Journey|Einstein|Electroloom|Kettle;Queries=GetText|GetText|GetText|GetText|GetText|GetText;Comparisons=Contains|Contains|Contains|Contains|Contains|Contains</t>
+  </si>
+  <si>
+    <t>URL=http:www.interactivebrokers.com;Browser=Chrome</t>
+  </si>
+  <si>
+    <t>Verify the home page</t>
+  </si>
+  <si>
+    <t>InputSpecs=File!Demo.xlsx!IBKRHomePage</t>
+  </si>
+  <si>
+    <t>InputSpecs=File!Demo.xlsx!IBKR</t>
+  </si>
+  <si>
+    <t>IBKR#</t>
+  </si>
+  <si>
+    <t>IBKRHome#</t>
+  </si>
+  <si>
+    <t>IB rated #1 Online Broker</t>
+  </si>
+  <si>
+    <t>Verify existence of a link indicating IB was rated #1 Online Broker</t>
+  </si>
+  <si>
+    <t>Trade mainland shares via the Shanghai</t>
+  </si>
+  <si>
+    <t>Visit the Investors' Marketplace</t>
+  </si>
+  <si>
+    <t>Verify existence of a link to the Investors' Marketplace</t>
+  </si>
+  <si>
+    <t>Verify the IB home page title</t>
+  </si>
+  <si>
+    <t>Value=Interactive Brokers</t>
+  </si>
+  <si>
+    <t>Verify the English language option exists</t>
+  </si>
+  <si>
+    <t>/html/body/header/div[1]/div/div[2]/ul/li[1]/a</t>
+  </si>
+  <si>
+    <t>WHY IB</t>
+  </si>
+  <si>
+    <t>Value=English;Option=IgnoreCase</t>
+  </si>
+  <si>
+    <t>Verify the WHY IB link exists</t>
+  </si>
+  <si>
+    <t>PRICING</t>
+  </si>
+  <si>
+    <t>Verify the PRICING link exists</t>
+  </si>
+  <si>
+    <t>TRADING</t>
+  </si>
+  <si>
+    <t>Verify the TRADING link exists</t>
+  </si>
+  <si>
+    <t>EDUCATION</t>
+  </si>
+  <si>
+    <t>Verify the EDUCATION link exists</t>
+  </si>
+  <si>
+    <t>ABOUT IB</t>
+  </si>
+  <si>
+    <t>CONTACT US</t>
+  </si>
+  <si>
+    <t>Verify the CONTACT US link exists</t>
+  </si>
+  <si>
+    <t>Verify the ABOUT IB link exists</t>
+  </si>
+  <si>
+    <t>runJS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try to find the SEARCH by java script </t>
+  </si>
+  <si>
+    <t>jsCode=document.getElementById("searchField").click()</t>
+  </si>
+  <si>
+    <t>Wait a bit</t>
+  </si>
+  <si>
+    <t>Verify the Log In link exists</t>
+  </si>
+  <si>
+    <t>OPEN ACCOUNT</t>
+  </si>
+  <si>
+    <t>Verify the OPEN ACCCOUNT link exists</t>
+  </si>
+  <si>
+    <t>/html/body/header/div[1]/div/div[2]/ul/li[3]/a</t>
+  </si>
+  <si>
+    <t>Value=LOG IN;CompareMode=Contains</t>
+  </si>
+  <si>
+    <t>Value=Visit the Investors' Marketplace;CompareMode=Contains;Option=IgnoreCase;TotalWaitTime=30;WaitInterval=1000</t>
+  </si>
+  <si>
+    <t>Verify existence of a link indicating one can Trade mainland shares on the Shanghai exchange</t>
+  </si>
+  <si>
+    <t>JobTitle=Software Engineer;Duty=Media Services;Location=Palo Alto;FirstName=Joe;LastName=Zarnitzki;Phone=917- 732 1616;Power=Climb to the moon on a slippery slope</t>
+  </si>
+  <si>
+    <t>Value={duty};CompareMode=Contains;Option=IgnoreCase;tags=li,a,span</t>
+  </si>
+  <si>
+    <t>Click the 'Attach' option of uploading resume</t>
+  </si>
+  <si>
+    <t>Press Enter</t>
+  </si>
+  <si>
+    <t>Value={JobTitle};CompareMode=Contains;Option=IgnoreCase;tags=div,ul,li,a,span</t>
+  </si>
+  <si>
+    <t>Value={Duty};CompareMode=Contains;Option=IgnoreCase;tags=div,ul,li,a,span</t>
+  </si>
+  <si>
+    <t>Value={Location};CompareMode=Contains;Option=IgnoreCase;tags=div,ul,li,a,span</t>
+  </si>
+  <si>
+    <t>JobTitle=Software Engineer;Duty=Test;Location=New York;FirstName=Russ;LastName=Yarworth;Phone=914 736 1777;Power=Jump rope for two days straight;buttonLocator=/html/body/section[2]/div/div</t>
+  </si>
+  <si>
+    <t>AirTimeURL=http://www.airtime.com;AirTimeTitle=airtime;browser=Firefox</t>
   </si>
 </sst>
 </file>
@@ -1198,7 +1350,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1221,17 +1373,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1240,7 +1381,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1250,7 +1391,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1261,7 +1401,127 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="76">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2002,11 +2262,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2056,16 +2316,18 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="G2" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I2" s="2" t="str">
         <f t="shared" ref="I2:I6" si="0">"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
-        <v>list.add(new String[] {"Demo#",  "setVars",  "",  "",  "",  "",  "URL=https:www.kickstarter.com;Browser=Chrome",  "Set up the site information"});</v>
+        <v>list.add(new String[] {"Demo#",  "setVars",  "",  "",  "",  "no",  "URL=https:www.kickstarter.com;Browser=Chrome",  "Set up the site information"});</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2075,16 +2337,18 @@
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="G3" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I3" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"Demo#",  "newTest",  "",  "",  "",  "",  "InputSpecs=File!Demo.xlsx!KickStartMainPage",  "Verify the KickStarter main page"});</v>
+        <v>list.add(new String[] {"Demo#",  "newTest",  "",  "",  "",  "no",  "InputSpecs=File!Demo.xlsx!KickStartMainPage",  "Verify the KickStarter main page"});</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2094,16 +2358,18 @@
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="G4" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"Demo#",  "newTest",  "",  "",  "",  "",  "InputSpecs=File!Demo.xlsx!KickStarterProject",  "Work with some View KickStarterProject Page"});</v>
+        <v>list.add(new String[] {"Demo#",  "newTest",  "",  "",  "",  "no",  "InputSpecs=File!Demo.xlsx!KickStarterProject",  "Work with some View KickStarterProject Page"});</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2113,16 +2379,18 @@
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="G5" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>275</v>
+        <v>358</v>
       </c>
       <c r="I5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"Demo#",  "generateReport",  "",  "",  "",  "",  "Description=Demo KickStarter Results",  "Generate the report for the Kick Starter section"});</v>
+        <v>list.add(new String[] {"Demo#",  "generateReport",  "",  "",  "",  "no",  "Description=Demo KickStarter Results",  "Generate report for the Kick Starter section"});</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2137,7 +2405,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>79</v>
@@ -2157,16 +2425,18 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="G7" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>276</v>
+        <v>359</v>
       </c>
       <c r="I7" s="2" t="str">
-        <f t="shared" ref="I7:I9" si="1">"list.add(new String[] {" &amp; """" &amp; A7 &amp; """" &amp; ",  " &amp; """" &amp; B7 &amp; """" &amp; ",  " &amp; """" &amp; C7 &amp; """" &amp; ",  " &amp; """" &amp; D7 &amp;  """" &amp;  ",  " &amp; """" &amp; E7 &amp; """" &amp; ",  " &amp; """" &amp; F7 &amp; """" &amp; ",  " &amp; """" &amp; G7 &amp; """" &amp; ",  " &amp; """" &amp; H7 &amp; """" &amp; "});"</f>
-        <v>list.add(new String[] {"Demo#",  "generateReport",  "",  "",  "",  "",  "Description=Demo AirTime Results",  "Generate the report for the Air Time section"});</v>
+        <f t="shared" ref="I7:I11" si="1">"list.add(new String[] {" &amp; """" &amp; A7 &amp; """" &amp; ",  " &amp; """" &amp; B7 &amp; """" &amp; ",  " &amp; """" &amp; C7 &amp; """" &amp; ",  " &amp; """" &amp; D7 &amp;  """" &amp;  ",  " &amp; """" &amp; E7 &amp; """" &amp; ",  " &amp; """" &amp; F7 &amp; """" &amp; ",  " &amp; """" &amp; G7 &amp; """" &amp; ",  " &amp; """" &amp; H7 &amp; """" &amp; "});"</f>
+        <v>list.add(new String[] {"Demo#",  "generateReport",  "",  "",  "",  "no",  "Description=Demo AirTime Results",  "Generate report for the Air Time section"});</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2179,16 +2449,18 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="G8" s="4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>list.add(new String[] {"Demo#",  "newTest",  "",  "",  "",  "",  "InputSpecs=File!Testomato.xlsx!Root",  "Work with the Testomato web site"});</v>
+        <v>list.add(new String[] {"Demo#",  "newTest",  "",  "",  "",  "no",  "InputSpecs=File!Testomato.xlsx!Root",  "Work with the Testomato web site"});</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2201,41 +2473,147 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="G9" s="4" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>278</v>
+        <v>360</v>
       </c>
       <c r="I9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>list.add(new String[] {"Demo#",  "generateReport",  "",  "",  "",  "",  "Description=Demo Tomato Results",  "Generate the report for the Tomato section"});</v>
+        <v>list.add(new String[] {"Demo#",  "generateReport",  "",  "",  "",  "no",  "Description=Demo Tomato Results",  "Generate report for the Testomato section"});</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="I10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>list.add(new String[] {"Demo#",  "RunExternalMethod",  "",  "",  "",  "no",  "Class=DDTExternal;type=DDTTestContext;method=trivialFail",  "Try a (trivial) failing External method"});</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="I11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>list.add(new String[] {"Demo#",  "RunExternalMethod",  "",  "",  "",  "no",  "Class=DDTExternal;type=DDTTestContext;method=trivialPass",  "Try a (trivial) passing External method"});</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I12" s="2" t="str">
+        <f>"list.add(new String[] {" &amp; """" &amp; A12 &amp; """" &amp; ",  " &amp; """" &amp; B12 &amp; """" &amp; ",  " &amp; """" &amp; C12 &amp; """" &amp; ",  " &amp; """" &amp; D12 &amp;  """" &amp;  ",  " &amp; """" &amp; E12 &amp; """" &amp; ",  " &amp; """" &amp; F12 &amp; """" &amp; ",  " &amp; """" &amp; G12 &amp; """" &amp; ",  " &amp; """" &amp; H12 &amp; """" &amp; "});"</f>
+        <v>list.add(new String[] {"Demo#",  "newTest",  "",  "",  "",  "no",  "InputSpecs=File!Demo.xlsx!IBKR",  "Work with the Testomato web site"});</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H1 H3:H9">
-    <cfRule type="cellIs" dxfId="59" priority="86" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H3:H10 H1">
+    <cfRule type="cellIs" dxfId="75" priority="98" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="99" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="88" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="100" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1 H3:H9">
-    <cfRule type="cellIs" dxfId="56" priority="85" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H3:H10 H1">
+    <cfRule type="cellIs" dxfId="72" priority="97" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="71" priority="10" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="11" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="12" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="68" priority="9" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="cellIs" dxfId="67" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="cellIs" dxfId="64" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C9 C12:C1048576">
+      <formula1>Locator</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
       <formula1>Action</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
-      <formula1>Locator</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>Query</formula1>
@@ -2250,9 +2628,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2298,10 +2676,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -2309,7 +2687,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I2" s="4" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
@@ -2318,7 +2696,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>5</v>
@@ -2328,19 +2706,19 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>209</v>
+        <v>416</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I3" s="4" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A3 &amp; """" &amp; ",  " &amp; """" &amp; B3 &amp; """" &amp; ",  " &amp; """" &amp; C3 &amp; """" &amp; ",  " &amp; """" &amp; D3 &amp;  """" &amp;  ",  " &amp; """" &amp; E3 &amp; """" &amp; ",  " &amp; """" &amp; F3 &amp; """" &amp; ",  " &amp; """" &amp; G3 &amp; """" &amp; ",  " &amp; """" &amp; H3 &amp; """" &amp; "});"</f>
-        <v>list.add(new String[] {"AirTime#",  "setVars",  "",  "",  "",  "",  "AirTimeURL=http://www.airtime.com;AirTimeTitle=airtime;browser=Chrome",  "Set variables for AirTime"});</v>
+        <v>list.add(new String[] {"AirTime#",  "setVars",  "",  "",  "",  "",  "AirTimeURL=http://www.airtime.com;AirTimeTitle=airtime;browser=Firefox",  "Set variables for AirTime"});</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>5</v>
@@ -2350,19 +2728,19 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>361</v>
+        <v>415</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I4" s="4" t="str">
         <f t="shared" ref="I4:I5" si="0">"list.add(new String[] {" &amp; """" &amp; A4 &amp; """" &amp; ",  " &amp; """" &amp; B4 &amp; """" &amp; ",  " &amp; """" &amp; C4 &amp; """" &amp; ",  " &amp; """" &amp; D4 &amp;  """" &amp;  ",  " &amp; """" &amp; E4 &amp; """" &amp; ",  " &amp; """" &amp; F4 &amp; """" &amp; ",  " &amp; """" &amp; G4 &amp; """" &amp; ",  " &amp; """" &amp; H4 &amp; """" &amp; "});"</f>
-        <v>list.add(new String[] {"AirTime#",  "setVars",  "",  "",  "",  "",  "JobTitle=Software Engineer;Duty=Test;Location=New York;FirstName=Russ;LastName=Yarworth;Phone=914 736 1777;Power=Jump rope for two days straight;buttonLocator=/html/body/section[2]/div/div/div[2]/ul/li[1]/a/span",  "Set Variables for position validation"});</v>
+        <v>list.add(new String[] {"AirTime#",  "setVars",  "",  "",  "",  "",  "JobTitle=Software Engineer;Duty=Test;Location=New York;FirstName=Russ;LastName=Yarworth;Phone=914 736 1777;Power=Jump rope for two days straight;buttonLocator=/html/body/section[2]/div/div",  "Set Variables for position validation"});</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>120</v>
@@ -2372,10 +2750,10 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="I5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2384,7 +2762,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>5</v>
@@ -2394,19 +2772,19 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>362</v>
+        <v>408</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I6" s="4" t="str">
         <f t="shared" ref="I6:I7" si="1">"list.add(new String[] {" &amp; """" &amp; A6 &amp; """" &amp; ",  " &amp; """" &amp; B6 &amp; """" &amp; ",  " &amp; """" &amp; C6 &amp; """" &amp; ",  " &amp; """" &amp; D6 &amp;  """" &amp;  ",  " &amp; """" &amp; E6 &amp; """" &amp; ",  " &amp; """" &amp; F6 &amp; """" &amp; ",  " &amp; """" &amp; G6 &amp; """" &amp; ",  " &amp; """" &amp; H6 &amp; """" &amp; "});"</f>
-        <v>list.add(new String[] {"AirTime#",  "setVars",  "",  "",  "",  "",  "JobTitle=Software Engineer;Duty=Media Services;Location=Palo Alto;FirstName=Joe;LastName=Zarnitzki;Phone=917- 732 1616;Power=Climb to the moon on a slippery slope;buttonLocator=/html/body/section[2]/div/div/div[3]/ul/li[3]/a/span",  "Set Variables for position validation"});</v>
+        <v>list.add(new String[] {"AirTime#",  "setVars",  "",  "",  "",  "",  "JobTitle=Software Engineer;Duty=Media Services;Location=Palo Alto;FirstName=Joe;LastName=Zarnitzki;Phone=917- 732 1616;Power=Climb to the moon on a slippery slope",  "Set Variables for position validation"});</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>120</v>
@@ -2414,34 +2792,32 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>81</v>
-      </c>
+      <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="I7" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>list.add(new String[] {"AirTime#",  "NewTest",  "",  "",  "",  "no",  "InputSpecs=File!Demo.xlsx!ValidateAirTimePosition",  "Validate this position"});</v>
+        <v>list.add(new String[] {"AirTime#",  "NewTest",  "",  "",  "",  "",  "InputSpecs=File!Demo.xlsx!ValidateAirTimePosition",  "Validate this position"});</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H4:H7 H1:H2">
-    <cfRule type="cellIs" dxfId="15" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="22" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="23" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="24" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H7 H1:H2">
-    <cfRule type="cellIs" dxfId="12" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="21" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2509,10 +2885,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -2520,7 +2896,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I2" s="4" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
@@ -2529,7 +2905,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>5</v>
@@ -2539,10 +2915,10 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I3" s="4" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A3 &amp; """" &amp; ",  " &amp; """" &amp; B3 &amp; """" &amp; ",  " &amp; """" &amp; C3 &amp; """" &amp; ",  " &amp; """" &amp; D3 &amp;  """" &amp;  ",  " &amp; """" &amp; E3 &amp; """" &amp; ",  " &amp; """" &amp; F3 &amp; """" &amp; ",  " &amp; """" &amp; G3 &amp; """" &amp; ",  " &amp; """" &amp; H3 &amp; """" &amp; "});"</f>
@@ -2551,7 +2927,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>5</v>
@@ -2561,10 +2937,10 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I4" s="4" t="str">
         <f t="shared" ref="I4:I7" si="0">"list.add(new String[] {" &amp; """" &amp; A4 &amp; """" &amp; ",  " &amp; """" &amp; B4 &amp; """" &amp; ",  " &amp; """" &amp; C4 &amp; """" &amp; ",  " &amp; """" &amp; D4 &amp;  """" &amp;  ",  " &amp; """" &amp; E4 &amp; """" &amp; ",  " &amp; """" &amp; F4 &amp; """" &amp; ",  " &amp; """" &amp; G4 &amp; """" &amp; ",  " &amp; """" &amp; H4 &amp; """" &amp; "});"</f>
@@ -2573,7 +2949,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>120</v>
@@ -2585,10 +2961,10 @@
         <v>81</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="I5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2597,7 +2973,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>5</v>
@@ -2607,10 +2983,10 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2619,7 +2995,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>120</v>
@@ -2629,10 +3005,10 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="I7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2641,18 +3017,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H4:H7 H1:H2">
-    <cfRule type="cellIs" dxfId="11" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H7 H1:H2">
-    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2672,9 +3048,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2682,10 +3058,10 @@
     <col min="1" max="1" width="15.5703125" style="7" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" style="7" customWidth="1"/>
     <col min="3" max="3" width="13" style="7" customWidth="1"/>
-    <col min="4" max="4" width="43.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="60.5703125" style="7" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" style="7" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="7"/>
-    <col min="7" max="7" width="51.28515625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="63.140625" style="7" customWidth="1"/>
     <col min="8" max="8" width="34.5703125" style="7" customWidth="1"/>
     <col min="9" max="9" width="63.140625" style="7" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="7"/>
@@ -2720,7 +3096,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
@@ -2730,10 +3106,10 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I2" s="4" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
@@ -2742,7 +3118,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>9</v>
@@ -2754,10 +3130,10 @@
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I3" s="4" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A3 &amp; """" &amp; ",  " &amp; """" &amp; B3 &amp; """" &amp; ",  " &amp; """" &amp; C3 &amp; """" &amp; ",  " &amp; """" &amp; D3 &amp;  """" &amp;  ",  " &amp; """" &amp; E3 &amp; """" &amp; ",  " &amp; """" &amp; F3 &amp; """" &amp; ",  " &amp; """" &amp; G3 &amp; """" &amp; ",  " &amp; """" &amp; H3 &amp; """" &amp; "});"</f>
@@ -2766,7 +3142,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>57</v>
@@ -2775,26 +3151,26 @@
         <v>127</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>115</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>220</v>
+        <v>412</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="I4" s="4" t="str">
         <f t="shared" ref="I4:I35" si="0">"list.add(new String[] {" &amp; """" &amp; A4 &amp; """" &amp; ",  " &amp; """" &amp; B4 &amp; """" &amp; ",  " &amp; """" &amp; C4 &amp; """" &amp; ",  " &amp; """" &amp; D4 &amp;  """" &amp;  ",  " &amp; """" &amp; E4 &amp; """" &amp; ",  " &amp; """" &amp; F4 &amp; """" &amp; ",  " &amp; """" &amp; G4 &amp; """" &amp; ",  " &amp; """" &amp; H4 &amp; """" &amp; "});"</f>
-        <v>list.add(new String[] {"AirTimeJob#",  "verifyWebElement",  "xpath",  "{buttonLocator}",  "getText",  "",  "Value={JobTitle};CompareMode=Contains;Option=IgnoreCase",  "Verify a job title ({JobTitle}) is shown at xpath locator: {buttonLocator}"});</v>
+        <v>list.add(new String[] {"AirTimeJob#",  "verifyWebElement",  "xpath",  "{buttonLocator}",  "getText",  "",  "Value={JobTitle};CompareMode=Contains;Option=IgnoreCase;tags=div,ul,li,a,span",  "Verify a job title ({JobTitle}) is shown at xpath locator: {buttonLocator}"});</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>57</v>
@@ -2803,26 +3179,26 @@
         <v>127</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>115</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>221</v>
+        <v>413</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I5" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"AirTimeJob#",  "verifyWebElement",  "xpath",  "{buttonLocator}",  "getText",  "",  "Value={Duty};CompareMode=Contains;Option=IgnoreCase",  "Verify a duty ({duty}) is shown at xpath locator: {buttonLocator}"});</v>
+        <v>list.add(new String[] {"AirTimeJob#",  "verifyWebElement",  "xpath",  "{buttonLocator}",  "getText",  "",  "Value={Duty};CompareMode=Contains;Option=IgnoreCase;tags=div,ul,li,a,span",  "Verify a duty ({duty}) is shown at xpath locator: {buttonLocator}"});</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>57</v>
@@ -2831,26 +3207,26 @@
         <v>127</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>115</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>222</v>
+        <v>414</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"AirTimeJob#",  "verifyWebElement",  "xpath",  "{buttonLocator}",  "getText",  "",  "Value={Location};CompareMode=Contains;Option=IgnoreCase",  "Verify a location ({location}) is shown at xpath locator: {buttonLocator}"});</v>
+        <v>list.add(new String[] {"AirTimeJob#",  "verifyWebElement",  "xpath",  "{buttonLocator}",  "getText",  "",  "Value={Location};CompareMode=Contains;Option=IgnoreCase;tags=div,ul,li,a,span",  "Verify a location ({location}) is shown at xpath locator: {buttonLocator}"});</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>8</v>
@@ -2859,22 +3235,26 @@
         <v>127</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="E7" s="4"/>
+        <v>253</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>409</v>
+      </c>
       <c r="H7" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="I7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"AirTimeJob#",  "click",  "xpath",  "{buttonLocator}",  "",  "",  "",  "Click the job title button for {JobTitle} in {Location}"});</v>
+        <v>list.add(new String[] {"AirTimeJob#",  "click",  "xpath",  "{buttonLocator}",  "getText",  "",  "Value={duty};CompareMode=Contains;Option=IgnoreCase;tags=li,a,span",  "Click the job title button for {JobTitle} in {Location}"});</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>57</v>
@@ -2883,17 +3263,17 @@
         <v>127</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>115</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="I8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2902,7 +3282,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>57</v>
@@ -2911,17 +3291,17 @@
         <v>127</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>115</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2930,7 +3310,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>8</v>
@@ -2939,13 +3319,13 @@
         <v>127</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="I10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2954,20 +3334,20 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="I11" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2976,7 +3356,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>5</v>
@@ -2986,10 +3366,10 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="I12" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2998,7 +3378,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>57</v>
@@ -3007,17 +3387,17 @@
         <v>127</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>115</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="I13" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3026,22 +3406,22 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>132</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I14" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3050,22 +3430,22 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="I15" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3074,7 +3454,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>7</v>
@@ -3083,15 +3463,15 @@
         <v>132</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="I16" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3100,7 +3480,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>57</v>
@@ -3109,17 +3489,17 @@
         <v>132</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>115</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="I17" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3128,7 +3508,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>7</v>
@@ -3137,15 +3517,15 @@
         <v>132</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I18" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3154,7 +3534,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>57</v>
@@ -3163,17 +3543,17 @@
         <v>132</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I19" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3182,7 +3562,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>7</v>
@@ -3191,15 +3571,15 @@
         <v>132</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="I20" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3208,7 +3588,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>57</v>
@@ -3217,17 +3597,17 @@
         <v>132</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="I21" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3236,7 +3616,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>7</v>
@@ -3245,15 +3625,15 @@
         <v>132</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I22" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3262,7 +3642,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>57</v>
@@ -3271,17 +3651,17 @@
         <v>132</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="I23" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3290,7 +3670,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>7</v>
@@ -3299,15 +3679,15 @@
         <v>132</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="I24" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3316,7 +3696,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>8</v>
@@ -3325,13 +3705,13 @@
         <v>132</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="I25" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3340,7 +3720,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>58</v>
@@ -3350,10 +3730,10 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="I26" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3362,7 +3742,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>57</v>
@@ -3371,17 +3751,17 @@
         <v>127</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>115</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="I27" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3390,20 +3770,20 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="I28" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3412,31 +3792,31 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4" t="s">
-        <v>352</v>
+        <v>410</v>
       </c>
       <c r="I29" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"AirTimeJob#",  "click",  "partialLinkText",  "Attach",  "",  "",  "",  "Click the 'Paste' option of uploading resume"});</v>
+        <v>list.add(new String[] {"AirTimeJob#",  "click",  "partialLinkText",  "Attach",  "",  "",  "",  "Click the 'Attach' option of uploading resume"});</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>7</v>
@@ -3446,10 +3826,10 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="I30" s="4" t="str">
         <f t="shared" ref="I30" si="1">"list.add(new String[] {" &amp; """" &amp; A30 &amp; """" &amp; ",  " &amp; """" &amp; B30 &amp; """" &amp; ",  " &amp; """" &amp; C30 &amp; """" &amp; ",  " &amp; """" &amp; D30 &amp;  """" &amp;  ",  " &amp; """" &amp; E30 &amp; """" &amp; ",  " &amp; """" &amp; F30 &amp; """" &amp; ",  " &amp; """" &amp; G30 &amp; """" &amp; ",  " &amp; """" &amp; H30 &amp; """" &amp; "});"</f>
@@ -3458,7 +3838,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>7</v>
@@ -3470,41 +3850,41 @@
         <v>81</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>248</v>
+        <v>411</v>
       </c>
       <c r="I31" s="4" t="str">
         <f t="shared" ref="I31:I32" si="2">"list.add(new String[] {" &amp; """" &amp; A31 &amp; """" &amp; ",  " &amp; """" &amp; B31 &amp; """" &amp; ",  " &amp; """" &amp; C31 &amp; """" &amp; ",  " &amp; """" &amp; D31 &amp;  """" &amp;  ",  " &amp; """" &amp; E31 &amp; """" &amp; ",  " &amp; """" &amp; F31 &amp; """" &amp; ",  " &amp; """" &amp; G31 &amp; """" &amp; ",  " &amp; """" &amp; H31 &amp; """" &amp; "});"</f>
-        <v>list.add(new String[] {"AirTimeJob#",  "sendKeys",  "",  "",  "",  "no",  "Value=;enter=true",  "Enter response to power question ({Power})"});</v>
+        <v>list.add(new String[] {"AirTimeJob#",  "sendKeys",  "",  "",  "",  "no",  "Value=;enter=true",  "Press Enter"});</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="I32" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>list.add(new String[] {"AirTimeJob#",  "Wait",  "",  "",  "",  "",  "WaitTime=5",  "Wait a couple of seconds"});</v>
+        <v>list.add(new String[] {"AirTimeJob#",  "Wait",  "",  "",  "",  "",  "WaitTime=3",  "Wait a couple of seconds"});</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>7</v>
@@ -3513,17 +3893,17 @@
         <v>132</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4" t="s">
         <v>81</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="I33" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3532,7 +3912,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>8</v>
@@ -3541,7 +3921,7 @@
         <v>132</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4" t="s">
@@ -3549,7 +3929,7 @@
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="I34" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3558,20 +3938,20 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="I35" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3580,7 +3960,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>10</v>
@@ -3591,7 +3971,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I36" s="4" t="str">
         <f t="shared" ref="I36" si="3">"list.add(new String[] {" &amp; """" &amp; A36 &amp; """" &amp; ",  " &amp; """" &amp; B36 &amp; """" &amp; ",  " &amp; """" &amp; C36 &amp; """" &amp; ",  " &amp; """" &amp; D36 &amp;  """" &amp;  ",  " &amp; """" &amp; E36 &amp; """" &amp; ",  " &amp; """" &amp; F36 &amp; """" &amp; ",  " &amp; """" &amp; G36 &amp; """" &amp; ",  " &amp; """" &amp; H36 &amp; """" &amp; "});"</f>
@@ -3600,18 +3980,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:H35">
-    <cfRule type="cellIs" dxfId="7" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="38" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="39" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="40" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H35">
-    <cfRule type="cellIs" dxfId="4" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="37" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3635,9 +4015,596 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9" style="4" customWidth="1"/>
+    <col min="7" max="7" width="50.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="55.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="55.140625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="I2" s="2" t="str">
+        <f t="shared" ref="I2:I3" si="0">"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
+        <v>list.add(new String[] {"IBKR#",  "setVars",  "",  "",  "",  "",  "URL=http:www.interactivebrokers.com;Browser=Chrome",  "Set up the site information"});</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="I3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>list.add(new String[] {"IBKR#",  "newTest",  "",  "",  "",  "",  "InputSpecs=File!Demo.xlsx!IBKRHomePage",  "Verify the home page"});</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H3 H1">
+    <cfRule type="cellIs" dxfId="11" priority="10" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="12" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3 H1">
+    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
+      <formula1>Locator</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+      <formula1>Query</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
+      <formula1>Action</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="55.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="55.140625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="I2" s="2" t="str">
+        <f t="shared" ref="I2:I13" si="0">"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
+        <v>list.add(new String[] {"IBKRHome#",  "setVars",  "",  "",  "",  "",  "URL=http:www.interactivebrokers.com;Browser=Chrome",  "Set up the site information"});</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="I3" s="4" t="str">
+        <f>"list.add(new String[] {" &amp; """" &amp; A3 &amp; """" &amp; ",  " &amp; """" &amp; B3 &amp; """" &amp; ",  " &amp; """" &amp; C3 &amp; """" &amp; ",  " &amp; """" &amp; D3 &amp;  """" &amp;  ",  " &amp; """" &amp; E3 &amp; """" &amp; ",  " &amp; """" &amp; F3 &amp; """" &amp; ",  " &amp; """" &amp; G3 &amp; """" &amp; ",  " &amp; """" &amp; H3 &amp; """" &amp; "});"</f>
+        <v>list.add(new String[] {"IBKRHome#",  "createWebDriver",  "",  "",  "",  "",  "URL={url};Browser={browser};ptp=QSOF",  "Create a {browser} web driver"});</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="I4" s="4" t="str">
+        <f>"list.add(new String[] {" &amp; """" &amp; A4 &amp; """" &amp; ",  " &amp; """" &amp; B4 &amp; """" &amp; ",  " &amp; """" &amp; C4 &amp; """" &amp; ",  " &amp; """" &amp; D4 &amp;  """" &amp;  ",  " &amp; """" &amp; E4 &amp; """" &amp; ",  " &amp; """" &amp; F4 &amp; """" &amp; ",  " &amp; """" &amp; G4 &amp; """" &amp; ",  " &amp; """" &amp; H4 &amp; """" &amp; "});"</f>
+        <v>list.add(new String[] {"IBKRHome#",  "verifyWebDriver",  "",  "",  "GetTitle",  "",  "Value=Interactive Brokers",  "Verify the IB home page title"});</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="I5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>list.add(new String[] {"IBKRHome#",  "findElement",  "PartialLinkText",  "IB rated #1 Online Broker",  "",  "",  "",  "Verify existence of a link indicating IB was rated #1 Online Broker"});</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="I6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>list.add(new String[] {"IBKRHome#",  "findElement",  "PartialLinkText",  "Trade mainland shares via the Shanghai",  "",  "",  "",  "Verify existence of a link indicating one can Trade mainland shares on the Shanghai exchange"});</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="I7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>list.add(new String[] {"IBKRHome#",  "findElement",  "PartialLinkText",  "Visit the Investors' Marketplace",  "",  "no",  "",  "Verify existence of a link to the Investors' Marketplace"});</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="I8" s="2" t="str">
+        <f t="shared" ref="I8" si="1">"list.add(new String[] {" &amp; """" &amp; A8 &amp; """" &amp; ",  " &amp; """" &amp; B8 &amp; """" &amp; ",  " &amp; """" &amp; C8 &amp; """" &amp; ",  " &amp; """" &amp; D8 &amp;  """" &amp;  ",  " &amp; """" &amp; E8 &amp; """" &amp; ",  " &amp; """" &amp; F8 &amp; """" &amp; ",  " &amp; """" &amp; G8 &amp; """" &amp; ",  " &amp; """" &amp; H8 &amp; """" &amp; "});"</f>
+        <v>list.add(new String[] {"IBKRHome#",  "WaitUntil",  "PartialLinkText",  "Visit the Investors' Marketplace",  "",  "no",  "Value=Visit the Investors' Marketplace;CompareMode=Contains;Option=IgnoreCase;TotalWaitTime=30;WaitInterval=1000",  "Verify existence of a link to the Investors' Marketplace"});</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="I9" s="2" t="str">
+        <f t="shared" ref="I9" si="2">"list.add(new String[] {" &amp; """" &amp; A9 &amp; """" &amp; ",  " &amp; """" &amp; B9 &amp; """" &amp; ",  " &amp; """" &amp; C9 &amp; """" &amp; ",  " &amp; """" &amp; D9 &amp;  """" &amp;  ",  " &amp; """" &amp; E9 &amp; """" &amp; ",  " &amp; """" &amp; F9 &amp; """" &amp; ",  " &amp; """" &amp; G9 &amp; """" &amp; ",  " &amp; """" &amp; H9 &amp; """" &amp; "});"</f>
+        <v>list.add(new String[] {"IBKRHome#",  "verifyWebElement",  "Xpath",  "/html/body/header/div[1]/div/div[2]/ul/li[1]/a",  "GetText",  "",  "Value=English;Option=IgnoreCase",  "Verify the English language option exists"});</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="I10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>list.add(new String[] {"IBKRHome#",  "findElement",  "LinkText",  "WHY IB",  "",  "",  "",  "Verify the WHY IB link exists"});</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="I11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>list.add(new String[] {"IBKRHome#",  "findElement",  "LinkText",  "PRICING",  "",  "",  "",  "Verify the PRICING link exists"});</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="I12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>list.add(new String[] {"IBKRHome#",  "findElement",  "LinkText",  "TRADING",  "",  "",  "",  "Verify the TRADING link exists"});</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="I13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>list.add(new String[] {"IBKRHome#",  "findElement",  "LinkText",  "EDUCATION",  "",  "",  "",  "Verify the EDUCATION link exists"});</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="I14" s="2" t="str">
+        <f t="shared" ref="I14:I19" si="3">"list.add(new String[] {" &amp; """" &amp; A14 &amp; """" &amp; ",  " &amp; """" &amp; B14 &amp; """" &amp; ",  " &amp; """" &amp; C14 &amp; """" &amp; ",  " &amp; """" &amp; D14 &amp;  """" &amp;  ",  " &amp; """" &amp; E14 &amp; """" &amp; ",  " &amp; """" &amp; F14 &amp; """" &amp; ",  " &amp; """" &amp; G14 &amp; """" &amp; ",  " &amp; """" &amp; H14 &amp; """" &amp; "});"</f>
+        <v>list.add(new String[] {"IBKRHome#",  "findElement",  "LinkText",  "ABOUT IB",  "",  "",  "",  "Verify the ABOUT IB link exists"});</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="I15" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>list.add(new String[] {"IBKRHome#",  "findElement",  "LinkText",  "CONTACT US",  "",  "",  "",  "Verify the CONTACT US link exists"});</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="I16" s="2" t="str">
+        <f t="shared" ref="I16:I17" si="4">"list.add(new String[] {" &amp; """" &amp; A16 &amp; """" &amp; ",  " &amp; """" &amp; B16 &amp; """" &amp; ",  " &amp; """" &amp; C16 &amp; """" &amp; ",  " &amp; """" &amp; D16 &amp;  """" &amp;  ",  " &amp; """" &amp; E16 &amp; """" &amp; ",  " &amp; """" &amp; F16 &amp; """" &amp; ",  " &amp; """" &amp; G16 &amp; """" &amp; ",  " &amp; """" &amp; H16 &amp; """" &amp; "});"</f>
+        <v>list.add(new String[] {"IBKRHome#",  "verifyWebElement",  "Xpath",  "/html/body/header/div[1]/div/div[2]/ul/li[3]/a",  "GetText",  "",  "Value=LOG IN;CompareMode=Contains",  "Verify the Log In link exists"});</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="I17" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>list.add(new String[] {"IBKRHome#",  "findElement",  "LinkText",  "OPEN ACCOUNT",  "",  "",  "",  "Verify the OPEN ACCCOUNT link exists"});</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="I18" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>list.add(new String[] {"IBKRHome#",  "runJS",  "",  "",  "",  "",  "jsCode=document.getElementById("searchField").click()",  "Try to find the SEARCH by java script "});</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="I19" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>list.add(new String[] {"IBKRHome#",  "Wait",  "",  "",  "",  "",  "WaitTime=5",  "Wait a bit"});</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H1 H3:H18">
+    <cfRule type="cellIs" dxfId="7" priority="26" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="27" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="28" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1 H3:H18">
+    <cfRule type="cellIs" dxfId="4" priority="25" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+      <formula1>Query</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17:C1048576 C2:C15">
+      <formula1>Locator</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
+      <formula1>Action</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -3649,32 +4616,32 @@
   <sheetData>
     <row r="1" spans="1:2" s="7" customFormat="1">
       <c r="A1" s="7" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="7" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="7" customFormat="1">
       <c r="A5" s="7" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="B6" s="7"/>
     </row>
@@ -3762,7 +4729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H30"/>
   <sheetViews>
@@ -3821,7 +4788,7 @@
         <v>63</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>64</v>
@@ -3861,10 +4828,10 @@
         <v>65</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3918,10 +4885,10 @@
         <v>72</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3941,7 +4908,7 @@
         <v>74</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4078,7 +5045,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D43"/>
   <sheetViews>
@@ -4130,7 +5097,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>115</v>
@@ -4152,7 +5119,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>132</v>
@@ -4180,7 +5147,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>34</v>
@@ -4264,7 +5231,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>132</v>
@@ -4278,7 +5245,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>34</v>
@@ -4310,8 +5277,8 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="C20" s="10" t="s">
-        <v>207</v>
+      <c r="C20" s="9" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4324,150 +5291,150 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="7" customFormat="1">
       <c r="A24" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>305</v>
+        <v>301</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="7" customFormat="1">
       <c r="A25" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>306</v>
+        <v>301</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="7" customFormat="1">
       <c r="A26" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>307</v>
+      <c r="C26" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="7" customFormat="1">
       <c r="B27" s="6"/>
-      <c r="C27" s="11" t="s">
-        <v>313</v>
+      <c r="C27" s="10" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="7" customFormat="1">
       <c r="B28" s="6"/>
-      <c r="C28" s="11" t="s">
-        <v>314</v>
+      <c r="C28" s="10" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>127</v>
       </c>
       <c r="C29" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>127</v>
       </c>
       <c r="C30" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>127</v>
       </c>
       <c r="C31" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>127</v>
       </c>
       <c r="C32" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>132</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="7" customFormat="1">
       <c r="C34" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="C35" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="C36" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>127</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>127</v>
       </c>
       <c r="C38" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="7" customFormat="1"/>
@@ -4487,7 +5454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I37"/>
   <sheetViews>
@@ -4539,7 +5506,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
@@ -4549,10 +5516,10 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I2" s="4" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
@@ -4561,7 +5528,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>9</v>
@@ -4573,10 +5540,10 @@
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I3" s="4" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A3 &amp; """" &amp; ",  " &amp; """" &amp; B3 &amp; """" &amp; ",  " &amp; """" &amp; C3 &amp; """" &amp; ",  " &amp; """" &amp; D3 &amp;  """" &amp;  ",  " &amp; """" &amp; E3 &amp; """" &amp; ",  " &amp; """" &amp; F3 &amp; """" &amp; ",  " &amp; """" &amp; G3 &amp; """" &amp; ",  " &amp; """" &amp; H3 &amp; """" &amp; "});"</f>
@@ -4585,7 +5552,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>57</v>
@@ -4594,17 +5561,17 @@
         <v>127</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>115</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="I4" s="4" t="str">
         <f t="shared" ref="I4:I37" si="0">"list.add(new String[] {" &amp; """" &amp; A4 &amp; """" &amp; ",  " &amp; """" &amp; B4 &amp; """" &amp; ",  " &amp; """" &amp; C4 &amp; """" &amp; ",  " &amp; """" &amp; D4 &amp;  """" &amp;  ",  " &amp; """" &amp; E4 &amp; """" &amp; ",  " &amp; """" &amp; F4 &amp; """" &amp; ",  " &amp; """" &amp; G4 &amp; """" &amp; ",  " &amp; """" &amp; H4 &amp; """" &amp; "});"</f>
@@ -4613,7 +5580,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>57</v>
@@ -4622,17 +5589,17 @@
         <v>127</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>115</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4641,7 +5608,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>57</v>
@@ -4650,17 +5617,17 @@
         <v>127</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>115</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4669,7 +5636,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>8</v>
@@ -4678,13 +5645,13 @@
         <v>127</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="I7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4693,7 +5660,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>57</v>
@@ -4702,17 +5669,17 @@
         <v>127</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>115</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="I8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4721,7 +5688,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>57</v>
@@ -4730,17 +5697,17 @@
         <v>127</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>115</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4749,7 +5716,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>8</v>
@@ -4758,13 +5725,13 @@
         <v>127</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="I10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4773,20 +5740,20 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="I11" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4795,7 +5762,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>57</v>
@@ -4804,17 +5771,17 @@
         <v>127</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>115</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="I12" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4823,22 +5790,22 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>132</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I13" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4847,22 +5814,22 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="I14" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4871,7 +5838,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
@@ -4880,15 +5847,15 @@
         <v>132</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="I15" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4897,7 +5864,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>7</v>
@@ -4906,15 +5873,15 @@
         <v>132</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I16" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4923,7 +5890,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>7</v>
@@ -4932,15 +5899,15 @@
         <v>132</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="I17" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4949,7 +5916,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>7</v>
@@ -4958,15 +5925,15 @@
         <v>132</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I18" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4975,7 +5942,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>7</v>
@@ -4984,15 +5951,15 @@
         <v>132</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="I19" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5001,7 +5968,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>8</v>
@@ -5010,13 +5977,13 @@
         <v>132</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="I20" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5025,7 +5992,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>57</v>
@@ -5034,17 +6001,17 @@
         <v>127</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>115</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I21" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5053,16 +6020,16 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
@@ -5070,7 +6037,7 @@
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="I22" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5079,16 +6046,16 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -5098,7 +6065,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>58</v>
@@ -5108,10 +6075,10 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="I24" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5120,20 +6087,20 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="I25" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5142,7 +6109,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>58</v>
@@ -5152,10 +6119,10 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="I26" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5170,7 +6137,7 @@
       <c r="C27" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D27" s="11"/>
+      <c r="D27" s="10"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -5179,7 +6146,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>7</v>
@@ -5187,11 +6154,11 @@
       <c r="C28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="14" t="s">
-        <v>315</v>
+      <c r="G28" s="13" t="s">
+        <v>308</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="I28" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5200,20 +6167,20 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="4"/>
-      <c r="D29" s="11"/>
+      <c r="D29" s="10"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="I29" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5222,20 +6189,20 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="4"/>
-      <c r="D30" s="11"/>
+      <c r="D30" s="10"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="I30" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5244,20 +6211,20 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="I31" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5266,7 +6233,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>58</v>
@@ -5276,10 +6243,10 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="I32" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5288,15 +6255,15 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="D33" s="11"/>
+      <c r="C33" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D33" s="10"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -5305,7 +6272,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>8</v>
@@ -5314,13 +6281,13 @@
         <v>127</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="I34" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5329,7 +6296,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>58</v>
@@ -5339,7 +6306,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4" t="str">
@@ -5349,7 +6316,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>58</v>
@@ -5361,7 +6328,7 @@
         <v>81</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4" t="str">
@@ -5371,7 +6338,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>10</v>
@@ -5382,7 +6349,7 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I37" s="4" t="str">
         <f t="shared" si="0"/>
@@ -5472,7 +6439,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -5482,7 +6449,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>11</v>
@@ -5494,7 +6461,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -5518,7 +6485,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>39</v>
@@ -5542,7 +6509,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>39</v>
@@ -5566,7 +6533,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>39</v>
@@ -5590,7 +6557,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>39</v>
@@ -5605,7 +6572,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="0"/>
@@ -5614,7 +6581,7 @@
     </row>
     <row r="8" spans="1:9" s="7" customFormat="1">
       <c r="A8" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>39</v>
@@ -5638,7 +6605,7 @@
     </row>
     <row r="9" spans="1:9" s="7" customFormat="1">
       <c r="A9" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>39</v>
@@ -5662,7 +6629,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>39</v>
@@ -5686,7 +6653,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>39</v>
@@ -5710,7 +6677,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>39</v>
@@ -5734,7 +6701,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>39</v>
@@ -5758,7 +6725,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>39</v>
@@ -5782,7 +6749,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>39</v>
@@ -5806,7 +6773,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>39</v>
@@ -5830,7 +6797,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>39</v>
@@ -5854,7 +6821,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>39</v>
@@ -5878,7 +6845,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>39</v>
@@ -5902,7 +6869,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>39</v>
@@ -5926,18 +6893,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1 H4:H6 H8:H20">
-    <cfRule type="cellIs" dxfId="55" priority="90" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="90" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="91" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="91" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="92" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="92" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1 H4:H6 H8:H20">
-    <cfRule type="cellIs" dxfId="52" priority="89" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="89" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5959,11 +6926,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6007,7 +6974,7 @@
     </row>
     <row r="2" spans="1:9" s="7" customFormat="1">
       <c r="A2" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
@@ -6029,7 +6996,7 @@
     </row>
     <row r="3" spans="1:9" s="7" customFormat="1">
       <c r="A3" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>9</v>
@@ -6053,7 +7020,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>118</v>
@@ -6069,93 +7036,33 @@
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>122</v>
       </c>
       <c r="I4" s="4" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A4 &amp; """" &amp; ",  " &amp; """" &amp; B4 &amp; """" &amp; ",  " &amp; """" &amp; C4 &amp; """" &amp; ",  " &amp; """" &amp; D4 &amp;  """" &amp;  ",  " &amp; """" &amp; E4 &amp; """" &amp; ",  " &amp; """" &amp; F4 &amp; """" &amp; ",  " &amp; """" &amp; G4 &amp; """" &amp; ",  " &amp; """" &amp; H4 &amp; """" &amp; "});"</f>
-        <v>list.add(new String[] {"KickStarterProject#",  "BranchOnElementValue",  "Xpath",  "/html/body/main/div[2]/div[1]/div[2]/div[2]/div/div/h1",  "getText",  "",  "Iterations=2;TotalWaitTime=30;WaitInterval=1000;Branches=File!Demo.xlsx!Bards|File!Demo.xlsx!Spock|File!Demo.xlsx!Journey|File!Demo.xlsx!Einstein|File!Demo.xlsx!Electoloom|File!Demo.xlsx!Kettle;Values=The Bard|Spock|Journey|Einstein|Electroloom|Kettle;Queries=GetText|GetText|GetText|GetText|GetText|GetText;Comparisons=Contains|Contains|Contains|Contains|Contains|Contains",  "Branch to various test cases based on the input"});</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="7" customFormat="1">
-      <c r="A5" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="I5" s="4" t="str">
-        <f t="shared" ref="I5:I6" si="0">"list.add(new String[] {" &amp; """" &amp; A5 &amp; """" &amp; ",  " &amp; """" &amp; B5 &amp; """" &amp; ",  " &amp; """" &amp; C5 &amp; """" &amp; ",  " &amp; """" &amp; D5 &amp;  """" &amp;  ",  " &amp; """" &amp; E5 &amp; """" &amp; ",  " &amp; """" &amp; F5 &amp; """" &amp; ",  " &amp; """" &amp; G5 &amp; """" &amp; ",  " &amp; """" &amp; H5 &amp; """" &amp; "});"</f>
-        <v>list.add(new String[] {"KickStarterProject#",  "WaitUntil",  "Xpath",  "/html/body/main/div[2]/div[1]/div[2]/div[2]/div/div/h1",  "getText",  "no",  "Value=Bard;CompareMode=Contains;TotalWaitTime=30;WaitInterval=1000;InputSpecs=File!Demo.xlsx!Bards",  "Wait until the bardsshow up"});</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="7" customFormat="1">
-      <c r="A6" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="I6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>list.add(new String[] {"KickStarterProject#",  "WaitUntil",  "Xpath",  "/html/body/main/div[2]/div[1]/div[2]/div[2]/div/div/h1",  "getText",  "no",  "Value=Spock;CompareMode=Contains;TotalWaitTime=20;WaitInterval=1000;InputSpecs=File!Demo.xlsx!Spock",  "Wait until the bardsshow up"});</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="D7" s="13"/>
+        <v>list.add(new String[] {"KickStarterProject#",  "BranchOnElementValue",  "Xpath",  "/html/body/main/div[2]/div[1]/div[2]/div[2]/div/div/h1",  "getText",  "",  "Iterations=4;TotalWaitTime=50;WaitInterval=1000;Branches=File!Demo.xlsx!Bards|File!Demo.xlsx!Spock|File!Demo.xlsx!Journey|File!Demo.xlsx!Einstein|File!Demo.xlsx!Electoloom|File!Demo.xlsx!Kettle;Values=The Bard|Spock|Journey|Einstein|Electroloom|Kettle;Queries=GetText|GetText|GetText|GetText|GetText|GetText;Comparisons=Contains|Contains|Contains|Contains|Contains|Contains",  "Branch to various test cases based on the input"});</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="D5" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:H3">
-    <cfRule type="cellIs" dxfId="51" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="22" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="23" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="24" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H3">
-    <cfRule type="cellIs" dxfId="48" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="21" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6184,7 +7091,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6240,7 +7147,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -6260,13 +7167,15 @@
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="H3" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I3" s="4" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A3 &amp; """" &amp; ",  " &amp; """" &amp; B3 &amp; """" &amp; ",  " &amp; """" &amp; C3 &amp; """" &amp; ",  " &amp; """" &amp; D3 &amp;  """" &amp;  ",  " &amp; """" &amp; E3 &amp; """" &amp; ",  " &amp; """" &amp; F3 &amp; """" &amp; ",  " &amp; """" &amp; G3 &amp; """" &amp; ",  " &amp; """" &amp; H3 &amp; """" &amp; "});"</f>
-        <v>list.add(new String[] {"Bards#",  "click",  "Xpath",  "/html/body/main/div[2]/div[1]/div[2]/div[2]/div/div/a",  "",  "",  "",  "Click the KickStarterProject to view"});</v>
+        <v>list.add(new String[] {"Bards#",  "click",  "Xpath",  "/html/body/main/div[2]/div[1]/div[2]/div[2]/div/div/a",  "",  "",  "qtp=QTOF",  "Click the KickStarterProject to view"});</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -6280,17 +7189,19 @@
         <v>40</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="H4" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I4" s="4" t="str">
         <f t="shared" ref="I4:I11" si="0">"list.add(new String[] {" &amp; """" &amp; A4 &amp; """" &amp; ",  " &amp; """" &amp; B4 &amp; """" &amp; ",  " &amp; """" &amp; C4 &amp; """" &amp; ",  " &amp; """" &amp; D4 &amp;  """" &amp;  ",  " &amp; """" &amp; E4 &amp; """" &amp; ",  " &amp; """" &amp; F4 &amp; """" &amp; ",  " &amp; """" &amp; G4 &amp; """" &amp; ",  " &amp; """" &amp; H4 &amp; """" &amp; "});"</f>
-        <v>list.add(new String[] {"Bards#",  "findElement",  "PartialLinkText",  "{KickStarterProjectTitle}",  "",  "",  "",  "Verify the existence of a link with KickStarterProject title "});</v>
+        <v>list.add(new String[] {"Bards#",  "findElement",  "PartialLinkText",  "{KickStarterProjectTitle}",  "",  "",  "qtp=QTOF",  "Verify the existence of a link with KickStarterProject title "});</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -6311,7 +7222,7 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>151</v>
@@ -6339,7 +7250,7 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>150</v>
@@ -6364,13 +7275,15 @@
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="H7" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"Bards#",  "click",  "id",  "button-back-this-proj",  "",  "",  "",  "Click the Back This KickStarterProject button"});</v>
+        <v>list.add(new String[] {"Bards#",  "click",  "id",  "button-back-this-proj",  "",  "",  "qtp=QTOF",  "Click the Back This KickStarterProject button"});</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -6387,10 +7300,10 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -6408,13 +7321,13 @@
         <v>40</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -6437,10 +7350,10 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -6458,7 +7371,7 @@
         <v>127</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -6473,18 +7386,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:H2">
-    <cfRule type="cellIs" dxfId="47" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="22" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="23" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="24" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H2">
-    <cfRule type="cellIs" dxfId="44" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="21" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6506,7 +7419,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6562,7 +7475,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4" t="str">
@@ -6585,13 +7498,15 @@
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="H3" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I3" s="4" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A3 &amp; """" &amp; ",  " &amp; """" &amp; B3 &amp; """" &amp; ",  " &amp; """" &amp; C3 &amp; """" &amp; ",  " &amp; """" &amp; D3 &amp;  """" &amp;  ",  " &amp; """" &amp; E3 &amp; """" &amp; ",  " &amp; """" &amp; F3 &amp; """" &amp; ",  " &amp; """" &amp; G3 &amp; """" &amp; ",  " &amp; """" &amp; H3 &amp; """" &amp; "});"</f>
-        <v>list.add(new String[] {"Journal#",  "click",  "Xpath",  "/html/body/main/div[2]/div[1]/div[2]/div[2]/div/div/a",  "",  "",  "",  "Click theView KickStarterProject button"});</v>
+        <v>list.add(new String[] {"Journal#",  "click",  "Xpath",  "/html/body/main/div[2]/div[1]/div[2]/div[2]/div/div/a",  "",  "",  "qtp=QTOF",  "Click theView KickStarterProject button"});</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -6605,21 +7520,21 @@
         <v>34</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>198</v>
+        <v>367</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I4" s="4" t="str">
         <f t="shared" ref="I4:I11" si="0">"list.add(new String[] {" &amp; """" &amp; A4 &amp; """" &amp; ",  " &amp; """" &amp; B4 &amp; """" &amp; ",  " &amp; """" &amp; C4 &amp; """" &amp; ",  " &amp; """" &amp; D4 &amp;  """" &amp;  ",  " &amp; """" &amp; E4 &amp; """" &amp; ",  " &amp; """" &amp; F4 &amp; """" &amp; ",  " &amp; """" &amp; G4 &amp; """" &amp; ",  " &amp; """" &amp; H4 &amp; """" &amp; "});"</f>
-        <v>list.add(new String[] {"Journal#",  "findElement",  "LinkText",  "{KickStarterProjectTitle}",  "GetText",  "",  "SaveAs=KickStarterProjectTitle",  "Verify the existence of a link with KickStarterProject title "});</v>
+        <v>list.add(new String[] {"Journal#",  "findElement",  "LinkText",  "{KickStarterProjectTitle}",  "GetText",  "",  "SaveAs=KickStarterProjectTitle;qtp=QTOF",  "Verify the existence of a link with KickStarterProject title "});</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -6689,17 +7604,19 @@
         <v>127</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="H7" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"Journal#",  "click",  "xpath",  "//*[@id="button-back-this-proj"]",  "",  "",  "",  "Click the Back This KickStarterProject button"});</v>
+        <v>list.add(new String[] {"Journal#",  "click",  "xpath",  "//*[@id="button-back-this-proj"]",  "",  "",  "qtp=QTOF",  "Click the Back This KickStarterProject button"});</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -6716,10 +7633,10 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -6737,13 +7654,13 @@
         <v>34</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -6766,10 +7683,10 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -6787,7 +7704,7 @@
         <v>127</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -6802,18 +7719,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:H2">
-    <cfRule type="cellIs" dxfId="43" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="26" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="27" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="28" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H2">
-    <cfRule type="cellIs" dxfId="40" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="25" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6835,7 +7752,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6891,7 +7808,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4" t="str">
@@ -6914,13 +7831,15 @@
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="H3" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I3" s="4" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A3 &amp; """" &amp; ",  " &amp; """" &amp; B3 &amp; """" &amp; ",  " &amp; """" &amp; C3 &amp; """" &amp; ",  " &amp; """" &amp; D3 &amp;  """" &amp;  ",  " &amp; """" &amp; E3 &amp; """" &amp; ",  " &amp; """" &amp; F3 &amp; """" &amp; ",  " &amp; """" &amp; G3 &amp; """" &amp; ",  " &amp; """" &amp; H3 &amp; """" &amp; "});"</f>
-        <v>list.add(new String[] {"Journal#",  "click",  "Xpath",  "/html/body/main/div[2]/div[1]/div[2]/div[2]/div/div/a",  "",  "",  "",  "Click theView KickStarterProject button"});</v>
+        <v>list.add(new String[] {"Journal#",  "click",  "Xpath",  "/html/body/main/div[2]/div[1]/div[2]/div[2]/div/div/a",  "",  "",  "qtp=QTOF",  "Click theView KickStarterProject button"});</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -6934,21 +7853,21 @@
         <v>34</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>198</v>
+        <v>367</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I4" s="4" t="str">
         <f t="shared" ref="I4:I11" si="0">"list.add(new String[] {" &amp; """" &amp; A4 &amp; """" &amp; ",  " &amp; """" &amp; B4 &amp; """" &amp; ",  " &amp; """" &amp; C4 &amp; """" &amp; ",  " &amp; """" &amp; D4 &amp;  """" &amp;  ",  " &amp; """" &amp; E4 &amp; """" &amp; ",  " &amp; """" &amp; F4 &amp; """" &amp; ",  " &amp; """" &amp; G4 &amp; """" &amp; ",  " &amp; """" &amp; H4 &amp; """" &amp; "});"</f>
-        <v>list.add(new String[] {"Journal#",  "findElement",  "LinkText",  "{KickStarterProjectTitle}",  "GetText",  "",  "SaveAs=KickStarterProjectTitle",  "Verify the existence of a link with KickStarterProject title "});</v>
+        <v>list.add(new String[] {"Journal#",  "findElement",  "LinkText",  "{KickStarterProjectTitle}",  "GetText",  "",  "SaveAs=KickStarterProjectTitle;qtp=QTOF",  "Verify the existence of a link with KickStarterProject title "});</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -7018,17 +7937,19 @@
         <v>127</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="H7" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"Journal#",  "click",  "xpath",  "//*[@id="button-back-this-proj"]",  "",  "",  "",  "Click the Back This KickStarterProject button"});</v>
+        <v>list.add(new String[] {"Journal#",  "click",  "xpath",  "//*[@id="button-back-this-proj"]",  "",  "",  "qtp=QTOF",  "Click the Back This KickStarterProject button"});</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -7045,10 +7966,10 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -7066,13 +7987,13 @@
         <v>34</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -7095,10 +8016,10 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -7116,7 +8037,7 @@
         <v>127</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -7131,18 +8052,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:H2">
-    <cfRule type="cellIs" dxfId="39" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H2">
-    <cfRule type="cellIs" dxfId="36" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7164,7 +8085,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7220,10 +8141,10 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="I2" s="4" t="str">
         <f t="shared" ref="I2:I11" si="0">"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
@@ -7245,13 +8166,15 @@
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="H3" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I3" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"Spock#",  "click",  "Xpath",  "//*[@id="main_content"]/div[1]/div[2]/div[2]/div/div/a",  "",  "",  "",  "Click theView KickStarterProject button"});</v>
+        <v>list.add(new String[] {"Spock#",  "click",  "Xpath",  "//*[@id="main_content"]/div[1]/div[2]/div[2]/div/div/a",  "",  "",  "qtp=QTOF",  "Click theView KickStarterProject button"});</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -7265,21 +8188,21 @@
         <v>40</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>198</v>
+        <v>367</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"Spock#",  "findElement",  "PartialLinkText",  "{KickStarterProjectTitle}",  "GetText",  "",  "SaveAs=KickStarterProjectTitle",  "Use the link with KickStarterProject title as partial link:debug:"});</v>
+        <v>list.add(new String[] {"Spock#",  "findElement",  "PartialLinkText",  "{KickStarterProjectTitle}",  "GetText",  "",  "SaveAs=KickStarterProjectTitle;qtp=QTOF",  "Use the link with KickStarterProject title as partial link:debug:"});</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -7300,7 +8223,7 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>151</v>
@@ -7353,13 +8276,15 @@
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="H7" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"Spock#",  "click",  "id",  "button-back-this-proj",  "",  "",  "",  "Click the Back This KickStarterProject button"});</v>
+        <v>list.add(new String[] {"Spock#",  "click",  "id",  "button-back-this-proj",  "",  "",  "qtp=QTOF",  "Click the Back This KickStarterProject button"});</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -7376,10 +8301,10 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -7397,13 +8322,13 @@
         <v>40</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -7426,10 +8351,10 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -7446,8 +8371,8 @@
       <c r="C11" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>271</v>
+      <c r="D11" s="11" t="s">
+        <v>267</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -7462,18 +8387,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:H2">
-    <cfRule type="cellIs" dxfId="35" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H2">
-    <cfRule type="cellIs" dxfId="32" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7496,7 +8421,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7542,7 +8467,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
@@ -7552,10 +8477,10 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="I2" s="4" t="str">
         <f t="shared" ref="I2:I11" si="0">"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
@@ -7564,7 +8489,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>8</v>
@@ -7577,18 +8502,20 @@
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="H3" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I3" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"Electroloom#",  "click",  "Xpath",  "//*[@id="main_content"]/div[1]/div[2]/div[2]/div/div/a",  "",  "",  "",  "Click theView KickStarterProject button"});</v>
+        <v>list.add(new String[] {"Electroloom#",  "click",  "Xpath",  "//*[@id="main_content"]/div[1]/div[2]/div[2]/div/div/a",  "",  "",  "qtp=QTOF",  "Click theView KickStarterProject button"});</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>39</v>
@@ -7597,26 +8524,26 @@
         <v>40</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>198</v>
+        <v>367</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"Electroloom#",  "findElement",  "PartialLinkText",  "{KickStarterProjectTitle}",  "GetText",  "",  "SaveAs=KickStarterProjectTitle",  "Use the link with KickStarterProject title as partial link:debug:"});</v>
+        <v>list.add(new String[] {"Electroloom#",  "findElement",  "PartialLinkText",  "{KickStarterProjectTitle}",  "GetText",  "",  "SaveAs=KickStarterProjectTitle;qtp=QTOF",  "Use the link with KickStarterProject title as partial link:debug:"});</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>57</v>
@@ -7632,7 +8559,7 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>151</v>
@@ -7644,7 +8571,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>57</v>
@@ -7672,7 +8599,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>8</v>
@@ -7685,18 +8612,20 @@
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="H7" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"Electroloom#",  "click",  "id",  "button-back-this-proj",  "",  "",  "",  "Click the Back This KickStarterProject button"});</v>
+        <v>list.add(new String[] {"Electroloom#",  "click",  "id",  "button-back-this-proj",  "",  "",  "qtp=QTOF",  "Click the Back This KickStarterProject button"});</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="4" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>152</v>
@@ -7708,10 +8637,10 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -7720,7 +8649,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="4" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>39</v>
@@ -7729,13 +8658,13 @@
         <v>40</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -7744,7 +8673,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="4" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>153</v>
@@ -7758,10 +8687,10 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -7770,7 +8699,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="4" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>8</v>
@@ -7778,8 +8707,8 @@
       <c r="C11" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>281</v>
+      <c r="D11" s="11" t="s">
+        <v>274</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -7790,6 +8719,358 @@
       <c r="I11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>list.add(new String[] {"Electroloom#",  "click",  "id",  "backing_backer_reward_id_3951413",  "",  "",  "",  "Click the Reward button"});</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H1:H2">
+    <cfRule type="cellIs" dxfId="39" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H2">
+    <cfRule type="cellIs" dxfId="36" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2">
+    <cfRule type="cellIs" dxfId="35" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2">
+    <cfRule type="cellIs" dxfId="32" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D5 C1:C3 D7 C12:C1048576 D10">
+      <formula1>Locator</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C11 B1:B1048576">
+      <formula1>Action</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="16" style="7" customWidth="1"/>
+    <col min="3" max="3" width="13" style="7" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="7"/>
+    <col min="7" max="7" width="42.85546875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="34.5703125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="63.140625" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="I2" s="4" t="str">
+        <f t="shared" ref="I2:I11" si="0">"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
+        <v>list.add(new String[] {"Electroloom#",  "setVars",  "",  "",  "",  "",  "KickStarterProjectTitle=MIITO – the sustainable alternative to the electric kettle",  "Set variables appropriate for this test case"});</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="I3" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>list.add(new String[] {"Electroloom#",  "click",  "Xpath",  "//*[@id="main_content"]/div[1]/div[2]/div[2]/div/div/a",  "",  "",  "qtp=QTOF",  "Click theView KickStarterProject button"});</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="I4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>list.add(new String[] {"Electroloom#",  "findElement",  "PartialLinkText",  "{KickStarterProjectTitle}",  "GetText",  "",  "SaveAs=KickStarterProjectTitle;qtp=QTOF",  "Use the link with KickStarterProject title as partial link:debug:"});</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>list.add(new String[] {"Electroloom#",  "verifyWebElement",  "id",  "backers_count",  "GetText",  "",  "Value=2000;Class=long;CompareMode=GE",  "Verify the number of backers is greater than some number"});</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="I6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>list.add(new String[] {"Electroloom#",  "verifyWebElement",  "id",  "pledged",  "GetText",  "",  "Value=5000;Class=currency;CompareMode=GE",  "Verify the amount pledged is greater than some amount"});</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="I7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>list.add(new String[] {"Electroloom#",  "click",  "id",  "button-back-this-proj",  "",  "",  "qtp=QTOF",  "Click the Back This KickStarterProject button"});</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="I8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>list.add(new String[] {"Electroloom#",  "VerifyWebDriver",  "",  "",  "GetTitle",  "",  "Value={KickStarterProjectTitle};CompareMode=Contains",  "Verify the title of the back this KickStarterProject page is' {KickStarterProjectTitle}'"});</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="I9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>list.add(new String[] {"Electroloom#",  "findElement",  "PartialLinkText",  "{KickStarterProjectTitle}",  "",  "",  "",  "Verify the existence of a link with KickStarterProject title of '{KickStarterProjectTitle}'"});</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>list.add(new String[] {"Electroloom#",  "sendkeys",  "id",  "backing_amount",  "",  "",  "Value=7777",  "Back this KickStarterProject up with some amount"});</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>list.add(new String[] {"Electroloom#",  "click",  "id",  "backing_backer_reward_id_4010291",  "",  "",  "",  "Click the Reward button"});</v>
       </c>
     </row>
   </sheetData>
@@ -7826,354 +9107,6 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D5 C1:C3 D7 C12:C1048576 D10">
-      <formula1>Locator</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C11 B1:B1048576">
-      <formula1>Action</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.5703125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="16" style="7" customWidth="1"/>
-    <col min="3" max="3" width="13" style="7" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="7"/>
-    <col min="7" max="7" width="42.85546875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="34.5703125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="63.140625" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="I2" s="4" t="str">
-        <f t="shared" ref="I2:I11" si="0">"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
-        <v>list.add(new String[] {"Electroloom#",  "setVars",  "",  "",  "",  "",  "KickStarterProjectTitle=MIITO – the sustainable alternative to the electric kettle",  "Set variables appropriate for this test case"});</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="I3" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>list.add(new String[] {"Electroloom#",  "click",  "Xpath",  "//*[@id="main_content"]/div[1]/div[2]/div[2]/div/div/a",  "",  "",  "",  "Click theView KickStarterProject button"});</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="I4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>list.add(new String[] {"Electroloom#",  "findElement",  "PartialLinkText",  "{KickStarterProjectTitle}",  "GetText",  "",  "SaveAs=KickStarterProjectTitle",  "Use the link with KickStarterProject title as partial link:debug:"});</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="I5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>list.add(new String[] {"Electroloom#",  "verifyWebElement",  "id",  "backers_count",  "GetText",  "",  "Value=2000;Class=long;CompareMode=GE",  "Verify the number of backers is greater than some number"});</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="I6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>list.add(new String[] {"Electroloom#",  "verifyWebElement",  "id",  "pledged",  "GetText",  "",  "Value=5000;Class=currency;CompareMode=GE",  "Verify the amount pledged is greater than some amount"});</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="I7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>list.add(new String[] {"Electroloom#",  "click",  "id",  "button-back-this-proj",  "",  "",  "",  "Click the Back This KickStarterProject button"});</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="I8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>list.add(new String[] {"Electroloom#",  "VerifyWebDriver",  "",  "",  "GetTitle",  "",  "Value={KickStarterProjectTitle};CompareMode=Contains",  "Verify the title of the back this KickStarterProject page is' {KickStarterProjectTitle}'"});</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="I9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>list.add(new String[] {"Electroloom#",  "findElement",  "PartialLinkText",  "{KickStarterProjectTitle}",  "",  "",  "",  "Verify the existence of a link with KickStarterProject title of '{KickStarterProjectTitle}'"});</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="I10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>list.add(new String[] {"Electroloom#",  "sendkeys",  "id",  "backing_amount",  "",  "",  "Value=7777",  "Back this KickStarterProject up with some amount"});</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="I11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>list.add(new String[] {"Electroloom#",  "click",  "id",  "backing_backer_reward_id_4010291",  "",  "",  "",  "Click the Reward button"});</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="H1:H2">
-    <cfRule type="cellIs" dxfId="23" priority="6" stopIfTrue="1" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="7" stopIfTrue="1" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="8" stopIfTrue="1" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H2">
-    <cfRule type="cellIs" dxfId="20" priority="5" stopIfTrue="1" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="19" priority="2" stopIfTrue="1" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="3" stopIfTrue="1" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="16" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C11 B1:B1048576">
       <formula1>Action</formula1>
     </dataValidation>

--- a/data/Demo.xlsx
+++ b/data/Demo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="797" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="797" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Root" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="652">
   <si>
     <t>ID</t>
   </si>
@@ -800,9 +800,6 @@
     <t>AirTime#</t>
   </si>
   <si>
-    <t>AirTimeURL=http://www.airtime.com;AirTimeTitle=airtime;browser=Firefox</t>
-  </si>
-  <si>
     <t>Set variables for AirTime</t>
   </si>
   <si>
@@ -821,9 +818,6 @@
     <t>JobTitle=Software Engineer;Duty=Media Services;Location=Palo Alto;FirstName=Joe;LastName=Zarnitzki;Phone=917- 732 1616;Power=Climb to the moon on a slippery slope</t>
   </si>
   <si>
-    <t>AirTimeURL=http://www.airtime.com;AirTimeTitle=airtime;browser=firefox</t>
-  </si>
-  <si>
     <t>JobTitle=Software Engineer;Duty=Test;Location=New York;FirstName=Russ;LastName=Yarworth;Phone=914 736 1777;Power=Jump rope for two days straight;buttonLocator=/html/body/section[2]/div/div/div[2]/ul/li[1]/a/span</t>
   </si>
   <si>
@@ -1586,9 +1580,6 @@
     <t>SRSSoft#</t>
   </si>
   <si>
-    <t>SRSURL=http://www.srssoft.com;SrsTitle=SRSsoft;browser=FireFox</t>
-  </si>
-  <si>
     <t>Set variables for SRSSoft</t>
   </si>
   <si>
@@ -1991,7 +1982,25 @@
     <t>Set Variables for next navigation test</t>
   </si>
   <si>
-    <t>URL=http://www.vmturbo.com;Title=Demand-Driven Control For Cloud;browser=chrome</t>
+    <t>URL=http://www.vmturbo.com;Title=Demand-Driven Control For Cloud;browser=firefox</t>
+  </si>
+  <si>
+    <t>AirTimeURL=http://www.airtime.com;AirTimeTitle=airtime</t>
+  </si>
+  <si>
+    <t>SRSURL=http://www.srssoft.com;SrsTitle=SRSsoft</t>
+  </si>
+  <si>
+    <t>SetVars</t>
+  </si>
+  <si>
+    <t>Browser=FireFox</t>
+  </si>
+  <si>
+    <t>Set up the default browser</t>
+  </si>
+  <si>
+    <t>URL=https://www.kickstarter.com/;Browser={browser};ptp=QTOF</t>
   </si>
 </sst>
 </file>
@@ -2486,11 +2495,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMK12"/>
+  <dimension ref="A1:AMK13"/>
   <sheetViews>
     <sheetView windowProtection="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2539,22 +2548,19 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>648</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>11</v>
+        <v>649</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="2" t="str">
-        <f t="shared" ref="I2:I12" si="0">"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
-        <v>list.add(new String[] {"Demo#",  "newTest",  "",  "",  "",  "",  "InputSpecs=File!Demo.xlsx!RootVMTurbo",  "Verify the VMTurbo Site"});</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="I2"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
@@ -2563,21 +2569,21 @@
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I3" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>list.add(new String[] {"Demo#",  "newTest",  "",  "",  "",  "no",  "InputSpecs=File!Demo.xlsx!RootSRSSoft",  "Verify the SRSSoft Site"});</v>
+        <f t="shared" ref="I3:I13" si="0">"list.add(new String[] {" &amp; """" &amp; A3 &amp; """" &amp; ",  " &amp; """" &amp; B3 &amp; """" &amp; ",  " &amp; """" &amp; C3 &amp; """" &amp; ",  " &amp; """" &amp; D3 &amp;  """" &amp;  ",  " &amp; """" &amp; E3 &amp; """" &amp; ",  " &amp; """" &amp; F3 &amp; """" &amp; ",  " &amp; """" &amp; G3 &amp; """" &amp; ",  " &amp; """" &amp; H3 &amp; """" &amp; "});"</f>
+        <v>list.add(new String[] {"Demo#",  "newTest",  "",  "",  "",  "no",  "InputSpecs=File!Demo.xlsx!RootVMTurbo",  "Verify the VMTurbo Site"});</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2587,21 +2593,19 @@
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"Demo#",  "newTest",  "",  "",  "",  "no",  "InputSpecs=File!Demo.xlsx!KickStarterProject",  "Work with some View KickStarterProject Page"});</v>
+        <v>list.add(new String[] {"Demo#",  "newTest",  "",  "",  "",  "",  "InputSpecs=File!Demo.xlsx!RootSRSSoft",  "Verify the SRSSoft Site"});</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2609,23 +2613,21 @@
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"Demo#",  "generateReport",  "",  "",  "",  "no",  "Description=Demo KickStarter Results",  "Generate report for the Kick Starter section"});</v>
+        <v>list.add(new String[] {"Demo#",  "newTest",  "",  "",  "",  "",  "InputSpecs=File!Demo.xlsx!KickStarterProject",  "Work with some View KickStarterProject Page"});</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2633,23 +2635,21 @@
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"Demo#",  "newTest",  "",  "",  "",  "no",  "InputSpecs=File!Demo.xlsx!RootAirTime",  "Verify the main page"});</v>
+        <v>list.add(new String[] {"Demo#",  "generateReport",  "",  "",  "",  "",  "Description=Demo KickStarter Results",  "Generate report for the Kick Starter section"});</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2657,7 +2657,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -2666,14 +2666,14 @@
         <v>10</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"Demo#",  "generateReport",  "",  "",  "",  "no",  "Description=Demo AirTime Results",  "Generate report for the Air Time section"});</v>
+        <v>list.add(new String[] {"Demo#",  "newTest",  "",  "",  "",  "no",  "InputSpecs=File!Demo.xlsx!RootAirTime",  "Verify the main page"});</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2681,7 +2681,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -2690,14 +2690,14 @@
         <v>10</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"Demo#",  "newTest",  "",  "",  "",  "no",  "InputSpecs=File!Testomato.xlsx!Root",  "Work with the Testomato web site"});</v>
+        <v>list.add(new String[] {"Demo#",  "generateReport",  "",  "",  "",  "no",  "Description=Demo AirTime Results",  "Generate report for the Air Time section"});</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2705,23 +2705,21 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"Demo#",  "generateReport",  "",  "",  "",  "no",  "Description=Demo Tomato Results",  "Generate report for the Testomato section"});</v>
+        <v>list.add(new String[] {"Demo#",  "newTest",  "",  "",  "",  "",  "InputSpecs=File!Testomato.xlsx!Root",  "Work with the Testomato web site"});</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2729,23 +2727,21 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"Demo#",  "RunExternalMethod",  "",  "",  "",  "no",  "Class=DDTExternal;type=DDTTestContext;method=trivialFail",  "Try a (trivial) failing External method"});</v>
+        <v>list.add(new String[] {"Demo#",  "generateReport",  "",  "",  "",  "",  "Description=Demo Tomato Results",  "Generate report for the Testomato section"});</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2758,18 +2754,16 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"Demo#",  "RunExternalMethod",  "",  "",  "",  "no",  "Class=DDTExternal;type=DDTTestContext;method=trivialPass",  "Try a (trivial) passing External method"});</v>
+        <v>list.add(new String[] {"Demo#",  "RunExternalMethod",  "",  "",  "",  "",  "Class=DDTExternal;type=DDTTestContext;method=trivialFail",  "Try a (trivial) failing External method"});</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2777,25 +2771,49 @@
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>list.add(new String[] {"Demo#",  "RunExternalMethod",  "",  "",  "",  "",  "Class=DDTExternal;type=DDTTestContext;method=trivialPass",  "Try a (trivial) passing External method"});</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>list.add(new String[] {"Demo#",  "newTest",  "",  "",  "",  "",  "InputSpecs=File!Demo.xlsx!IBKR",  "Work with the Interactive Brokers web site"});</v>
+      <c r="I13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>list.add(new String[] {"Demo#",  "newTest",  "",  "",  "",  "no",  "InputSpecs=File!Demo.xlsx!IBKR",  "Work with the Interactive Brokers web site"});</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H1:H12">
+  <conditionalFormatting sqref="H1:H13">
     <cfRule type="cellIs" priority="2" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
@@ -2806,21 +2824,21 @@
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H12">
+  <conditionalFormatting sqref="H1:H13">
     <cfRule type="cellIs" priority="5" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C9 C12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C10 C13">
       <formula1>Locator</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B13">
       <formula1>Action</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E13">
       <formula1>Query</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4871,9 +4889,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView windowProtection="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" activeCellId="1" sqref="F10:F11 G3"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4947,14 +4965,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>252</v>
-      </c>
       <c r="I3" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"AirTime#",  "setVars",  "",  "",  "",  "",  "AirTimeURL=http://www.airtime.com;AirTimeTitle=airtime;browser=Firefox",  "Set variables for AirTime"});</v>
+        <v>list.add(new String[] {"AirTime#",  "setVars",  "",  "",  "",  "",  "AirTimeURL=http://www.airtime.com;AirTimeTitle=airtime",  "Set variables for AirTime"});</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4969,10 +4987,10 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>254</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4991,10 +5009,10 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5013,10 +5031,10 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5035,10 +5053,10 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5065,9 +5083,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView windowProtection="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" activeCellId="1" sqref="F10:F11 F5"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5141,14 +5159,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>258</v>
+        <v>646</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I3" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"AirTime#",  "setVars",  "",  "",  "",  "",  "AirTimeURL=http://www.airtime.com;AirTimeTitle=airtime;browser=firefox",  "Set variables for AirTime"});</v>
+        <v>list.add(new String[] {"AirTime#",  "setVars",  "",  "",  "",  "",  "AirTimeURL=http://www.airtime.com;AirTimeTitle=airtime",  "Set variables for AirTime"});</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -5163,10 +5181,10 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5187,10 +5205,10 @@
         <v>10</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5209,10 +5227,10 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5231,10 +5249,10 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5308,7 +5326,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>45</v>
@@ -5318,7 +5336,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>47</v>
@@ -5342,7 +5360,7 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>51</v>
@@ -5354,7 +5372,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>56</v>
@@ -5363,17 +5381,17 @@
         <v>53</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>192</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5382,7 +5400,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>56</v>
@@ -5391,17 +5409,17 @@
         <v>53</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>192</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5410,7 +5428,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>56</v>
@@ -5419,17 +5437,17 @@
         <v>53</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>192</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5438,7 +5456,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>197</v>
@@ -5447,17 +5465,17 @@
         <v>53</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>192</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5466,7 +5484,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>56</v>
@@ -5475,17 +5493,17 @@
         <v>53</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>192</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5494,7 +5512,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>56</v>
@@ -5503,17 +5521,17 @@
         <v>53</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>192</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5522,7 +5540,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>197</v>
@@ -5531,13 +5549,13 @@
         <v>53</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5546,20 +5564,20 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5568,7 +5586,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>39</v>
@@ -5578,10 +5596,10 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5590,7 +5608,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>56</v>
@@ -5599,17 +5617,17 @@
         <v>53</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>192</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5618,22 +5636,22 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5642,22 +5660,22 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>197</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5666,24 +5684,24 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5692,7 +5710,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>56</v>
@@ -5701,17 +5719,17 @@
         <v>63</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>192</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5720,24 +5738,24 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I18" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5746,7 +5764,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>56</v>
@@ -5755,17 +5773,17 @@
         <v>63</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>58</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5774,24 +5792,24 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5800,7 +5818,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>56</v>
@@ -5809,17 +5827,17 @@
         <v>63</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>58</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5828,24 +5846,24 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5854,7 +5872,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>56</v>
@@ -5863,17 +5881,17 @@
         <v>63</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>58</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5882,24 +5900,24 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I24" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5908,7 +5926,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>197</v>
@@ -5917,13 +5935,13 @@
         <v>63</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5932,20 +5950,20 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I26" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5954,7 +5972,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>56</v>
@@ -5963,17 +5981,17 @@
         <v>53</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>192</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I27" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5982,20 +6000,20 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I28" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6004,22 +6022,22 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>197</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I29" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6028,20 +6046,20 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I30" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6050,10 +6068,10 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -6062,10 +6080,10 @@
         <v>10</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I31" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6074,20 +6092,20 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I32" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6096,26 +6114,26 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I33" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6124,7 +6142,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>197</v>
@@ -6133,7 +6151,7 @@
         <v>63</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
@@ -6141,7 +6159,7 @@
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I34" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6150,20 +6168,20 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I35" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6172,10 +6190,10 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -6183,7 +6201,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I36" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6281,16 +6299,16 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I2" s="2" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
@@ -6299,16 +6317,16 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I3" s="2" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A3 &amp; """" &amp; ",  " &amp; """" &amp; B3 &amp; """" &amp; ",  " &amp; """" &amp; C3 &amp; """" &amp; ",  " &amp; """" &amp; D3 &amp;  """" &amp;  ",  " &amp; """" &amp; E3 &amp; """" &amp; ",  " &amp; """" &amp; F3 &amp; """" &amp; ",  " &amp; """" &amp; G3 &amp; """" &amp; ",  " &amp; """" &amp; H3 &amp; """" &amp; "});"</f>
@@ -6317,16 +6335,16 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="I4" s="2" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A4 &amp; """" &amp; ",  " &amp; """" &amp; B4 &amp; """" &amp; ",  " &amp; """" &amp; C4 &amp; """" &amp; ",  " &amp; """" &amp; D4 &amp;  """" &amp;  ",  " &amp; """" &amp; E4 &amp; """" &amp; ",  " &amp; """" &amp; F4 &amp; """" &amp; ",  " &amp; """" &amp; G4 &amp; """" &amp; ",  " &amp; """" &amp; H4 &amp; """" &amp; "});"</f>
@@ -6357,9 +6375,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView windowProtection="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6434,14 +6452,14 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>40</v>
       </c>
       <c r="I3" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"VMTurbo#",  "setVars",  "",  "",  "",  "",  "URL=http://www.vmturbo.com;Title=Demand-Driven Control For Cloud;browser=chrome",  "Set variables for VMTurbo"});</v>
+        <v>list.add(new String[] {"VMTurbo#",  "setVars",  "",  "",  "",  "",  "URL=http://www.vmturbo.com;Title=Demand-Driven Control For Cloud;browser=firefox",  "Set variables for VMTurbo"});</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -6459,7 +6477,7 @@
         <v>42</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6476,18 +6494,16 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"VMTurbo#",  "NewTest",  "",  "",  "",  "no",  "InputSpecs=File!Demo.xlsx!VMTNavigate",  "Cursory validation of VMTurbo navigation to various pages"});</v>
+        <v>list.add(new String[] {"VMTurbo#",  "NewTest",  "",  "",  "",  "",  "InputSpecs=File!Demo.xlsx!VMTNavigate",  "Cursory validation of VMTurbo navigation to various pages"});</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -6500,18 +6516,16 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"VMTurbo#",  "NewTest",  "",  "",  "",  "no",  "InputSpecs=File!Demo.xlsx!VMCalcROI",  "Work with VMTurbo's ROI Calculator page"});</v>
+        <v>list.add(new String[] {"VMTurbo#",  "NewTest",  "",  "",  "",  "",  "InputSpecs=File!Demo.xlsx!VMCalcROI",  "Work with VMTurbo's ROI Calculator page"});</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -6519,17 +6533,17 @@
         <v>36</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6636,7 +6650,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>39</v>
@@ -6646,10 +6660,10 @@
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2" s="3" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I2" s="2" t="str">
         <f t="shared" ref="I2:I19" si="0">"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
@@ -6658,7 +6672,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>45</v>
@@ -6680,7 +6694,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>48</v>
@@ -6692,10 +6706,10 @@
       </c>
       <c r="F4"/>
       <c r="G4" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6704,7 +6718,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>52</v>
@@ -6713,13 +6727,13 @@
         <v>201</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6728,7 +6742,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>52</v>
@@ -6737,13 +6751,13 @@
         <v>201</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6752,7 +6766,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>52</v>
@@ -6761,7 +6775,7 @@
         <v>201</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E7"/>
       <c r="F7" s="3" t="s">
@@ -6769,7 +6783,7 @@
       </c>
       <c r="G7"/>
       <c r="H7" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6778,26 +6792,26 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>201</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E8"/>
       <c r="F8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6806,7 +6820,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>56</v>
@@ -6815,16 +6829,16 @@
         <v>190</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>58</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6833,7 +6847,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>52</v>
@@ -6842,12 +6856,12 @@
         <v>150</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E10"/>
       <c r="G10"/>
       <c r="H10" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6856,7 +6870,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>52</v>
@@ -6865,12 +6879,12 @@
         <v>150</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E11"/>
       <c r="G11"/>
       <c r="H11" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I11" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6879,7 +6893,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>52</v>
@@ -6888,12 +6902,12 @@
         <v>150</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E12"/>
       <c r="G12"/>
       <c r="H12" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I12" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6902,7 +6916,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>52</v>
@@ -6911,12 +6925,12 @@
         <v>150</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E13"/>
       <c r="G13"/>
       <c r="H13" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I13" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6925,7 +6939,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>52</v>
@@ -6934,12 +6948,12 @@
         <v>150</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E14"/>
       <c r="G14"/>
       <c r="H14" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I14" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6948,7 +6962,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>52</v>
@@ -6957,12 +6971,12 @@
         <v>150</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E15"/>
       <c r="G15"/>
       <c r="H15" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I15" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6971,7 +6985,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>56</v>
@@ -6980,16 +6994,16 @@
         <v>190</v>
       </c>
       <c r="D16" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>58</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I16" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6998,7 +7012,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>52</v>
@@ -7007,11 +7021,11 @@
         <v>150</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G17"/>
       <c r="H17" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I17" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7020,16 +7034,16 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>376</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>378</v>
       </c>
       <c r="I18" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7038,16 +7052,16 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I19" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7091,32 +7105,32 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -7151,19 +7165,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F1" t="s">
         <v>387</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>388</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>389</v>
-      </c>
-      <c r="G1" t="s">
-        <v>390</v>
-      </c>
-      <c r="H1" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -7179,36 +7193,36 @@
         <v>157</v>
       </c>
       <c r="E3" t="s">
+        <v>390</v>
+      </c>
+      <c r="F3" t="s">
+        <v>391</v>
+      </c>
+      <c r="G3" t="s">
         <v>392</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>393</v>
-      </c>
-      <c r="G3" t="s">
-        <v>394</v>
-      </c>
-      <c r="H3" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C4" t="s">
+        <v>395</v>
+      </c>
+      <c r="E4" t="s">
         <v>396</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>397</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>398</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>399</v>
-      </c>
-      <c r="G4" t="s">
-        <v>400</v>
-      </c>
-      <c r="H4" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -7216,56 +7230,56 @@
         <v>45</v>
       </c>
       <c r="C5" t="s">
+        <v>400</v>
+      </c>
+      <c r="E5" t="s">
+        <v>401</v>
+      </c>
+      <c r="F5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G5" t="s">
         <v>402</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>403</v>
-      </c>
-      <c r="F5" t="s">
-        <v>399</v>
-      </c>
-      <c r="G5" t="s">
-        <v>404</v>
-      </c>
-      <c r="H5" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C6" t="s">
         <v>150</v>
       </c>
       <c r="E6" t="s">
+        <v>405</v>
+      </c>
+      <c r="F6" t="s">
+        <v>406</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" s="6" t="s">
         <v>408</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C7" t="s">
+        <v>410</v>
+      </c>
+      <c r="E7" t="s">
         <v>411</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
         <v>412</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" s="5" t="s">
         <v>413</v>
-      </c>
-      <c r="F7" t="s">
-        <v>414</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -7279,18 +7293,18 @@
         <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C9" t="s">
         <v>143</v>
@@ -7299,30 +7313,30 @@
         <v>140</v>
       </c>
       <c r="F9" t="s">
+        <v>417</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>419</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C10" t="s">
         <v>190</v>
       </c>
       <c r="E10" t="s">
+        <v>421</v>
+      </c>
+      <c r="F10" t="s">
+        <v>422</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>423</v>
-      </c>
-      <c r="F10" t="s">
-        <v>424</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -7330,20 +7344,20 @@
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -7353,37 +7367,37 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -7393,22 +7407,22 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -7423,12 +7437,12 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -7456,27 +7470,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C1" t="s">
         <v>439</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>440</v>
-      </c>
-      <c r="C1" t="s">
-        <v>441</v>
-      </c>
-      <c r="D1" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B2" t="s">
         <v>150</v>
       </c>
       <c r="C2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D2" t="s">
         <v>192</v>
@@ -7484,13 +7498,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B3" t="s">
         <v>157</v>
       </c>
       <c r="C3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D3" t="s">
         <v>192</v>
@@ -7498,13 +7512,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B4" t="s">
         <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D4" t="s">
         <v>192</v>
@@ -7512,7 +7526,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B5" t="s">
         <v>63</v>
@@ -7526,13 +7540,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B6" t="s">
         <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D6" t="s">
         <v>192</v>
@@ -7540,13 +7554,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B7" t="s">
         <v>150</v>
       </c>
       <c r="C7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D7" t="s">
         <v>192</v>
@@ -7554,7 +7568,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B8" t="s">
         <v>63</v>
@@ -7565,32 +7579,32 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B9" t="s">
         <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D9" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B11" t="s">
         <v>150</v>
       </c>
       <c r="C11" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B12" t="s">
         <v>63</v>
@@ -7604,7 +7618,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B13" t="s">
         <v>63</v>
@@ -7618,12 +7632,12 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B15" t="s">
         <v>63</v>
@@ -7637,18 +7651,18 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B16" t="s">
         <v>150</v>
       </c>
       <c r="C16" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B17" t="s">
         <v>63</v>
@@ -7659,23 +7673,23 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B18" t="s">
         <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="C20" s="8" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="B21" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C21" t="s">
         <v>191</v>
@@ -7683,150 +7697,150 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>463</v>
+      </c>
+      <c r="B23" t="s">
+        <v>464</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>465</v>
-      </c>
-      <c r="B23" t="s">
-        <v>466</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>466</v>
+      </c>
+      <c r="B24" t="s">
+        <v>467</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>468</v>
-      </c>
-      <c r="B24" t="s">
-        <v>469</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="B27" s="5"/>
       <c r="C27" s="9" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="B28" s="5"/>
       <c r="C28" s="9" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B29" t="s">
         <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B30" t="s">
         <v>53</v>
       </c>
       <c r="C30" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B31" t="s">
         <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B32" t="s">
         <v>53</v>
       </c>
       <c r="C32" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B33" t="s">
         <v>63</v>
       </c>
       <c r="C33" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="C34" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="C35" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="C36" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B37" t="s">
         <v>53</v>
       </c>
       <c r="C37" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B38" t="s">
         <v>53</v>
       </c>
       <c r="C38" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -7842,9 +7856,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A37" activeCellId="1" sqref="F10:F11 A37"/>
+    <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7888,7 +7902,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>45</v>
@@ -7898,7 +7912,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>47</v>
@@ -7922,7 +7936,7 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>51</v>
@@ -7934,7 +7948,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>56</v>
@@ -7943,17 +7957,17 @@
         <v>53</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>192</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7962,7 +7976,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>56</v>
@@ -7971,17 +7985,17 @@
         <v>53</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>192</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7990,7 +8004,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>56</v>
@@ -7999,17 +8013,17 @@
         <v>53</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>192</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8018,7 +8032,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>197</v>
@@ -8027,13 +8041,13 @@
         <v>53</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8042,7 +8056,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>56</v>
@@ -8051,17 +8065,17 @@
         <v>53</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>192</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8070,7 +8084,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>56</v>
@@ -8079,17 +8093,17 @@
         <v>53</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>192</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8098,7 +8112,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>197</v>
@@ -8107,13 +8121,13 @@
         <v>53</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8122,20 +8136,20 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8144,7 +8158,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>56</v>
@@ -8153,17 +8167,17 @@
         <v>53</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>192</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8172,22 +8186,22 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8196,22 +8210,22 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>197</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8220,24 +8234,24 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8246,24 +8260,24 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8272,24 +8286,24 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8298,24 +8312,24 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I18" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8324,24 +8338,24 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8350,7 +8364,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>197</v>
@@ -8359,13 +8373,13 @@
         <v>63</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8374,7 +8388,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>56</v>
@@ -8383,17 +8397,17 @@
         <v>53</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>192</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8402,16 +8416,16 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>197</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
@@ -8419,7 +8433,7 @@
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8428,16 +8442,16 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>197</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -8447,20 +8461,20 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="I24" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A24 &amp; """" &amp; ",  " &amp; """" &amp; B24 &amp; """" &amp; ",  " &amp; """" &amp; C24 &amp; """" &amp; ",  " &amp; """" &amp; D24 &amp;  """" &amp;  ",  " &amp; """" &amp; E24 &amp; """" &amp; ",  " &amp; """" &amp; F24 &amp; """" &amp; ",  " &amp; """" &amp; G24 &amp; """" &amp; ",  " &amp; """" &amp; H24 &amp; """" &amp; "});"</f>
@@ -8469,20 +8483,20 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I25" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A25 &amp; """" &amp; ",  " &amp; """" &amp; B25 &amp; """" &amp; ",  " &amp; """" &amp; C25 &amp; """" &amp; ",  " &amp; """" &amp; D25 &amp;  """" &amp;  ",  " &amp; """" &amp; E25 &amp; """" &amp; ",  " &amp; """" &amp; F25 &amp; """" &amp; ",  " &amp; """" &amp; G25 &amp; """" &amp; ",  " &amp; """" &amp; H25 &amp; """" &amp; "});"</f>
@@ -8491,20 +8505,20 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="I26" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A26 &amp; """" &amp; ",  " &amp; """" &amp; B26 &amp; """" &amp; ",  " &amp; """" &amp; C26 &amp; """" &amp; ",  " &amp; """" &amp; D26 &amp;  """" &amp;  ",  " &amp; """" &amp; E26 &amp; """" &amp; ",  " &amp; """" &amp; F26 &amp; """" &amp; ",  " &amp; """" &amp; G26 &amp; """" &amp; ",  " &amp; """" &amp; H26 &amp; """" &amp; "});"</f>
@@ -8513,7 +8527,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>197</v>
@@ -8530,19 +8544,20 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="I28" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A28 &amp; """" &amp; ",  " &amp; """" &amp; B28 &amp; """" &amp; ",  " &amp; """" &amp; C28 &amp; """" &amp; ",  " &amp; """" &amp; D28 &amp;  """" &amp;  ",  " &amp; """" &amp; E28 &amp; """" &amp; ",  " &amp; """" &amp; F28 &amp; """" &amp; ",  " &amp; """" &amp; G28 &amp; """" &amp; ",  " &amp; """" &amp; H28 &amp; """" &amp; "});"</f>
@@ -8551,20 +8566,20 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="9"/>
+      <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="I29" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A29 &amp; """" &amp; ",  " &amp; """" &amp; B29 &amp; """" &amp; ",  " &amp; """" &amp; C29 &amp; """" &amp; ",  " &amp; """" &amp; D29 &amp;  """" &amp;  ",  " &amp; """" &amp; E29 &amp; """" &amp; ",  " &amp; """" &amp; F29 &amp; """" &amp; ",  " &amp; """" &amp; G29 &amp; """" &amp; ",  " &amp; """" &amp; H29 &amp; """" &amp; "});"</f>
@@ -8573,20 +8588,20 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C30" s="3"/>
-      <c r="D30" s="9"/>
+      <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I30" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A30 &amp; """" &amp; ",  " &amp; """" &amp; B30 &amp; """" &amp; ",  " &amp; """" &amp; C30 &amp; """" &amp; ",  " &amp; """" &amp; D30 &amp;  """" &amp;  ",  " &amp; """" &amp; E30 &amp; """" &amp; ",  " &amp; """" &amp; F30 &amp; """" &amp; ",  " &amp; """" &amp; G30 &amp; """" &amp; ",  " &amp; """" &amp; H30 &amp; """" &amp; "});"</f>
@@ -8595,20 +8610,20 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I31" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A31 &amp; """" &amp; ",  " &amp; """" &amp; B31 &amp; """" &amp; ",  " &amp; """" &amp; C31 &amp; """" &amp; ",  " &amp; """" &amp; D31 &amp;  """" &amp;  ",  " &amp; """" &amp; E31 &amp; """" &amp; ",  " &amp; """" &amp; F31 &amp; """" &amp; ",  " &amp; """" &amp; G31 &amp; """" &amp; ",  " &amp; """" &amp; H31 &amp; """" &amp; "});"</f>
@@ -8617,20 +8632,20 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I32" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A32 &amp; """" &amp; ",  " &amp; """" &amp; B32 &amp; """" &amp; ",  " &amp; """" &amp; C32 &amp; """" &amp; ",  " &amp; """" &amp; D32 &amp;  """" &amp;  ",  " &amp; """" &amp; E32 &amp; """" &amp; ",  " &amp; """" &amp; F32 &amp; """" &amp; ",  " &amp; """" &amp; G32 &amp; """" &amp; ",  " &amp; """" &amp; H32 &amp; """" &amp; "});"</f>
@@ -8639,15 +8654,15 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="D33" s="9"/>
+      <c r="C33" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -8656,22 +8671,22 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D34" t="s">
-        <v>478</v>
+      <c r="D34" s="3" t="s">
+        <v>476</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I34" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A34 &amp; """" &amp; ",  " &amp; """" &amp; B34 &amp; """" &amp; ",  " &amp; """" &amp; C34 &amp; """" &amp; ",  " &amp; """" &amp; D34 &amp;  """" &amp;  ",  " &amp; """" &amp; E34 &amp; """" &amp; ",  " &amp; """" &amp; F34 &amp; """" &amp; ",  " &amp; """" &amp; G34 &amp; """" &amp; ",  " &amp; """" &amp; H34 &amp; """" &amp; "});"</f>
@@ -8680,17 +8695,17 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3" t="str">
@@ -8700,10 +8715,10 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -8712,7 +8727,7 @@
         <v>10</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3" t="str">
@@ -8722,10 +8737,10 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -8733,7 +8748,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I37" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A37 &amp; """" &amp; ",  " &amp; """" &amp; B37 &amp; """" &amp; ",  " &amp; """" &amp; C37 &amp; """" &amp; ",  " &amp; """" &amp; D37 &amp;  """" &amp;  ",  " &amp; """" &amp; E37 &amp; """" &amp; ",  " &amp; """" &amp; F37 &amp; """" &amp; ",  " &amp; """" &amp; G37 &amp; """" &amp; ",  " &amp; """" &amp; H37 &amp; """" &amp; "});"</f>
@@ -8783,9 +8798,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView windowProtection="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" activeCellId="1" sqref="F10:F11 G3"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8829,7 +8844,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>37</v>
@@ -8849,7 +8864,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>39</v>
@@ -8859,19 +8874,19 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>513</v>
+        <v>647</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="I3" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A3 &amp; """" &amp; ",  " &amp; """" &amp; B3 &amp; """" &amp; ",  " &amp; """" &amp; C3 &amp; """" &amp; ",  " &amp; """" &amp; D3 &amp;  """" &amp;  ",  " &amp; """" &amp; E3 &amp; """" &amp; ",  " &amp; """" &amp; F3 &amp; """" &amp; ",  " &amp; """" &amp; G3 &amp; """" &amp; ",  " &amp; """" &amp; H3 &amp; """" &amp; "});"</f>
-        <v>list.add(new String[] {"SRSSoft#",  "setVars",  "",  "",  "",  "",  "SRSURL=http://www.srssoft.com;SrsTitle=SRSsoft;browser=FireFox",  "Set variables for SRSSoft"});</v>
+        <v>list.add(new String[] {"SRSSoft#",  "setVars",  "",  "",  "",  "",  "SRSURL=http://www.srssoft.com;SrsTitle=SRSsoft",  "Set variables for SRSSoft"});</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>41</v>
@@ -8881,10 +8896,10 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="I4" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A4 &amp; """" &amp; ",  " &amp; """" &amp; B4 &amp; """" &amp; ",  " &amp; """" &amp; C4 &amp; """" &amp; ",  " &amp; """" &amp; D4 &amp;  """" &amp;  ",  " &amp; """" &amp; E4 &amp; """" &amp; ",  " &amp; """" &amp; F4 &amp; """" &amp; ",  " &amp; """" &amp; G4 &amp; """" &amp; ",  " &amp; """" &amp; H4 &amp; """" &amp; "});"</f>
@@ -8893,7 +8908,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>41</v>
@@ -8905,10 +8920,10 @@
         <v>10</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I5" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A5 &amp; """" &amp; ",  " &amp; """" &amp; B5 &amp; """" &amp; ",  " &amp; """" &amp; C5 &amp; """" &amp; ",  " &amp; """" &amp; D5 &amp;  """" &amp;  ",  " &amp; """" &amp; E5 &amp; """" &amp; ",  " &amp; """" &amp; F5 &amp; """" &amp; ",  " &amp; """" &amp; G5 &amp; """" &amp; ",  " &amp; """" &amp; H5 &amp; """" &amp; "});"</f>
@@ -8982,7 +8997,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>45</v>
@@ -8992,7 +9007,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>47</v>
@@ -9004,7 +9019,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>48</v>
@@ -9016,7 +9031,7 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>51</v>
@@ -9028,7 +9043,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>56</v>
@@ -9037,17 +9052,17 @@
         <v>53</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>192</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9056,7 +9071,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>56</v>
@@ -9065,17 +9080,17 @@
         <v>53</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>192</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9084,7 +9099,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>52</v>
@@ -9093,13 +9108,13 @@
         <v>150</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9108,7 +9123,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>52</v>
@@ -9117,7 +9132,7 @@
         <v>150</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -9132,7 +9147,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>52</v>
@@ -9141,7 +9156,7 @@
         <v>150</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -9156,7 +9171,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>56</v>
@@ -9165,19 +9180,19 @@
         <v>53</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9186,7 +9201,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>56</v>
@@ -9195,19 +9210,19 @@
         <v>53</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9216,7 +9231,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>56</v>
@@ -9225,19 +9240,19 @@
         <v>53</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9246,7 +9261,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>56</v>
@@ -9255,19 +9270,19 @@
         <v>53</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9276,7 +9291,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>56</v>
@@ -9285,19 +9300,19 @@
         <v>53</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9306,7 +9321,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>56</v>
@@ -9315,19 +9330,19 @@
         <v>53</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9336,7 +9351,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>56</v>
@@ -9345,19 +9360,19 @@
         <v>53</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9366,7 +9381,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>61</v>
@@ -9375,23 +9390,23 @@
         <v>53</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>56</v>
@@ -9400,17 +9415,17 @@
         <v>53</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>192</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" ref="I17:I37" si="1">"list.add(new String[] {" &amp; """" &amp; A17 &amp; """" &amp; ",  " &amp; """" &amp; B17 &amp; """" &amp; ",  " &amp; """" &amp; C17 &amp; """" &amp; ",  " &amp; """" &amp; D17 &amp;  """" &amp;  ",  " &amp; """" &amp; E17 &amp; """" &amp; ",  " &amp; """" &amp; F17 &amp; """" &amp; ",  " &amp; """" &amp; G17 &amp; """" &amp; ",  " &amp; """" &amp; H17 &amp; """" &amp; "});"</f>
@@ -9419,7 +9434,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>52</v>
@@ -9428,17 +9443,17 @@
         <v>53</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I18" s="3" t="str">
         <f t="shared" si="1"/>
@@ -9447,7 +9462,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>52</v>
@@ -9456,17 +9471,17 @@
         <v>53</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" si="1"/>
@@ -9475,7 +9490,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>52</v>
@@ -9484,17 +9499,17 @@
         <v>53</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="1"/>
@@ -9503,7 +9518,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>52</v>
@@ -9512,17 +9527,17 @@
         <v>53</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" si="1"/>
@@ -9531,7 +9546,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>52</v>
@@ -9540,17 +9555,17 @@
         <v>53</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="1"/>
@@ -9559,7 +9574,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>52</v>
@@ -9568,17 +9583,17 @@
         <v>53</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" si="1"/>
@@ -9587,7 +9602,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>52</v>
@@ -9596,17 +9611,17 @@
         <v>53</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I24" s="3" t="str">
         <f t="shared" si="1"/>
@@ -9615,7 +9630,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>52</v>
@@ -9624,17 +9639,17 @@
         <v>53</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" si="1"/>
@@ -9643,7 +9658,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>52</v>
@@ -9652,7 +9667,7 @@
         <v>53</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
@@ -9660,7 +9675,7 @@
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I26" s="3" t="str">
         <f t="shared" si="1"/>
@@ -9669,7 +9684,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>52</v>
@@ -9678,17 +9693,17 @@
         <v>53</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I27" s="3" t="str">
         <f t="shared" si="1"/>
@@ -9697,7 +9712,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>52</v>
@@ -9706,17 +9721,17 @@
         <v>53</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I28" s="3" t="str">
         <f t="shared" si="1"/>
@@ -9725,7 +9740,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>52</v>
@@ -9734,17 +9749,17 @@
         <v>53</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I29" s="3" t="str">
         <f t="shared" si="1"/>
@@ -9753,16 +9768,16 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>197</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
@@ -9770,7 +9785,7 @@
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I30" s="3" t="str">
         <f t="shared" si="1"/>
@@ -9779,10 +9794,10 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -9791,10 +9806,10 @@
         <v>10</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I31" s="3" t="str">
         <f t="shared" si="1"/>
@@ -9803,10 +9818,10 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -9815,10 +9830,10 @@
         <v>10</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I32" s="3" t="str">
         <f t="shared" si="1"/>
@@ -9827,10 +9842,10 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -9839,10 +9854,10 @@
         <v>10</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I33" s="3" t="str">
         <f t="shared" si="1"/>
@@ -9851,26 +9866,26 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I34" s="3" t="str">
         <f t="shared" si="1"/>
@@ -9879,7 +9894,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>197</v>
@@ -9888,7 +9903,7 @@
         <v>63</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3" t="s">
@@ -9896,7 +9911,7 @@
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I35" s="3" t="str">
         <f t="shared" si="1"/>
@@ -9905,10 +9920,10 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -9917,10 +9932,10 @@
         <v>10</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I36" s="3" t="str">
         <f t="shared" si="1"/>
@@ -9929,10 +9944,10 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -9942,7 +9957,7 @@
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I37" s="3" t="str">
         <f t="shared" si="1"/>
@@ -10084,7 +10099,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -11137,10 +11152,10 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="I2" s="3"/>
     </row>
@@ -11156,10 +11171,10 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="I3" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A3 &amp; """" &amp; ",  " &amp; """" &amp; B3 &amp; """" &amp; ",  " &amp; """" &amp; C3 &amp; """" &amp; ",  " &amp; """" &amp; D3 &amp;  """" &amp;  ",  " &amp; """" &amp; E3 &amp; """" &amp; ",  " &amp; """" &amp; F3 &amp; """" &amp; ",  " &amp; """" &amp; G3 &amp; """" &amp; ",  " &amp; """" &amp; H3 &amp; """" &amp; "});"</f>
@@ -11178,10 +11193,10 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="I4" s="3"/>
     </row>
@@ -11197,10 +11212,10 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="I5" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A5 &amp; """" &amp; ",  " &amp; """" &amp; B5 &amp; """" &amp; ",  " &amp; """" &amp; C5 &amp; """" &amp; ",  " &amp; """" &amp; D5 &amp;  """" &amp;  ",  " &amp; """" &amp; E5 &amp; """" &amp; ",  " &amp; """" &amp; F5 &amp; """" &amp; ",  " &amp; """" &amp; G5 &amp; """" &amp; ",  " &amp; """" &amp; H5 &amp; """" &amp; "});"</f>
@@ -11219,10 +11234,10 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -11238,10 +11253,10 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="I7" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A7 &amp; """" &amp; ",  " &amp; """" &amp; B7 &amp; """" &amp; ",  " &amp; """" &amp; C7 &amp; """" &amp; ",  " &amp; """" &amp; D7 &amp;  """" &amp;  ",  " &amp; """" &amp; E7 &amp; """" &amp; ",  " &amp; """" &amp; F7 &amp; """" &amp; ",  " &amp; """" &amp; G7 &amp; """" &amp; ",  " &amp; """" &amp; H7 &amp; """" &amp; "});"</f>
@@ -11260,10 +11275,10 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="12" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="I8" s="3"/>
     </row>
@@ -11279,10 +11294,10 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="I9" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A9 &amp; """" &amp; ",  " &amp; """" &amp; B9 &amp; """" &amp; ",  " &amp; """" &amp; C9 &amp; """" &amp; ",  " &amp; """" &amp; D9 &amp;  """" &amp;  ",  " &amp; """" &amp; E9 &amp; """" &amp; ",  " &amp; """" &amp; F9 &amp; """" &amp; ",  " &amp; """" &amp; G9 &amp; """" &amp; ",  " &amp; """" &amp; H9 &amp; """" &amp; "});"</f>
@@ -11301,10 +11316,10 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="I10" s="3"/>
     </row>
@@ -11320,10 +11335,10 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="I11" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A11 &amp; """" &amp; ",  " &amp; """" &amp; B11 &amp; """" &amp; ",  " &amp; """" &amp; C11 &amp; """" &amp; ",  " &amp; """" &amp; D11 &amp;  """" &amp;  ",  " &amp; """" &amp; E11 &amp; """" &amp; ",  " &amp; """" &amp; F11 &amp; """" &amp; ",  " &amp; """" &amp; G11 &amp; """" &amp; ",  " &amp; """" &amp; H11 &amp; """" &amp; "});"</f>
@@ -11342,10 +11357,10 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="I12" s="3"/>
     </row>
@@ -11361,10 +11376,10 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="I13" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A13 &amp; """" &amp; ",  " &amp; """" &amp; B13 &amp; """" &amp; ",  " &amp; """" &amp; C13 &amp; """" &amp; ",  " &amp; """" &amp; D13 &amp;  """" &amp;  ",  " &amp; """" &amp; E13 &amp; """" &amp; ",  " &amp; """" &amp; F13 &amp; """" &amp; ",  " &amp; """" &amp; G13 &amp; """" &amp; ",  " &amp; """" &amp; H13 &amp; """" &amp; "});"</f>
@@ -11383,10 +11398,10 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="I14" s="3"/>
     </row>
@@ -11402,10 +11417,10 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="I15" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A15 &amp; """" &amp; ",  " &amp; """" &amp; B15 &amp; """" &amp; ",  " &amp; """" &amp; C15 &amp; """" &amp; ",  " &amp; """" &amp; D15 &amp;  """" &amp;  ",  " &amp; """" &amp; E15 &amp; """" &amp; ",  " &amp; """" &amp; F15 &amp; """" &amp; ",  " &amp; """" &amp; G15 &amp; """" &amp; ",  " &amp; """" &amp; H15 &amp; """" &amp; "});"</f>
@@ -11424,10 +11439,10 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="I16" s="3"/>
     </row>
@@ -11443,10 +11458,10 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="I17" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A17 &amp; """" &amp; ",  " &amp; """" &amp; B17 &amp; """" &amp; ",  " &amp; """" &amp; C17 &amp; """" &amp; ",  " &amp; """" &amp; D17 &amp;  """" &amp;  ",  " &amp; """" &amp; E17 &amp; """" &amp; ",  " &amp; """" &amp; F17 &amp; """" &amp; ",  " &amp; """" &amp; G17 &amp; """" &amp; ",  " &amp; """" &amp; H17 &amp; """" &amp; "});"</f>
@@ -11465,10 +11480,10 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="I18" s="3"/>
     </row>
@@ -11484,10 +11499,10 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="I19" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A19 &amp; """" &amp; ",  " &amp; """" &amp; B19 &amp; """" &amp; ",  " &amp; """" &amp; C19 &amp; """" &amp; ",  " &amp; """" &amp; D19 &amp;  """" &amp;  ",  " &amp; """" &amp; E19 &amp; """" &amp; ",  " &amp; """" &amp; F19 &amp; """" &amp; ",  " &amp; """" &amp; G19 &amp; """" &amp; ",  " &amp; """" &amp; H19 &amp; """" &amp; "});"</f>
@@ -11506,10 +11521,10 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="I20" s="3"/>
     </row>
@@ -11525,10 +11540,10 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="I21" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A21 &amp; """" &amp; ",  " &amp; """" &amp; B21 &amp; """" &amp; ",  " &amp; """" &amp; C21 &amp; """" &amp; ",  " &amp; """" &amp; D21 &amp;  """" &amp;  ",  " &amp; """" &amp; E21 &amp; """" &amp; ",  " &amp; """" &amp; F21 &amp; """" &amp; ",  " &amp; """" &amp; G21 &amp; """" &amp; ",  " &amp; """" &amp; H21 &amp; """" &amp; "});"</f>
@@ -11547,10 +11562,10 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="I22" s="3"/>
     </row>
@@ -11566,10 +11581,10 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="I23" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A23 &amp; """" &amp; ",  " &amp; """" &amp; B23 &amp; """" &amp; ",  " &amp; """" &amp; C23 &amp; """" &amp; ",  " &amp; """" &amp; D23 &amp;  """" &amp;  ",  " &amp; """" &amp; E23 &amp; """" &amp; ",  " &amp; """" &amp; F23 &amp; """" &amp; ",  " &amp; """" &amp; G23 &amp; """" &amp; ",  " &amp; """" &amp; H23 &amp; """" &amp; "});"</f>
@@ -11588,10 +11603,10 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="I24" s="3"/>
     </row>
@@ -11607,10 +11622,10 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="I25" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A25 &amp; """" &amp; ",  " &amp; """" &amp; B25 &amp; """" &amp; ",  " &amp; """" &amp; C25 &amp; """" &amp; ",  " &amp; """" &amp; D25 &amp;  """" &amp;  ",  " &amp; """" &amp; E25 &amp; """" &amp; ",  " &amp; """" &amp; F25 &amp; """" &amp; ",  " &amp; """" &amp; G25 &amp; """" &amp; ",  " &amp; """" &amp; H25 &amp; """" &amp; "});"</f>
@@ -11629,10 +11644,10 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="I26" s="3"/>
     </row>
@@ -11648,10 +11663,10 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="I27" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A27 &amp; """" &amp; ",  " &amp; """" &amp; B27 &amp; """" &amp; ",  " &amp; """" &amp; C27 &amp; """" &amp; ",  " &amp; """" &amp; D27 &amp;  """" &amp;  ",  " &amp; """" &amp; E27 &amp; """" &amp; ",  " &amp; """" &amp; F27 &amp; """" &amp; ",  " &amp; """" &amp; G27 &amp; """" &amp; ",  " &amp; """" &amp; H27 &amp; """" &amp; "});"</f>
@@ -11670,10 +11685,10 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="I28" s="3"/>
     </row>
@@ -11689,10 +11704,10 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="I29" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A29 &amp; """" &amp; ",  " &amp; """" &amp; B29 &amp; """" &amp; ",  " &amp; """" &amp; C29 &amp; """" &amp; ",  " &amp; """" &amp; D29 &amp;  """" &amp;  ",  " &amp; """" &amp; E29 &amp; """" &amp; ",  " &amp; """" &amp; F29 &amp; """" &amp; ",  " &amp; """" &amp; G29 &amp; """" &amp; ",  " &amp; """" &amp; H29 &amp; """" &amp; "});"</f>
@@ -11711,10 +11726,10 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="I30" s="3"/>
     </row>
@@ -11730,10 +11745,10 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="I31" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A31 &amp; """" &amp; ",  " &amp; """" &amp; B31 &amp; """" &amp; ",  " &amp; """" &amp; C31 &amp; """" &amp; ",  " &amp; """" &amp; D31 &amp;  """" &amp;  ",  " &amp; """" &amp; E31 &amp; """" &amp; ",  " &amp; """" &amp; F31 &amp; """" &amp; ",  " &amp; """" &amp; G31 &amp; """" &amp; ",  " &amp; """" &amp; H31 &amp; """" &amp; "});"</f>
@@ -11752,10 +11767,10 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="I32" s="3"/>
     </row>
@@ -11771,10 +11786,10 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="I33" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A33 &amp; """" &amp; ",  " &amp; """" &amp; B33 &amp; """" &amp; ",  " &amp; """" &amp; C33 &amp; """" &amp; ",  " &amp; """" &amp; D33 &amp;  """" &amp;  ",  " &amp; """" &amp; E33 &amp; """" &amp; ",  " &amp; """" &amp; F33 &amp; """" &amp; ",  " &amp; """" &amp; G33 &amp; """" &amp; ",  " &amp; """" &amp; H33 &amp; """" &amp; "});"</f>
@@ -11793,10 +11808,10 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="I34" s="3"/>
     </row>
@@ -11812,10 +11827,10 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="I35" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A35 &amp; """" &amp; ",  " &amp; """" &amp; B35 &amp; """" &amp; ",  " &amp; """" &amp; C35 &amp; """" &amp; ",  " &amp; """" &amp; D35 &amp;  """" &amp;  ",  " &amp; """" &amp; E35 &amp; """" &amp; ",  " &amp; """" &amp; F35 &amp; """" &amp; ",  " &amp; """" &amp; G35 &amp; """" &amp; ",  " &amp; """" &amp; H35 &amp; """" &amp; "});"</f>
@@ -11903,7 +11918,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>61</v>
@@ -11912,15 +11927,15 @@
         <v>53</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="I2" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
@@ -11929,7 +11944,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>61</v>
@@ -11938,15 +11953,15 @@
         <v>150</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I3" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A3 &amp; """" &amp; ",  " &amp; """" &amp; B3 &amp; """" &amp; ",  " &amp; """" &amp; C3 &amp; """" &amp; ",  " &amp; """" &amp; D3 &amp;  """" &amp;  ",  " &amp; """" &amp; E3 &amp; """" &amp; ",  " &amp; """" &amp; F3 &amp; """" &amp; ",  " &amp; """" &amp; G3 &amp; """" &amp; ",  " &amp; """" &amp; H3 &amp; """" &amp; "});"</f>
@@ -11955,7 +11970,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>139</v>
@@ -11964,15 +11979,15 @@
         <v>150</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="I4" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A4 &amp; """" &amp; ",  " &amp; """" &amp; B4 &amp; """" &amp; ",  " &amp; """" &amp; C4 &amp; """" &amp; ",  " &amp; """" &amp; D4 &amp;  """" &amp;  ",  " &amp; """" &amp; E4 &amp; """" &amp; ",  " &amp; """" &amp; F4 &amp; """" &amp; ",  " &amp; """" &amp; G4 &amp; """" &amp; ",  " &amp; """" &amp; H4 &amp; """" &amp; "});"</f>
@@ -11981,7 +11996,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>212</v>
@@ -11993,10 +12008,10 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" ref="I5:I9" si="0">"list.add(new String[] {" &amp; """" &amp; A5 &amp; """" &amp; ",  " &amp; """" &amp; B5 &amp; """" &amp; ",  " &amp; """" &amp; C5 &amp; """" &amp; ",  " &amp; """" &amp; D5 &amp;  """" &amp;  ",  " &amp; """" &amp; E5 &amp; """" &amp; ",  " &amp; """" &amp; F5 &amp; """" &amp; ",  " &amp; """" &amp; G5 &amp; """" &amp; ",  " &amp; """" &amp; H5 &amp; """" &amp; "});"</f>
@@ -12005,20 +12020,20 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -12027,13 +12042,13 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>142</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>144</v>
@@ -12043,10 +12058,10 @@
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" ref="I7" si="1">"list.add(new String[] {" &amp; """" &amp; A7 &amp; """" &amp; ",  " &amp; """" &amp; B7 &amp; """" &amp; ",  " &amp; """" &amp; C7 &amp; """" &amp; ",  " &amp; """" &amp; D7 &amp;  """" &amp;  ",  " &amp; """" &amp; E7 &amp; """" &amp; ",  " &amp; """" &amp; F7 &amp; """" &amp; ",  " &amp; """" &amp; G7 &amp; """" &amp; ",  " &amp; """" &amp; H7 &amp; """" &amp; "});"</f>
@@ -12055,7 +12070,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>197</v>
@@ -12064,15 +12079,15 @@
         <v>150</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -12081,7 +12096,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>212</v>
@@ -12093,7 +12108,7 @@
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>141</v>
@@ -12184,7 +12199,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>61</v>
@@ -12193,15 +12208,15 @@
         <v>53</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="I2" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
@@ -12210,7 +12225,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>61</v>
@@ -12219,15 +12234,15 @@
         <v>150</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I3" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A3 &amp; """" &amp; ",  " &amp; """" &amp; B3 &amp; """" &amp; ",  " &amp; """" &amp; C3 &amp; """" &amp; ",  " &amp; """" &amp; D3 &amp;  """" &amp;  ",  " &amp; """" &amp; E3 &amp; """" &amp; ",  " &amp; """" &amp; F3 &amp; """" &amp; ",  " &amp; """" &amp; G3 &amp; """" &amp; ",  " &amp; """" &amp; H3 &amp; """" &amp; "});"</f>
@@ -12236,7 +12251,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>139</v>
@@ -12245,15 +12260,15 @@
         <v>150</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="I4" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A4 &amp; """" &amp; ",  " &amp; """" &amp; B4 &amp; """" &amp; ",  " &amp; """" &amp; C4 &amp; """" &amp; ",  " &amp; """" &amp; D4 &amp;  """" &amp;  ",  " &amp; """" &amp; E4 &amp; """" &amp; ",  " &amp; """" &amp; F4 &amp; """" &amp; ",  " &amp; """" &amp; G4 &amp; """" &amp; ",  " &amp; """" &amp; H4 &amp; """" &amp; "});"</f>
@@ -12262,7 +12277,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>212</v>
@@ -12274,10 +12289,10 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" ref="I5:I7" si="0">"list.add(new String[] {" &amp; """" &amp; A5 &amp; """" &amp; ",  " &amp; """" &amp; B5 &amp; """" &amp; ",  " &amp; """" &amp; C5 &amp; """" &amp; ",  " &amp; """" &amp; D5 &amp;  """" &amp;  ",  " &amp; """" &amp; E5 &amp; """" &amp; ",  " &amp; """" &amp; F5 &amp; """" &amp; ",  " &amp; """" &amp; G5 &amp; """" &amp; ",  " &amp; """" &amp; H5 &amp; """" &amp; "});"</f>
@@ -12286,20 +12301,20 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -12308,13 +12323,13 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>142</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>144</v>
@@ -12324,10 +12339,10 @@
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -12569,7 +12584,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>39</v>
@@ -12579,7 +12594,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="str">
@@ -12589,7 +12604,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>41</v>
@@ -12599,10 +12614,10 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="I3" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A3 &amp; """" &amp; ",  " &amp; """" &amp; B3 &amp; """" &amp; ",  " &amp; """" &amp; C3 &amp; """" &amp; ",  " &amp; """" &amp; D3 &amp;  """" &amp;  ",  " &amp; """" &amp; E3 &amp; """" &amp; ",  " &amp; """" &amp; F3 &amp; """" &amp; ",  " &amp; """" &amp; G3 &amp; """" &amp; ",  " &amp; """" &amp; H3 &amp; """" &amp; "});"</f>
@@ -12611,24 +12626,24 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>589</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>592</v>
       </c>
       <c r="I4" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A4 &amp; """" &amp; ",  " &amp; """" &amp; B4 &amp; """" &amp; ",  " &amp; """" &amp; C4 &amp; """" &amp; ",  " &amp; """" &amp; D4 &amp;  """" &amp;  ",  " &amp; """" &amp; E4 &amp; """" &amp; ",  " &amp; """" &amp; F4 &amp; """" &amp; ",  " &amp; """" &amp; G4 &amp; """" &amp; ",  " &amp; """" &amp; H4 &amp; """" &amp; "});"</f>
@@ -12637,24 +12652,24 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="I5" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A5 &amp; """" &amp; ",  " &amp; """" &amp; B5 &amp; """" &amp; ",  " &amp; """" &amp; C5 &amp; """" &amp; ",  " &amp; """" &amp; D5 &amp;  """" &amp;  ",  " &amp; """" &amp; E5 &amp; """" &amp; ",  " &amp; """" &amp; F5 &amp; """" &amp; ",  " &amp; """" &amp; G5 &amp; """" &amp; ",  " &amp; """" &amp; H5 &amp; """" &amp; "});"</f>
@@ -12663,24 +12678,24 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="I6" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A6 &amp; """" &amp; ",  " &amp; """" &amp; B6 &amp; """" &amp; ",  " &amp; """" &amp; C6 &amp; """" &amp; ",  " &amp; """" &amp; D6 &amp;  """" &amp;  ",  " &amp; """" &amp; E6 &amp; """" &amp; ",  " &amp; """" &amp; F6 &amp; """" &amp; ",  " &amp; """" &amp; G6 &amp; """" &amp; ",  " &amp; """" &amp; H6 &amp; """" &amp; "});"</f>
@@ -12689,24 +12704,24 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" ref="I7:I20" si="0">"list.add(new String[] {" &amp; """" &amp; A7 &amp; """" &amp; ",  " &amp; """" &amp; B7 &amp; """" &amp; ",  " &amp; """" &amp; C7 &amp; """" &amp; ",  " &amp; """" &amp; D7 &amp;  """" &amp;  ",  " &amp; """" &amp; E7 &amp; """" &amp; ",  " &amp; """" &amp; F7 &amp; """" &amp; ",  " &amp; """" &amp; G7 &amp; """" &amp; ",  " &amp; """" &amp; H7 &amp; """" &amp; "});"</f>
@@ -12715,24 +12730,24 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -12741,24 +12756,24 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -12767,24 +12782,24 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -12793,24 +12808,24 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -12819,24 +12834,24 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -12845,24 +12860,24 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -12871,24 +12886,24 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -12897,24 +12912,24 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -12923,24 +12938,24 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -12949,24 +12964,24 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="0"/>
@@ -12975,24 +12990,24 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="I18" s="3" t="str">
         <f t="shared" si="0"/>
@@ -13001,24 +13016,24 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" si="0"/>
@@ -13027,24 +13042,24 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -13053,7 +13068,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>48</v>
@@ -13065,10 +13080,10 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" ref="I21:I22" si="1">"list.add(new String[] {" &amp; """" &amp; A21 &amp; """" &amp; ",  " &amp; """" &amp; B21 &amp; """" &amp; ",  " &amp; """" &amp; C21 &amp; """" &amp; ",  " &amp; """" &amp; D21 &amp;  """" &amp;  ",  " &amp; """" &amp; E21 &amp; """" &amp; ",  " &amp; """" &amp; F21 &amp; """" &amp; ",  " &amp; """" &amp; G21 &amp; """" &amp; ",  " &amp; """" &amp; H21 &amp; """" &amp; "});"</f>
@@ -13077,20 +13092,20 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="1"/>
@@ -13708,9 +13723,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView windowProtection="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="1" sqref="F10:F11 A2"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13766,14 +13781,14 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>186</v>
+        <v>651</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>187</v>
       </c>
       <c r="I2" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
-        <v>list.add(new String[] {"KickStarterProject#",  "createWebDriver",  "",  "",  "",  "",  "URL={url};Browser={browser};ptp=QSOF",  "Create a {browser} web driver"});</v>
+        <v>list.add(new String[] {"KickStarterProject#",  "createWebDriver",  "",  "",  "",  "",  "URL=https://www.kickstarter.com/;Browser={browser};ptp=QTOF",  "Create a {browser} web driver"});</v>
       </c>
     </row>
     <row r="3" spans="1:9">

--- a/data/Demo.xlsx
+++ b/data/Demo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="797" activeTab="23"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="797" firstSheet="13" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Root" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2219" uniqueCount="651">
   <si>
     <t>ID</t>
   </si>
@@ -1104,9 +1104,6 @@
   </si>
   <si>
     <t>WaitUntil</t>
-  </si>
-  <si>
-    <t>Value=Visit the Investors' Marketplace;CompareMode=Contains;Option=IgnoreCase;TotalWaitTime=30;WaitInterval=1000</t>
   </si>
   <si>
     <t>/html/body/header/div[1]/div/div[2]/ul/li[1]/a</t>
@@ -2548,17 +2545,17 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>649</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>650</v>
       </c>
       <c r="I2"/>
     </row>
@@ -4965,7 +4962,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>251</v>
@@ -5159,7 +5156,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>251</v>
@@ -6305,7 +6302,7 @@
         <v>39</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>340</v>
@@ -6338,13 +6335,13 @@
         <v>339</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>641</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>642</v>
       </c>
       <c r="I4" s="2" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A4 &amp; """" &amp; ",  " &amp; """" &amp; B4 &amp; """" &amp; ",  " &amp; """" &amp; C4 &amp; """" &amp; ",  " &amp; """" &amp; D4 &amp;  """" &amp;  ",  " &amp; """" &amp; E4 &amp; """" &amp; ",  " &amp; """" &amp; F4 &amp; """" &amp; ",  " &amp; """" &amp; G4 &amp; """" &amp; ",  " &amp; """" &amp; H4 &amp; """" &amp; "});"</f>
@@ -6452,7 +6449,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>40</v>
@@ -6477,7 +6474,7 @@
         <v>42</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6499,7 +6496,7 @@
         <v>43</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6518,10 +6515,10 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6533,17 +6530,17 @@
         <v>36</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6600,18 +6597,18 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMK19"/>
+  <dimension ref="A1:AMK18"/>
   <sheetViews>
-    <sheetView windowProtection="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView windowProtection="1" tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.140625" style="1"/>
-    <col min="2" max="2" width="12.7109375" style="1"/>
-    <col min="3" max="3" width="11.85546875" style="1"/>
+    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" style="1"/>
     <col min="5" max="5" width="11.85546875" style="1"/>
     <col min="6" max="6" width="9" style="1"/>
@@ -6660,13 +6657,13 @@
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>340</v>
       </c>
       <c r="I2" s="2" t="str">
-        <f t="shared" ref="I2:I19" si="0">"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
+        <f t="shared" ref="I2:I18" si="0">"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
         <v>list.add(new String[] {"IBKRHome#",  "setVars",  "",  "",  "",  "",  "URL=http:www.interactivebrokers.com",  "Set up the site information"});</v>
       </c>
     </row>
@@ -6795,27 +6792,26 @@
         <v>343</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>352</v>
+        <v>56</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="E8"/>
-      <c r="F8" s="3" t="s">
-        <v>10</v>
+        <v>353</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="I8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"IBKRHome#",  "WaitUntil",  "PartialLinkText",  "Visit the Investors' Marketplace",  "",  "no",  "Value=Visit the Investors' Marketplace;CompareMode=Contains;Option=IgnoreCase;TotalWaitTime=30;WaitInterval=1000",  "Verify existence of a link to the Investors' Marketplace"});</v>
+        <v>list.add(new String[] {"IBKRHome#",  "verifyWebElement",  "Xpath",  "/html/body/header/div[1]/div/div[2]/ul/li[1]/a",  "GetText",  "",  "Value=English;Option=IgnoreCase",  "Verify the English language option exists"});</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -6823,26 +6819,22 @@
         <v>343</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>355</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="E9"/>
+      <c r="G9"/>
       <c r="H9" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"IBKRHome#",  "verifyWebElement",  "Xpath",  "/html/body/header/div[1]/div/div[2]/ul/li[1]/a",  "GetText",  "",  "Value=English;Option=IgnoreCase",  "Verify the English language option exists"});</v>
+        <v>list.add(new String[] {"IBKRHome#",  "findElement",  "LinkText",  "WHY IB",  "",  "",  "",  "Verify the WHY IB link exists"});</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -6856,16 +6848,16 @@
         <v>150</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E10"/>
       <c r="G10"/>
       <c r="H10" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"IBKRHome#",  "findElement",  "LinkText",  "WHY IB",  "",  "",  "",  "Verify the WHY IB link exists"});</v>
+        <v>list.add(new String[] {"IBKRHome#",  "findElement",  "LinkText",  "PRICING",  "",  "",  "",  "Verify the PRICING link exists"});</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -6879,16 +6871,16 @@
         <v>150</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E11"/>
       <c r="G11"/>
       <c r="H11" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"IBKRHome#",  "findElement",  "LinkText",  "PRICING",  "",  "",  "",  "Verify the PRICING link exists"});</v>
+        <v>list.add(new String[] {"IBKRHome#",  "findElement",  "LinkText",  "TRADING",  "",  "",  "",  "Verify the TRADING link exists"});</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -6902,16 +6894,16 @@
         <v>150</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E12"/>
       <c r="G12"/>
       <c r="H12" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"IBKRHome#",  "findElement",  "LinkText",  "TRADING",  "",  "",  "",  "Verify the TRADING link exists"});</v>
+        <v>list.add(new String[] {"IBKRHome#",  "findElement",  "LinkText",  "EDUCATION",  "",  "",  "",  "Verify the EDUCATION link exists"});</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -6925,16 +6917,16 @@
         <v>150</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E13"/>
       <c r="G13"/>
       <c r="H13" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"IBKRHome#",  "findElement",  "LinkText",  "EDUCATION",  "",  "",  "",  "Verify the EDUCATION link exists"});</v>
+        <v>list.add(new String[] {"IBKRHome#",  "findElement",  "LinkText",  "ABOUT IB",  "",  "",  "",  "Verify the ABOUT IB link exists"});</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -6948,16 +6940,16 @@
         <v>150</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E14"/>
       <c r="G14"/>
       <c r="H14" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"IBKRHome#",  "findElement",  "LinkText",  "ABOUT IB",  "",  "",  "",  "Verify the ABOUT IB link exists"});</v>
+        <v>list.add(new String[] {"IBKRHome#",  "findElement",  "LinkText",  "CONTACT US",  "",  "",  "",  "Verify the CONTACT US link exists"});</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -6965,22 +6957,26 @@
         <v>343</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="E15"/>
-      <c r="G15"/>
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>190</v>
+      </c>
+      <c r="D15" t="s">
+        <v>368</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>369</v>
+      </c>
       <c r="H15" s="3" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="I15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"IBKRHome#",  "findElement",  "LinkText",  "CONTACT US",  "",  "",  "",  "Verify the CONTACT US link exists"});</v>
+        <v>list.add(new String[] {"IBKRHome#",  "verifyWebElement",  "Xpath",  "/html/body/header/div[1]/div/div[2]/ul/li[3]/a",  "GetText",  "",  "Value=LOG IN;CompareMode=Contains",  "Verify the Log In link exists"});</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -6988,26 +6984,21 @@
         <v>343</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" t="s">
-        <v>190</v>
-      </c>
-      <c r="D16" t="s">
-        <v>369</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>370</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="G16"/>
       <c r="H16" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"IBKRHome#",  "verifyWebElement",  "Xpath",  "/html/body/header/div[1]/div/div[2]/ul/li[3]/a",  "GetText",  "",  "Value=LOG IN;CompareMode=Contains",  "Verify the Log In link exists"});</v>
+        <v>list.add(new String[] {"IBKRHome#",  "findElement",  "LinkText",  "OPEN ACCOUNT",  "",  "",  "",  "Verify the OPEN ACCCOUNT link exists"});</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -7015,21 +7006,17 @@
         <v>343</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="G17"/>
+        <v>373</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>374</v>
+      </c>
       <c r="H17" s="3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"IBKRHome#",  "findElement",  "LinkText",  "OPEN ACCOUNT",  "",  "",  "",  "Verify the OPEN ACCCOUNT link exists"});</v>
+        <v>list.add(new String[] {"IBKRHome#",  "runJS",  "",  "",  "",  "",  "jsCode=document.getElementById("searchField").click()",  "Try to find the SEARCH by java script"});</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -7037,48 +7024,30 @@
         <v>343</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>374</v>
+        <v>322</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="I18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>list.add(new String[] {"IBKRHome#",  "runJS",  "",  "",  "",  "",  "jsCode=document.getElementById("searchField").click()",  "Try to find the SEARCH by java script"});</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="I19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>list.add(new String[] {"IBKRHome#",  "Wait",  "",  "",  "",  "",  "WaitTime=5",  "Wait a bit"});</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C15 C17:C19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16:C18 C2:C14">
       <formula1>Locator</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B18">
       <formula1>Action</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E18">
       <formula1>Query</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -7105,32 +7074,32 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -7143,8 +7112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView windowProtection="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" activeCellId="1" sqref="F10:F11 D22"/>
+    <sheetView windowProtection="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7165,19 +7134,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E1" t="s">
         <v>385</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>386</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>387</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>388</v>
-      </c>
-      <c r="H1" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -7193,36 +7162,36 @@
         <v>157</v>
       </c>
       <c r="E3" t="s">
+        <v>389</v>
+      </c>
+      <c r="F3" t="s">
         <v>390</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>391</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>392</v>
-      </c>
-      <c r="H3" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C4" t="s">
         <v>394</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>395</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>396</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>397</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>398</v>
-      </c>
-      <c r="H4" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -7230,56 +7199,56 @@
         <v>45</v>
       </c>
       <c r="C5" t="s">
+        <v>399</v>
+      </c>
+      <c r="E5" t="s">
         <v>400</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G5" t="s">
         <v>401</v>
       </c>
-      <c r="F5" t="s">
-        <v>397</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>402</v>
-      </c>
-      <c r="H5" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C6" t="s">
         <v>150</v>
       </c>
       <c r="E6" t="s">
+        <v>404</v>
+      </c>
+      <c r="F6" t="s">
         <v>405</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="6" t="s">
         <v>407</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
+        <v>408</v>
+      </c>
+      <c r="C7" t="s">
         <v>409</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>410</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>411</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" s="5" t="s">
         <v>412</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -7293,18 +7262,18 @@
         <v>58</v>
       </c>
       <c r="F8" t="s">
+        <v>413</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C9" t="s">
         <v>143</v>
@@ -7313,30 +7282,30 @@
         <v>140</v>
       </c>
       <c r="F9" t="s">
+        <v>416</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>418</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C10" t="s">
         <v>190</v>
       </c>
       <c r="E10" t="s">
+        <v>420</v>
+      </c>
+      <c r="F10" t="s">
         <v>421</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" s="5" t="s">
         <v>422</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -7344,20 +7313,20 @@
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
+        <v>424</v>
+      </c>
+      <c r="E12" t="s">
         <v>425</v>
-      </c>
-      <c r="E12" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -7372,22 +7341,22 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -7397,7 +7366,7 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -7407,22 +7376,22 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -7470,27 +7439,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B1" t="s">
         <v>437</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>438</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>439</v>
-      </c>
-      <c r="D1" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B2" t="s">
         <v>150</v>
       </c>
       <c r="C2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D2" t="s">
         <v>192</v>
@@ -7498,13 +7467,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B3" t="s">
         <v>157</v>
       </c>
       <c r="C3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D3" t="s">
         <v>192</v>
@@ -7512,13 +7481,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B4" t="s">
         <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D4" t="s">
         <v>192</v>
@@ -7526,7 +7495,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B5" t="s">
         <v>63</v>
@@ -7540,13 +7509,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B6" t="s">
         <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D6" t="s">
         <v>192</v>
@@ -7554,13 +7523,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B7" t="s">
         <v>150</v>
       </c>
       <c r="C7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D7" t="s">
         <v>192</v>
@@ -7568,7 +7537,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B8" t="s">
         <v>63</v>
@@ -7579,32 +7548,32 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B9" t="s">
         <v>53</v>
       </c>
       <c r="C9" t="s">
+        <v>452</v>
+      </c>
+      <c r="D9" t="s">
         <v>453</v>
-      </c>
-      <c r="D9" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B11" t="s">
         <v>150</v>
       </c>
       <c r="C11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B12" t="s">
         <v>63</v>
@@ -7618,7 +7587,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B13" t="s">
         <v>63</v>
@@ -7632,12 +7601,12 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B15" t="s">
         <v>63</v>
@@ -7651,18 +7620,18 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B16" t="s">
         <v>150</v>
       </c>
       <c r="C16" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B17" t="s">
         <v>63</v>
@@ -7673,23 +7642,23 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B18" t="s">
         <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="C20" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="B21" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C21" t="s">
         <v>191</v>
@@ -7697,150 +7666,150 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>462</v>
+      </c>
+      <c r="B23" t="s">
         <v>463</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" s="3" t="s">
         <v>464</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>465</v>
+      </c>
+      <c r="B24" t="s">
         <v>466</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" s="9" t="s">
         <v>467</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>468</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>469</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="B27" s="5"/>
       <c r="C27" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="B28" s="5"/>
       <c r="C28" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B29" t="s">
         <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B30" t="s">
         <v>53</v>
       </c>
       <c r="C30" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B31" t="s">
         <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B32" t="s">
         <v>53</v>
       </c>
       <c r="C32" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B33" t="s">
         <v>63</v>
       </c>
       <c r="C33" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="C34" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="C35" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="C36" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B37" t="s">
         <v>53</v>
       </c>
       <c r="C37" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B38" t="s">
         <v>53</v>
       </c>
       <c r="C38" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -7856,7 +7825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
     </sheetView>
@@ -7964,10 +7933,10 @@
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>489</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>490</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7992,7 +7961,7 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>266</v>
@@ -8379,7 +8348,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8407,7 +8376,7 @@
         <v>320</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8425,7 +8394,7 @@
         <v>325</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
@@ -8433,7 +8402,7 @@
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8451,7 +8420,7 @@
         <v>325</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -8471,10 +8440,10 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I24" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A24 &amp; """" &amp; ",  " &amp; """" &amp; B24 &amp; """" &amp; ",  " &amp; """" &amp; C24 &amp; """" &amp; ",  " &amp; """" &amp; D24 &amp;  """" &amp;  ",  " &amp; """" &amp; E24 &amp; """" &amp; ",  " &amp; """" &amp; F24 &amp; """" &amp; ",  " &amp; """" &amp; G24 &amp; """" &amp; ",  " &amp; """" &amp; H24 &amp; """" &amp; "});"</f>
@@ -8496,7 +8465,7 @@
         <v>279</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I25" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A25 &amp; """" &amp; ",  " &amp; """" &amp; B25 &amp; """" &amp; ",  " &amp; """" &amp; C25 &amp; """" &amp; ",  " &amp; """" &amp; D25 &amp;  """" &amp;  ",  " &amp; """" &amp; E25 &amp; """" &amp; ",  " &amp; """" &amp; F25 &amp; """" &amp; ",  " &amp; """" &amp; G25 &amp; """" &amp; ",  " &amp; """" &amp; H25 &amp; """" &amp; "});"</f>
@@ -8518,7 +8487,7 @@
         <v>336</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I26" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A26 &amp; """" &amp; ",  " &amp; """" &amp; B26 &amp; """" &amp; ",  " &amp; """" &amp; C26 &amp; """" &amp; ",  " &amp; """" &amp; D26 &amp;  """" &amp;  ",  " &amp; """" &amp; E26 &amp; """" &amp; ",  " &amp; """" &amp; F26 &amp; """" &amp; ",  " &amp; """" &amp; G26 &amp; """" &amp; ",  " &amp; """" &amp; H26 &amp; """" &amp; "});"</f>
@@ -8554,10 +8523,10 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>499</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>500</v>
       </c>
       <c r="I28" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A28 &amp; """" &amp; ",  " &amp; """" &amp; B28 &amp; """" &amp; ",  " &amp; """" &amp; C28 &amp; """" &amp; ",  " &amp; """" &amp; D28 &amp;  """" &amp;  ",  " &amp; """" &amp; E28 &amp; """" &amp; ",  " &amp; """" &amp; F28 &amp; """" &amp; ",  " &amp; """" &amp; G28 &amp; """" &amp; ",  " &amp; """" &amp; H28 &amp; """" &amp; "});"</f>
@@ -8576,10 +8545,10 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>501</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>502</v>
       </c>
       <c r="I29" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A29 &amp; """" &amp; ",  " &amp; """" &amp; B29 &amp; """" &amp; ",  " &amp; """" &amp; C29 &amp; """" &amp; ",  " &amp; """" &amp; D29 &amp;  """" &amp;  ",  " &amp; """" &amp; E29 &amp; """" &amp; ",  " &amp; """" &amp; F29 &amp; """" &amp; ",  " &amp; """" &amp; G29 &amp; """" &amp; ",  " &amp; """" &amp; H29 &amp; """" &amp; "});"</f>
@@ -8598,10 +8567,10 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>503</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>504</v>
       </c>
       <c r="I30" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A30 &amp; """" &amp; ",  " &amp; """" &amp; B30 &amp; """" &amp; ",  " &amp; """" &amp; C30 &amp; """" &amp; ",  " &amp; """" &amp; D30 &amp;  """" &amp;  ",  " &amp; """" &amp; E30 &amp; """" &amp; ",  " &amp; """" &amp; F30 &amp; """" &amp; ",  " &amp; """" &amp; G30 &amp; """" &amp; ",  " &amp; """" &amp; H30 &amp; """" &amp; "});"</f>
@@ -8623,7 +8592,7 @@
         <v>279</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I31" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A31 &amp; """" &amp; ",  " &amp; """" &amp; B31 &amp; """" &amp; ",  " &amp; """" &amp; C31 &amp; """" &amp; ",  " &amp; """" &amp; D31 &amp;  """" &amp;  ",  " &amp; """" &amp; E31 &amp; """" &amp; ",  " &amp; """" &amp; F31 &amp; """" &amp; ",  " &amp; """" &amp; G31 &amp; """" &amp; ",  " &amp; """" &amp; H31 &amp; """" &amp; "});"</f>
@@ -8642,10 +8611,10 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>506</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>507</v>
       </c>
       <c r="I32" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A32 &amp; """" &amp; ",  " &amp; """" &amp; B32 &amp; """" &amp; ",  " &amp; """" &amp; C32 &amp; """" &amp; ",  " &amp; """" &amp; D32 &amp;  """" &amp;  ",  " &amp; """" &amp; E32 &amp; """" &amp; ",  " &amp; """" &amp; F32 &amp; """" &amp; ",  " &amp; """" &amp; G32 &amp; """" &amp; ",  " &amp; """" &amp; H32 &amp; """" &amp; "});"</f>
@@ -8680,13 +8649,13 @@
         <v>53</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I34" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A34 &amp; """" &amp; ",  " &amp; """" &amp; B34 &amp; """" &amp; ",  " &amp; """" &amp; C34 &amp; """" &amp; ",  " &amp; """" &amp; D34 &amp;  """" &amp;  ",  " &amp; """" &amp; E34 &amp; """" &amp; ",  " &amp; """" &amp; F34 &amp; """" &amp; ",  " &amp; """" &amp; G34 &amp; """" &amp; ",  " &amp; """" &amp; H34 &amp; """" &amp; "});"</f>
@@ -8705,7 +8674,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3" t="str">
@@ -8844,7 +8813,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>37</v>
@@ -8864,7 +8833,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>39</v>
@@ -8874,10 +8843,10 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I3" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A3 &amp; """" &amp; ",  " &amp; """" &amp; B3 &amp; """" &amp; ",  " &amp; """" &amp; C3 &amp; """" &amp; ",  " &amp; """" &amp; D3 &amp;  """" &amp;  ",  " &amp; """" &amp; E3 &amp; """" &amp; ",  " &amp; """" &amp; F3 &amp; """" &amp; ",  " &amp; """" &amp; G3 &amp; """" &amp; ",  " &amp; """" &amp; H3 &amp; """" &amp; "});"</f>
@@ -8886,7 +8855,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>41</v>
@@ -8896,10 +8865,10 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>512</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>513</v>
       </c>
       <c r="I4" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A4 &amp; """" &amp; ",  " &amp; """" &amp; B4 &amp; """" &amp; ",  " &amp; """" &amp; C4 &amp; """" &amp; ",  " &amp; """" &amp; D4 &amp;  """" &amp;  ",  " &amp; """" &amp; E4 &amp; """" &amp; ",  " &amp; """" &amp; F4 &amp; """" &amp; ",  " &amp; """" &amp; G4 &amp; """" &amp; ",  " &amp; """" &amp; H4 &amp; """" &amp; "});"</f>
@@ -8908,7 +8877,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>41</v>
@@ -8920,7 +8889,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>255</v>
@@ -8997,7 +8966,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>45</v>
@@ -9007,7 +8976,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>47</v>
@@ -9019,7 +8988,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>48</v>
@@ -9031,7 +9000,7 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>51</v>
@@ -9043,7 +9012,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>56</v>
@@ -9052,17 +9021,17 @@
         <v>53</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>192</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>519</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>520</v>
       </c>
       <c r="I4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9071,7 +9040,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>56</v>
@@ -9080,14 +9049,14 @@
         <v>53</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>192</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>266</v>
@@ -9099,7 +9068,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>52</v>
@@ -9108,13 +9077,13 @@
         <v>150</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9123,7 +9092,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>52</v>
@@ -9132,7 +9101,7 @@
         <v>150</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -9147,7 +9116,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>52</v>
@@ -9156,7 +9125,7 @@
         <v>150</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -9171,7 +9140,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>56</v>
@@ -9180,19 +9149,19 @@
         <v>53</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>527</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>528</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>529</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>530</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9201,7 +9170,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>56</v>
@@ -9210,19 +9179,19 @@
         <v>53</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>527</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>528</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>531</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>532</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9231,7 +9200,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>56</v>
@@ -9240,19 +9209,19 @@
         <v>53</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>527</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>528</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>533</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>534</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9261,7 +9230,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>56</v>
@@ -9270,19 +9239,19 @@
         <v>53</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>527</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>528</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>535</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>536</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9291,7 +9260,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>56</v>
@@ -9300,19 +9269,19 @@
         <v>53</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>527</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>528</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>537</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>538</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9321,7 +9290,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>56</v>
@@ -9330,19 +9299,19 @@
         <v>53</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>527</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>528</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>539</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>540</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9351,7 +9320,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>56</v>
@@ -9360,19 +9329,19 @@
         <v>53</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>527</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>528</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>541</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>542</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9381,7 +9350,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>61</v>
@@ -9390,23 +9359,23 @@
         <v>53</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>527</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>528</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>56</v>
@@ -9415,17 +9384,17 @@
         <v>53</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>192</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>545</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>546</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" ref="I17:I37" si="1">"list.add(new String[] {" &amp; """" &amp; A17 &amp; """" &amp; ",  " &amp; """" &amp; B17 &amp; """" &amp; ",  " &amp; """" &amp; C17 &amp; """" &amp; ",  " &amp; """" &amp; D17 &amp;  """" &amp;  ",  " &amp; """" &amp; E17 &amp; """" &amp; ",  " &amp; """" &amp; F17 &amp; """" &amp; ",  " &amp; """" &amp; G17 &amp; """" &amp; ",  " &amp; """" &amp; H17 &amp; """" &amp; "});"</f>
@@ -9434,7 +9403,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>52</v>
@@ -9443,7 +9412,7 @@
         <v>53</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
@@ -9462,7 +9431,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>52</v>
@@ -9471,7 +9440,7 @@
         <v>53</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
@@ -9490,7 +9459,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>52</v>
@@ -9499,7 +9468,7 @@
         <v>53</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
@@ -9518,7 +9487,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>52</v>
@@ -9527,7 +9496,7 @@
         <v>53</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
@@ -9546,7 +9515,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>52</v>
@@ -9555,7 +9524,7 @@
         <v>53</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
@@ -9574,7 +9543,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>52</v>
@@ -9583,7 +9552,7 @@
         <v>53</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
@@ -9602,7 +9571,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>52</v>
@@ -9611,7 +9580,7 @@
         <v>53</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
@@ -9630,7 +9599,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>52</v>
@@ -9639,7 +9608,7 @@
         <v>53</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
@@ -9658,7 +9627,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>52</v>
@@ -9667,7 +9636,7 @@
         <v>53</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
@@ -9684,7 +9653,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>52</v>
@@ -9693,7 +9662,7 @@
         <v>53</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
@@ -9712,7 +9681,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>52</v>
@@ -9721,7 +9690,7 @@
         <v>53</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
@@ -9740,7 +9709,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>52</v>
@@ -9749,7 +9718,7 @@
         <v>53</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
@@ -9768,7 +9737,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>197</v>
@@ -9794,7 +9763,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>290</v>
@@ -9818,7 +9787,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>290</v>
@@ -9842,7 +9811,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>322</v>
@@ -9866,7 +9835,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>290</v>
@@ -9894,7 +9863,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>197</v>
@@ -9920,7 +9889,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>322</v>
@@ -9944,7 +9913,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>337</v>
@@ -10099,7 +10068,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -11152,10 +11121,10 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I2" s="3"/>
     </row>
@@ -11171,10 +11140,10 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I3" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A3 &amp; """" &amp; ",  " &amp; """" &amp; B3 &amp; """" &amp; ",  " &amp; """" &amp; C3 &amp; """" &amp; ",  " &amp; """" &amp; D3 &amp;  """" &amp;  ",  " &amp; """" &amp; E3 &amp; """" &amp; ",  " &amp; """" &amp; F3 &amp; """" &amp; ",  " &amp; """" &amp; G3 &amp; """" &amp; ",  " &amp; """" &amp; H3 &amp; """" &amp; "});"</f>
@@ -11193,10 +11162,10 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I4" s="3"/>
     </row>
@@ -11212,10 +11181,10 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I5" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A5 &amp; """" &amp; ",  " &amp; """" &amp; B5 &amp; """" &amp; ",  " &amp; """" &amp; C5 &amp; """" &amp; ",  " &amp; """" &amp; D5 &amp;  """" &amp;  ",  " &amp; """" &amp; E5 &amp; """" &amp; ",  " &amp; """" &amp; F5 &amp; """" &amp; ",  " &amp; """" &amp; G5 &amp; """" &amp; ",  " &amp; """" &amp; H5 &amp; """" &amp; "});"</f>
@@ -11234,10 +11203,10 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -11253,10 +11222,10 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I7" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A7 &amp; """" &amp; ",  " &amp; """" &amp; B7 &amp; """" &amp; ",  " &amp; """" &amp; C7 &amp; """" &amp; ",  " &amp; """" &amp; D7 &amp;  """" &amp;  ",  " &amp; """" &amp; E7 &amp; """" &amp; ",  " &amp; """" &amp; F7 &amp; """" &amp; ",  " &amp; """" &amp; G7 &amp; """" &amp; ",  " &amp; """" &amp; H7 &amp; """" &amp; "});"</f>
@@ -11275,10 +11244,10 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I8" s="3"/>
     </row>
@@ -11294,10 +11263,10 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I9" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A9 &amp; """" &amp; ",  " &amp; """" &amp; B9 &amp; """" &amp; ",  " &amp; """" &amp; C9 &amp; """" &amp; ",  " &amp; """" &amp; D9 &amp;  """" &amp;  ",  " &amp; """" &amp; E9 &amp; """" &amp; ",  " &amp; """" &amp; F9 &amp; """" &amp; ",  " &amp; """" &amp; G9 &amp; """" &amp; ",  " &amp; """" &amp; H9 &amp; """" &amp; "});"</f>
@@ -11316,10 +11285,10 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I10" s="3"/>
     </row>
@@ -11335,10 +11304,10 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I11" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A11 &amp; """" &amp; ",  " &amp; """" &amp; B11 &amp; """" &amp; ",  " &amp; """" &amp; C11 &amp; """" &amp; ",  " &amp; """" &amp; D11 &amp;  """" &amp;  ",  " &amp; """" &amp; E11 &amp; """" &amp; ",  " &amp; """" &amp; F11 &amp; """" &amp; ",  " &amp; """" &amp; G11 &amp; """" &amp; ",  " &amp; """" &amp; H11 &amp; """" &amp; "});"</f>
@@ -11357,10 +11326,10 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I12" s="3"/>
     </row>
@@ -11376,10 +11345,10 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I13" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A13 &amp; """" &amp; ",  " &amp; """" &amp; B13 &amp; """" &amp; ",  " &amp; """" &amp; C13 &amp; """" &amp; ",  " &amp; """" &amp; D13 &amp;  """" &amp;  ",  " &amp; """" &amp; E13 &amp; """" &amp; ",  " &amp; """" &amp; F13 &amp; """" &amp; ",  " &amp; """" &amp; G13 &amp; """" &amp; ",  " &amp; """" &amp; H13 &amp; """" &amp; "});"</f>
@@ -11398,10 +11367,10 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I14" s="3"/>
     </row>
@@ -11417,10 +11386,10 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I15" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A15 &amp; """" &amp; ",  " &amp; """" &amp; B15 &amp; """" &amp; ",  " &amp; """" &amp; C15 &amp; """" &amp; ",  " &amp; """" &amp; D15 &amp;  """" &amp;  ",  " &amp; """" &amp; E15 &amp; """" &amp; ",  " &amp; """" &amp; F15 &amp; """" &amp; ",  " &amp; """" &amp; G15 &amp; """" &amp; ",  " &amp; """" &amp; H15 &amp; """" &amp; "});"</f>
@@ -11439,10 +11408,10 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I16" s="3"/>
     </row>
@@ -11458,10 +11427,10 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I17" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A17 &amp; """" &amp; ",  " &amp; """" &amp; B17 &amp; """" &amp; ",  " &amp; """" &amp; C17 &amp; """" &amp; ",  " &amp; """" &amp; D17 &amp;  """" &amp;  ",  " &amp; """" &amp; E17 &amp; """" &amp; ",  " &amp; """" &amp; F17 &amp; """" &amp; ",  " &amp; """" &amp; G17 &amp; """" &amp; ",  " &amp; """" &amp; H17 &amp; """" &amp; "});"</f>
@@ -11480,10 +11449,10 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I18" s="3"/>
     </row>
@@ -11499,10 +11468,10 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I19" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A19 &amp; """" &amp; ",  " &amp; """" &amp; B19 &amp; """" &amp; ",  " &amp; """" &amp; C19 &amp; """" &amp; ",  " &amp; """" &amp; D19 &amp;  """" &amp;  ",  " &amp; """" &amp; E19 &amp; """" &amp; ",  " &amp; """" &amp; F19 &amp; """" &amp; ",  " &amp; """" &amp; G19 &amp; """" &amp; ",  " &amp; """" &amp; H19 &amp; """" &amp; "});"</f>
@@ -11521,10 +11490,10 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I20" s="3"/>
     </row>
@@ -11540,10 +11509,10 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I21" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A21 &amp; """" &amp; ",  " &amp; """" &amp; B21 &amp; """" &amp; ",  " &amp; """" &amp; C21 &amp; """" &amp; ",  " &amp; """" &amp; D21 &amp;  """" &amp;  ",  " &amp; """" &amp; E21 &amp; """" &amp; ",  " &amp; """" &amp; F21 &amp; """" &amp; ",  " &amp; """" &amp; G21 &amp; """" &amp; ",  " &amp; """" &amp; H21 &amp; """" &amp; "});"</f>
@@ -11562,10 +11531,10 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I22" s="3"/>
     </row>
@@ -11581,10 +11550,10 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I23" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A23 &amp; """" &amp; ",  " &amp; """" &amp; B23 &amp; """" &amp; ",  " &amp; """" &amp; C23 &amp; """" &amp; ",  " &amp; """" &amp; D23 &amp;  """" &amp;  ",  " &amp; """" &amp; E23 &amp; """" &amp; ",  " &amp; """" &amp; F23 &amp; """" &amp; ",  " &amp; """" &amp; G23 &amp; """" &amp; ",  " &amp; """" &amp; H23 &amp; """" &amp; "});"</f>
@@ -11603,10 +11572,10 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I24" s="3"/>
     </row>
@@ -11622,10 +11591,10 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I25" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A25 &amp; """" &amp; ",  " &amp; """" &amp; B25 &amp; """" &amp; ",  " &amp; """" &amp; C25 &amp; """" &amp; ",  " &amp; """" &amp; D25 &amp;  """" &amp;  ",  " &amp; """" &amp; E25 &amp; """" &amp; ",  " &amp; """" &amp; F25 &amp; """" &amp; ",  " &amp; """" &amp; G25 &amp; """" &amp; ",  " &amp; """" &amp; H25 &amp; """" &amp; "});"</f>
@@ -11644,10 +11613,10 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I26" s="3"/>
     </row>
@@ -11663,10 +11632,10 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I27" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A27 &amp; """" &amp; ",  " &amp; """" &amp; B27 &amp; """" &amp; ",  " &amp; """" &amp; C27 &amp; """" &amp; ",  " &amp; """" &amp; D27 &amp;  """" &amp;  ",  " &amp; """" &amp; E27 &amp; """" &amp; ",  " &amp; """" &amp; F27 &amp; """" &amp; ",  " &amp; """" &amp; G27 &amp; """" &amp; ",  " &amp; """" &amp; H27 &amp; """" &amp; "});"</f>
@@ -11685,10 +11654,10 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I28" s="3"/>
     </row>
@@ -11704,10 +11673,10 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I29" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A29 &amp; """" &amp; ",  " &amp; """" &amp; B29 &amp; """" &amp; ",  " &amp; """" &amp; C29 &amp; """" &amp; ",  " &amp; """" &amp; D29 &amp;  """" &amp;  ",  " &amp; """" &amp; E29 &amp; """" &amp; ",  " &amp; """" &amp; F29 &amp; """" &amp; ",  " &amp; """" &amp; G29 &amp; """" &amp; ",  " &amp; """" &amp; H29 &amp; """" &amp; "});"</f>
@@ -11726,10 +11695,10 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I30" s="3"/>
     </row>
@@ -11745,10 +11714,10 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I31" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A31 &amp; """" &amp; ",  " &amp; """" &amp; B31 &amp; """" &amp; ",  " &amp; """" &amp; C31 &amp; """" &amp; ",  " &amp; """" &amp; D31 &amp;  """" &amp;  ",  " &amp; """" &amp; E31 &amp; """" &amp; ",  " &amp; """" &amp; F31 &amp; """" &amp; ",  " &amp; """" &amp; G31 &amp; """" &amp; ",  " &amp; """" &amp; H31 &amp; """" &amp; "});"</f>
@@ -11767,10 +11736,10 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I32" s="3"/>
     </row>
@@ -11786,10 +11755,10 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I33" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A33 &amp; """" &amp; ",  " &amp; """" &amp; B33 &amp; """" &amp; ",  " &amp; """" &amp; C33 &amp; """" &amp; ",  " &amp; """" &amp; D33 &amp;  """" &amp;  ",  " &amp; """" &amp; E33 &amp; """" &amp; ",  " &amp; """" &amp; F33 &amp; """" &amp; ",  " &amp; """" &amp; G33 &amp; """" &amp; ",  " &amp; """" &amp; H33 &amp; """" &amp; "});"</f>
@@ -11808,10 +11777,10 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I34" s="3"/>
     </row>
@@ -11827,10 +11796,10 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I35" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A35 &amp; """" &amp; ",  " &amp; """" &amp; B35 &amp; """" &amp; ",  " &amp; """" &amp; C35 &amp; """" &amp; ",  " &amp; """" &amp; D35 &amp;  """" &amp;  ",  " &amp; """" &amp; E35 &amp; """" &amp; ",  " &amp; """" &amp; F35 &amp; """" &amp; ",  " &amp; """" &amp; G35 &amp; """" &amp; ",  " &amp; """" &amp; H35 &amp; """" &amp; "});"</f>
@@ -11918,7 +11887,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>61</v>
@@ -11927,15 +11896,15 @@
         <v>53</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I2" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
@@ -11944,7 +11913,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>61</v>
@@ -11953,15 +11922,15 @@
         <v>150</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I3" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A3 &amp; """" &amp; ",  " &amp; """" &amp; B3 &amp; """" &amp; ",  " &amp; """" &amp; C3 &amp; """" &amp; ",  " &amp; """" &amp; D3 &amp;  """" &amp;  ",  " &amp; """" &amp; E3 &amp; """" &amp; ",  " &amp; """" &amp; F3 &amp; """" &amp; ",  " &amp; """" &amp; G3 &amp; """" &amp; ",  " &amp; """" &amp; H3 &amp; """" &amp; "});"</f>
@@ -11970,7 +11939,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>139</v>
@@ -11979,15 +11948,15 @@
         <v>150</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I4" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A4 &amp; """" &amp; ",  " &amp; """" &amp; B4 &amp; """" &amp; ",  " &amp; """" &amp; C4 &amp; """" &amp; ",  " &amp; """" &amp; D4 &amp;  """" &amp;  ",  " &amp; """" &amp; E4 &amp; """" &amp; ",  " &amp; """" &amp; F4 &amp; """" &amp; ",  " &amp; """" &amp; G4 &amp; """" &amp; ",  " &amp; """" &amp; H4 &amp; """" &amp; "});"</f>
@@ -11996,7 +11965,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>212</v>
@@ -12008,10 +11977,10 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" ref="I5:I9" si="0">"list.add(new String[] {" &amp; """" &amp; A5 &amp; """" &amp; ",  " &amp; """" &amp; B5 &amp; """" &amp; ",  " &amp; """" &amp; C5 &amp; """" &amp; ",  " &amp; """" &amp; D5 &amp;  """" &amp;  ",  " &amp; """" &amp; E5 &amp; """" &amp; ",  " &amp; """" &amp; F5 &amp; """" &amp; ",  " &amp; """" &amp; G5 &amp; """" &amp; ",  " &amp; """" &amp; H5 &amp; """" &amp; "});"</f>
@@ -12020,7 +11989,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>322</v>
@@ -12033,7 +12002,7 @@
         <v>317</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -12042,13 +12011,13 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>142</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>144</v>
@@ -12058,10 +12027,10 @@
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" ref="I7" si="1">"list.add(new String[] {" &amp; """" &amp; A7 &amp; """" &amp; ",  " &amp; """" &amp; B7 &amp; """" &amp; ",  " &amp; """" &amp; C7 &amp; """" &amp; ",  " &amp; """" &amp; D7 &amp;  """" &amp;  ",  " &amp; """" &amp; E7 &amp; """" &amp; ",  " &amp; """" &amp; F7 &amp; """" &amp; ",  " &amp; """" &amp; G7 &amp; """" &amp; ",  " &amp; """" &amp; H7 &amp; """" &amp; "});"</f>
@@ -12070,7 +12039,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>197</v>
@@ -12079,15 +12048,15 @@
         <v>150</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -12096,7 +12065,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>212</v>
@@ -12108,7 +12077,7 @@
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>141</v>
@@ -12199,7 +12168,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>61</v>
@@ -12208,15 +12177,15 @@
         <v>53</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I2" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
@@ -12225,7 +12194,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>61</v>
@@ -12234,15 +12203,15 @@
         <v>150</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I3" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A3 &amp; """" &amp; ",  " &amp; """" &amp; B3 &amp; """" &amp; ",  " &amp; """" &amp; C3 &amp; """" &amp; ",  " &amp; """" &amp; D3 &amp;  """" &amp;  ",  " &amp; """" &amp; E3 &amp; """" &amp; ",  " &amp; """" &amp; F3 &amp; """" &amp; ",  " &amp; """" &amp; G3 &amp; """" &amp; ",  " &amp; """" &amp; H3 &amp; """" &amp; "});"</f>
@@ -12251,7 +12220,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>139</v>
@@ -12260,15 +12229,15 @@
         <v>150</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I4" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A4 &amp; """" &amp; ",  " &amp; """" &amp; B4 &amp; """" &amp; ",  " &amp; """" &amp; C4 &amp; """" &amp; ",  " &amp; """" &amp; D4 &amp;  """" &amp;  ",  " &amp; """" &amp; E4 &amp; """" &amp; ",  " &amp; """" &amp; F4 &amp; """" &amp; ",  " &amp; """" &amp; G4 &amp; """" &amp; ",  " &amp; """" &amp; H4 &amp; """" &amp; "});"</f>
@@ -12277,7 +12246,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>212</v>
@@ -12289,10 +12258,10 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I5" s="3" t="str">
         <f t="shared" ref="I5:I7" si="0">"list.add(new String[] {" &amp; """" &amp; A5 &amp; """" &amp; ",  " &amp; """" &amp; B5 &amp; """" &amp; ",  " &amp; """" &amp; C5 &amp; """" &amp; ",  " &amp; """" &amp; D5 &amp;  """" &amp;  ",  " &amp; """" &amp; E5 &amp; """" &amp; ",  " &amp; """" &amp; F5 &amp; """" &amp; ",  " &amp; """" &amp; G5 &amp; """" &amp; ",  " &amp; """" &amp; H5 &amp; """" &amp; "});"</f>
@@ -12301,7 +12270,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>322</v>
@@ -12314,7 +12283,7 @@
         <v>317</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -12323,13 +12292,13 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>142</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>144</v>
@@ -12339,10 +12308,10 @@
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -12584,7 +12553,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>39</v>
@@ -12594,7 +12563,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="str">
@@ -12604,7 +12573,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>41</v>
@@ -12614,10 +12583,10 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I3" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A3 &amp; """" &amp; ",  " &amp; """" &amp; B3 &amp; """" &amp; ",  " &amp; """" &amp; C3 &amp; """" &amp; ",  " &amp; """" &amp; D3 &amp;  """" &amp;  ",  " &amp; """" &amp; E3 &amp; """" &amp; ",  " &amp; """" &amp; F3 &amp; """" &amp; ",  " &amp; """" &amp; G3 &amp; """" &amp; ",  " &amp; """" &amp; H3 &amp; """" &amp; "});"</f>
@@ -12626,24 +12595,24 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>290</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I4" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A4 &amp; """" &amp; ",  " &amp; """" &amp; B4 &amp; """" &amp; ",  " &amp; """" &amp; C4 &amp; """" &amp; ",  " &amp; """" &amp; D4 &amp;  """" &amp;  ",  " &amp; """" &amp; E4 &amp; """" &amp; ",  " &amp; """" &amp; F4 &amp; """" &amp; ",  " &amp; """" &amp; G4 &amp; """" &amp; ",  " &amp; """" &amp; H4 &amp; """" &amp; "});"</f>
@@ -12652,24 +12621,24 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>290</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I5" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A5 &amp; """" &amp; ",  " &amp; """" &amp; B5 &amp; """" &amp; ",  " &amp; """" &amp; C5 &amp; """" &amp; ",  " &amp; """" &amp; D5 &amp;  """" &amp;  ",  " &amp; """" &amp; E5 &amp; """" &amp; ",  " &amp; """" &amp; F5 &amp; """" &amp; ",  " &amp; """" &amp; G5 &amp; """" &amp; ",  " &amp; """" &amp; H5 &amp; """" &amp; "});"</f>
@@ -12678,24 +12647,24 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>290</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>592</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>593</v>
       </c>
       <c r="I6" s="3" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A6 &amp; """" &amp; ",  " &amp; """" &amp; B6 &amp; """" &amp; ",  " &amp; """" &amp; C6 &amp; """" &amp; ",  " &amp; """" &amp; D6 &amp;  """" &amp;  ",  " &amp; """" &amp; E6 &amp; """" &amp; ",  " &amp; """" &amp; F6 &amp; """" &amp; ",  " &amp; """" &amp; G6 &amp; """" &amp; ",  " &amp; """" &amp; H6 &amp; """" &amp; "});"</f>
@@ -12704,24 +12673,24 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>290</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>595</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>596</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" ref="I7:I20" si="0">"list.add(new String[] {" &amp; """" &amp; A7 &amp; """" &amp; ",  " &amp; """" &amp; B7 &amp; """" &amp; ",  " &amp; """" &amp; C7 &amp; """" &amp; ",  " &amp; """" &amp; D7 &amp;  """" &amp;  ",  " &amp; """" &amp; E7 &amp; """" &amp; ",  " &amp; """" &amp; F7 &amp; """" &amp; ",  " &amp; """" &amp; G7 &amp; """" &amp; ",  " &amp; """" &amp; H7 &amp; """" &amp; "});"</f>
@@ -12730,24 +12699,24 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>290</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>598</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>599</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -12756,24 +12725,24 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>290</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>601</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>602</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -12782,24 +12751,24 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>290</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>604</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>605</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -12808,24 +12777,24 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>290</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>607</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>608</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -12834,24 +12803,24 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>290</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>610</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>611</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -12860,24 +12829,24 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>290</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -12886,24 +12855,24 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>290</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>615</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>616</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -12912,24 +12881,24 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>290</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -12938,24 +12907,24 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>290</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -12964,24 +12933,24 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>290</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="0"/>
@@ -12990,24 +12959,24 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>290</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I18" s="3" t="str">
         <f t="shared" si="0"/>
@@ -13016,24 +12985,24 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>290</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" si="0"/>
@@ -13042,24 +13011,24 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>290</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -13068,7 +13037,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>48</v>
@@ -13080,10 +13049,10 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" ref="I21:I22" si="1">"list.add(new String[] {" &amp; """" &amp; A21 &amp; """" &amp; ",  " &amp; """" &amp; B21 &amp; """" &amp; ",  " &amp; """" &amp; C21 &amp; """" &amp; ",  " &amp; """" &amp; D21 &amp;  """" &amp;  ",  " &amp; """" &amp; E21 &amp; """" &amp; ",  " &amp; """" &amp; F21 &amp; """" &amp; ",  " &amp; """" &amp; G21 &amp; """" &amp; ",  " &amp; """" &amp; H21 &amp; """" &amp; "});"</f>
@@ -13092,7 +13061,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>322</v>
@@ -13105,7 +13074,7 @@
         <v>336</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="1"/>
@@ -13723,9 +13692,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView windowProtection="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="A24:XFD24"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13781,7 +13750,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>187</v>

--- a/data/Demo.xlsx
+++ b/data/Demo.xlsx
@@ -72,9 +72,6 @@
     <t>Work with the Crown PS site</t>
   </si>
   <si>
-    <t>InputSpecs=File!Demo.xlsx!RootVMTurbo</t>
-  </si>
-  <si>
     <t>Verify the VMTurbo Site</t>
   </si>
   <si>
@@ -1429,6 +1426,9 @@
   </si>
   <si>
     <t>Generate report for the Crown PS Report section</t>
+  </si>
+  <si>
+    <t>InputSpecs=File!Demo.txt;ptp=QSU</t>
   </si>
 </sst>
 </file>
@@ -1823,7 +1823,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1835,19 +1835,19 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -1892,7 +1892,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>10</v>
@@ -1910,19 +1910,19 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>463</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>464</v>
       </c>
       <c r="I4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1941,14 +1941,14 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="I5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"Demo#",  "newTest",  "",  "",  "",  "",  "InputSpecs=File!Demo.xlsx!RootVMTurbo",  "Verify the VMTurbo Site"});</v>
+        <v>list.add(new String[] {"Demo#",  "newTest",  "",  "",  "",  "",  "InputSpecs=File!Demo.txt;ptp=QSU",  "Verify the VMTurbo Site"});</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1962,13 +1962,13 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="I6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1980,19 +1980,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="I7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2010,13 +2010,13 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="I8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2028,19 +2028,19 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="I9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2058,13 +2058,13 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="I10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2076,19 +2076,19 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="I11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2100,17 +2100,17 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="I12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2122,17 +2122,17 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="I13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2150,13 +2150,13 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="I14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2175,10 +2175,10 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>458</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>459</v>
       </c>
       <c r="I15" s="1" t="str">
         <f t="shared" ref="I15:I16" si="1">"list.add(new String[] {" &amp; """" &amp; A15 &amp; """" &amp; ",  " &amp; """" &amp; B15 &amp; """" &amp; ",  " &amp; """" &amp; C15 &amp; """" &amp; ",  " &amp; """" &amp; D15 &amp;  """" &amp;  ",  " &amp; """" &amp; E15 &amp; """" &amp; ",  " &amp; """" &amp; F15 &amp; """" &amp; ",  " &amp; """" &amp; G15 &amp; """" &amp; ",  " &amp; """" &amp; H15 &amp; """" &amp; "});"</f>
@@ -2190,17 +2190,17 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I16" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2219,10 +2219,10 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>460</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>461</v>
       </c>
       <c r="I17" s="1" t="str">
         <f t="shared" ref="I17" si="2">"list.add(new String[] {" &amp; """" &amp; A17 &amp; """" &amp; ",  " &amp; """" &amp; B17 &amp; """" &amp; ",  " &amp; """" &amp; C17 &amp; """" &amp; ",  " &amp; """" &amp; D17 &amp;  """" &amp;  ",  " &amp; """" &amp; E17 &amp; """" &amp; ",  " &amp; """" &amp; F17 &amp; """" &amp; ",  " &amp; """" &amp; G17 &amp; """" &amp; ",  " &amp; """" &amp; H17 &amp; """" &amp; "});"</f>
@@ -2234,17 +2234,17 @@
         <v>5</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>457</v>
       </c>
       <c r="I18" s="1" t="str">
         <f t="shared" ref="I18" si="3">"list.add(new String[] {" &amp; """" &amp; A18 &amp; """" &amp; ",  " &amp; """" &amp; B18 &amp; """" &amp; ",  " &amp; """" &amp; C18 &amp; """" &amp; ",  " &amp; """" &amp; D18 &amp;  """" &amp;  ",  " &amp; """" &amp; E18 &amp; """" &amp; ",  " &amp; """" &amp; F18 &amp; """" &amp; ",  " &amp; """" &amp; G18 &amp; """" &amp; ",  " &amp; """" &amp; H18 &amp; """" &amp; "});"</f>
@@ -2331,16 +2331,16 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -2358,17 +2358,17 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="str">
@@ -2378,24 +2378,24 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="I3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2404,26 +2404,26 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>306</v>
       </c>
       <c r="I4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2432,26 +2432,26 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="I5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2460,26 +2460,26 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="I6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2488,24 +2488,24 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2514,22 +2514,22 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="I8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2538,22 +2538,22 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2562,24 +2562,24 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>319</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2588,22 +2588,22 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2656,16 +2656,16 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -2683,17 +2683,17 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="str">
@@ -2703,24 +2703,24 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="I3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2729,26 +2729,26 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>306</v>
       </c>
       <c r="I4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2757,26 +2757,26 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="I5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2785,26 +2785,26 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="I6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2813,24 +2813,24 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2839,22 +2839,22 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="I8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2863,22 +2863,22 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2887,24 +2887,24 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>319</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="I10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2913,22 +2913,22 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2984,19 +2984,19 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -3011,10 +3011,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3022,7 +3022,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I2" s="1" t="str">
         <f t="shared" ref="I2:I7" si="0">"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
@@ -3031,20 +3031,20 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="I3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3053,20 +3053,20 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="I4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3075,20 +3075,20 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>334</v>
       </c>
       <c r="I5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3097,20 +3097,20 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3119,20 +3119,20 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>334</v>
       </c>
       <c r="I7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3175,19 +3175,19 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -3202,20 +3202,20 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I2" s="1" t="str">
         <f t="shared" ref="I2:I36" si="0">"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
@@ -3224,22 +3224,22 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3248,26 +3248,26 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>342</v>
       </c>
       <c r="I4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3276,26 +3276,26 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="I5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3304,26 +3304,26 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="I6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3332,26 +3332,26 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="I7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3360,26 +3360,26 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="I8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3388,26 +3388,26 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>353</v>
       </c>
       <c r="I9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3416,22 +3416,22 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3440,20 +3440,20 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>358</v>
       </c>
       <c r="I11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3462,20 +3462,20 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>360</v>
       </c>
       <c r="I12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3484,26 +3484,26 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="I13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3512,22 +3512,22 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>363</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3536,22 +3536,22 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3560,24 +3560,24 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="I16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3586,26 +3586,26 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>372</v>
       </c>
       <c r="I17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3614,24 +3614,24 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>375</v>
       </c>
       <c r="I18" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3640,26 +3640,26 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>377</v>
       </c>
       <c r="I19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3668,24 +3668,24 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="I20" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3694,26 +3694,26 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="I21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3722,24 +3722,24 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>385</v>
       </c>
       <c r="I22" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3748,26 +3748,26 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="D23" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="I23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3776,24 +3776,24 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>390</v>
       </c>
       <c r="I24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3802,22 +3802,22 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I25" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3826,20 +3826,20 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I26" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3848,26 +3848,26 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="I27" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3876,20 +3876,20 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="I28" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3898,22 +3898,22 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>401</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I29" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3922,20 +3922,20 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I30" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3944,22 +3944,22 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G31" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>405</v>
       </c>
       <c r="I31" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3968,20 +3968,20 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I32" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3990,26 +3990,26 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G33" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>409</v>
       </c>
       <c r="I33" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4018,24 +4018,24 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I34" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4044,20 +4044,20 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I35" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4066,10 +4066,10 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -4077,7 +4077,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I36" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4134,16 +4134,16 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -4160,20 +4160,20 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>414</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>415</v>
       </c>
       <c r="I2" s="2" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
@@ -4182,7 +4182,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -4192,10 +4192,10 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>417</v>
       </c>
       <c r="I3" s="2" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A3 &amp; """" &amp; ",  " &amp; """" &amp; B3 &amp; """" &amp; ",  " &amp; """" &amp; C3 &amp; """" &amp; ",  " &amp; """" &amp; D3 &amp;  """" &amp;  ",  " &amp; """" &amp; E3 &amp; """" &amp; ",  " &amp; """" &amp; F3 &amp; """" &amp; ",  " &amp; """" &amp; G3 &amp; """" &amp; ",  " &amp; """" &amp; H3 &amp; """" &amp; "});"</f>
@@ -4204,20 +4204,20 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>418</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>419</v>
       </c>
       <c r="I4" s="2" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A4 &amp; """" &amp; ",  " &amp; """" &amp; B4 &amp; """" &amp; ",  " &amp; """" &amp; C4 &amp; """" &amp; ",  " &amp; """" &amp; D4 &amp;  """" &amp;  ",  " &amp; """" &amp; E4 &amp; """" &amp; ",  " &amp; """" &amp; F4 &amp; """" &amp; ",  " &amp; """" &amp; G4 &amp; """" &amp; ",  " &amp; """" &amp; H4 &amp; """" &amp; "});"</f>
@@ -4255,16 +4255,16 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -4281,16 +4281,16 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>414</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>415</v>
       </c>
       <c r="I2" s="2" t="str">
         <f t="shared" ref="I2:I18" si="0">"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
@@ -4299,16 +4299,16 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>421</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4317,19 +4317,19 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>422</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>423</v>
       </c>
       <c r="I4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4338,19 +4338,19 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>426</v>
       </c>
       <c r="I5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4359,19 +4359,19 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>427</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>428</v>
       </c>
       <c r="I6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4380,22 +4380,22 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>430</v>
       </c>
       <c r="I7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4404,26 +4404,26 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>432</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>433</v>
       </c>
       <c r="I8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4432,20 +4432,20 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F9" s="3"/>
       <c r="H9" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4454,20 +4454,20 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F10" s="3"/>
       <c r="H10" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4476,20 +4476,20 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F11" s="3"/>
       <c r="H11" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I11" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4498,20 +4498,20 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F12" s="3"/>
       <c r="H12" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I12" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4520,20 +4520,20 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F13" s="3"/>
       <c r="H13" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I13" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4542,20 +4542,20 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F14" s="3"/>
       <c r="H14" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I14" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4564,26 +4564,26 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>447</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>448</v>
       </c>
       <c r="I15" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4592,21 +4592,21 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="H16" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I16" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4615,20 +4615,20 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>452</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>453</v>
       </c>
       <c r="I17" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4637,20 +4637,20 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I18" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4693,19 +4693,19 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -4720,10 +4720,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -4731,7 +4731,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I2" s="1" t="str">
         <f t="shared" ref="I2:I7" si="0">"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
@@ -4740,20 +4740,20 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="I3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4762,20 +4762,20 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="I4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4784,20 +4784,20 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="I5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4806,20 +4806,20 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="I6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4828,20 +4828,20 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="I7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4939,19 +4939,19 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -4966,20 +4966,20 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="I2" s="1" t="str">
         <f t="shared" ref="I2:I29" si="0">"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
@@ -4988,22 +4988,22 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="I3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5012,10 +5012,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -5030,22 +5030,22 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5054,26 +5054,26 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="I6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5082,22 +5082,22 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5106,26 +5106,26 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="I8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5134,26 +5134,26 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="I9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5162,26 +5162,26 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="I10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5190,26 +5190,26 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="I11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5218,26 +5218,26 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="I12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5246,26 +5246,26 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="I13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5274,26 +5274,26 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="I14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5302,26 +5302,26 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="I15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5330,24 +5330,24 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5356,26 +5356,26 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="I17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5384,26 +5384,26 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="I18" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5412,26 +5412,26 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="I19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5440,26 +5440,26 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="D20" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="I20" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5468,26 +5468,26 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="I21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5496,26 +5496,26 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="I22" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5524,26 +5524,26 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="D23" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="I23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5552,26 +5552,26 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="D24" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="I24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5580,26 +5580,26 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="I25" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5608,26 +5608,26 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="D26" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="I26" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5636,26 +5636,26 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="D27" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="I27" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5664,26 +5664,26 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="D28" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="I28" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5692,26 +5692,26 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="D29" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="I29" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5720,26 +5720,26 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="C30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="E30" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="I30" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A6 &amp; """" &amp; ",  " &amp; """" &amp; B6 &amp; """" &amp; ",  " &amp; """" &amp; C6 &amp; """" &amp; ",  " &amp; """" &amp; D6 &amp;  """" &amp;  ",  " &amp; """" &amp; E30 &amp; """" &amp; ",  " &amp; """" &amp; F30 &amp; """" &amp; ",  " &amp; """" &amp; G30 &amp; """" &amp; ",  " &amp; """" &amp; H30 &amp; """" &amp; "});"</f>
@@ -5748,22 +5748,22 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I31" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A7 &amp; """" &amp; ",  " &amp; """" &amp; B7 &amp; """" &amp; ",  " &amp; """" &amp; C7 &amp; """" &amp; ",  " &amp; """" &amp; D7 &amp;  """" &amp;  ",  " &amp; """" &amp; E31 &amp; """" &amp; ",  " &amp; """" &amp; F31 &amp; """" &amp; ",  " &amp; """" &amp; G31 &amp; """" &amp; ",  " &amp; """" &amp; H31 &amp; """" &amp; "});"</f>
@@ -5772,76 +5772,76 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="D32" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="D33" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="I34" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A34 &amp; """" &amp; ",  " &amp; """" &amp; B34 &amp; """" &amp; ",  " &amp; """" &amp; C34 &amp; """" &amp; ",  " &amp; """" &amp; D34 &amp;  """" &amp;  ",  " &amp; """" &amp; E34 &amp; """" &amp; ",  " &amp; """" &amp; F34 &amp; """" &amp; ",  " &amp; """" &amp; G34 &amp; """" &amp; ",  " &amp; """" &amp; H34 &amp; """" &amp; "});"</f>
@@ -5850,22 +5850,22 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I35" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A35 &amp; """" &amp; ",  " &amp; """" &amp; B35 &amp; """" &amp; ",  " &amp; """" &amp; C35 &amp; """" &amp; ",  " &amp; """" &amp; D35 &amp;  """" &amp;  ",  " &amp; """" &amp; E35 &amp; """" &amp; ",  " &amp; """" &amp; F35 &amp; """" &amp; ",  " &amp; """" &amp; G35 &amp; """" &amp; ",  " &amp; """" &amp; H35 &amp; """" &amp; "});"</f>
@@ -5922,19 +5922,19 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -5949,39 +5949,39 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="I3" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A3 &amp; """" &amp; ",  " &amp; """" &amp; B3 &amp; """" &amp; ",  " &amp; """" &amp; C3 &amp; """" &amp; ",  " &amp; """" &amp; D3 &amp;  """" &amp;  ",  " &amp; """" &amp; E3 &amp; """" &amp; ",  " &amp; """" &amp; F3 &amp; """" &amp; ",  " &amp; """" &amp; G3 &amp; """" &amp; ",  " &amp; """" &amp; H3 &amp; """" &amp; "});"</f>
@@ -5990,39 +5990,39 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="I5" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A5 &amp; """" &amp; ",  " &amp; """" &amp; B5 &amp; """" &amp; ",  " &amp; """" &amp; C5 &amp; """" &amp; ",  " &amp; """" &amp; D5 &amp;  """" &amp;  ",  " &amp; """" &amp; E5 &amp; """" &amp; ",  " &amp; """" &amp; F5 &amp; """" &amp; ",  " &amp; """" &amp; G5 &amp; """" &amp; ",  " &amp; """" &amp; H5 &amp; """" &amp; "});"</f>
@@ -6031,39 +6031,39 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="I7" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A7 &amp; """" &amp; ",  " &amp; """" &amp; B7 &amp; """" &amp; ",  " &amp; """" &amp; C7 &amp; """" &amp; ",  " &amp; """" &amp; D7 &amp;  """" &amp;  ",  " &amp; """" &amp; E7 &amp; """" &amp; ",  " &amp; """" &amp; F7 &amp; """" &amp; ",  " &amp; """" &amp; G7 &amp; """" &amp; ",  " &amp; """" &amp; H7 &amp; """" &amp; "});"</f>
@@ -6072,39 +6072,39 @@
     </row>
     <row r="8" spans="1:9" ht="37.5" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="I9" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A9 &amp; """" &amp; ",  " &amp; """" &amp; B9 &amp; """" &amp; ",  " &amp; """" &amp; C9 &amp; """" &amp; ",  " &amp; """" &amp; D9 &amp;  """" &amp;  ",  " &amp; """" &amp; E9 &amp; """" &amp; ",  " &amp; """" &amp; F9 &amp; """" &amp; ",  " &amp; """" &amp; G9 &amp; """" &amp; ",  " &amp; """" &amp; H9 &amp; """" &amp; "});"</f>
@@ -6113,39 +6113,39 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="I11" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A11 &amp; """" &amp; ",  " &amp; """" &amp; B11 &amp; """" &amp; ",  " &amp; """" &amp; C11 &amp; """" &amp; ",  " &amp; """" &amp; D11 &amp;  """" &amp;  ",  " &amp; """" &amp; E11 &amp; """" &amp; ",  " &amp; """" &amp; F11 &amp; """" &amp; ",  " &amp; """" &amp; G11 &amp; """" &amp; ",  " &amp; """" &amp; H11 &amp; """" &amp; "});"</f>
@@ -6154,39 +6154,39 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="I13" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A13 &amp; """" &amp; ",  " &amp; """" &amp; B13 &amp; """" &amp; ",  " &amp; """" &amp; C13 &amp; """" &amp; ",  " &amp; """" &amp; D13 &amp;  """" &amp;  ",  " &amp; """" &amp; E13 &amp; """" &amp; ",  " &amp; """" &amp; F13 &amp; """" &amp; ",  " &amp; """" &amp; G13 &amp; """" &amp; ",  " &amp; """" &amp; H13 &amp; """" &amp; "});"</f>
@@ -6195,39 +6195,39 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="I15" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A15 &amp; """" &amp; ",  " &amp; """" &amp; B15 &amp; """" &amp; ",  " &amp; """" &amp; C15 &amp; """" &amp; ",  " &amp; """" &amp; D15 &amp;  """" &amp;  ",  " &amp; """" &amp; E15 &amp; """" &amp; ",  " &amp; """" &amp; F15 &amp; """" &amp; ",  " &amp; """" &amp; G15 &amp; """" &amp; ",  " &amp; """" &amp; H15 &amp; """" &amp; "});"</f>
@@ -6236,39 +6236,39 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="I17" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A17 &amp; """" &amp; ",  " &amp; """" &amp; B17 &amp; """" &amp; ",  " &amp; """" &amp; C17 &amp; """" &amp; ",  " &amp; """" &amp; D17 &amp;  """" &amp;  ",  " &amp; """" &amp; E17 &amp; """" &amp; ",  " &amp; """" &amp; F17 &amp; """" &amp; ",  " &amp; """" &amp; G17 &amp; """" &amp; ",  " &amp; """" &amp; H17 &amp; """" &amp; "});"</f>
@@ -6277,39 +6277,39 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="I19" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A19 &amp; """" &amp; ",  " &amp; """" &amp; B19 &amp; """" &amp; ",  " &amp; """" &amp; C19 &amp; """" &amp; ",  " &amp; """" &amp; D19 &amp;  """" &amp;  ",  " &amp; """" &amp; E19 &amp; """" &amp; ",  " &amp; """" &amp; F19 &amp; """" &amp; ",  " &amp; """" &amp; G19 &amp; """" &amp; ",  " &amp; """" &amp; H19 &amp; """" &amp; "});"</f>
@@ -6318,39 +6318,39 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="I21" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A21 &amp; """" &amp; ",  " &amp; """" &amp; B21 &amp; """" &amp; ",  " &amp; """" &amp; C21 &amp; """" &amp; ",  " &amp; """" &amp; D21 &amp;  """" &amp;  ",  " &amp; """" &amp; E21 &amp; """" &amp; ",  " &amp; """" &amp; F21 &amp; """" &amp; ",  " &amp; """" &amp; G21 &amp; """" &amp; ",  " &amp; """" &amp; H21 &amp; """" &amp; "});"</f>
@@ -6359,39 +6359,39 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="I23" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A23 &amp; """" &amp; ",  " &amp; """" &amp; B23 &amp; """" &amp; ",  " &amp; """" &amp; C23 &amp; """" &amp; ",  " &amp; """" &amp; D23 &amp;  """" &amp;  ",  " &amp; """" &amp; E23 &amp; """" &amp; ",  " &amp; """" &amp; F23 &amp; """" &amp; ",  " &amp; """" &amp; G23 &amp; """" &amp; ",  " &amp; """" &amp; H23 &amp; """" &amp; "});"</f>
@@ -6400,39 +6400,39 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="I25" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A25 &amp; """" &amp; ",  " &amp; """" &amp; B25 &amp; """" &amp; ",  " &amp; """" &amp; C25 &amp; """" &amp; ",  " &amp; """" &amp; D25 &amp;  """" &amp;  ",  " &amp; """" &amp; E25 &amp; """" &amp; ",  " &amp; """" &amp; F25 &amp; """" &amp; ",  " &amp; """" &amp; G25 &amp; """" &amp; ",  " &amp; """" &amp; H25 &amp; """" &amp; "});"</f>
@@ -6441,39 +6441,39 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="I27" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A27 &amp; """" &amp; ",  " &amp; """" &amp; B27 &amp; """" &amp; ",  " &amp; """" &amp; C27 &amp; """" &amp; ",  " &amp; """" &amp; D27 &amp;  """" &amp;  ",  " &amp; """" &amp; E27 &amp; """" &amp; ",  " &amp; """" &amp; F27 &amp; """" &amp; ",  " &amp; """" &amp; G27 &amp; """" &amp; ",  " &amp; """" &amp; H27 &amp; """" &amp; "});"</f>
@@ -6482,39 +6482,39 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="I29" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A29 &amp; """" &amp; ",  " &amp; """" &amp; B29 &amp; """" &amp; ",  " &amp; """" &amp; C29 &amp; """" &amp; ",  " &amp; """" &amp; D29 &amp;  """" &amp;  ",  " &amp; """" &amp; E29 &amp; """" &amp; ",  " &amp; """" &amp; F29 &amp; """" &amp; ",  " &amp; """" &amp; G29 &amp; """" &amp; ",  " &amp; """" &amp; H29 &amp; """" &amp; "});"</f>
@@ -6523,39 +6523,39 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="I31" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A31 &amp; """" &amp; ",  " &amp; """" &amp; B31 &amp; """" &amp; ",  " &amp; """" &amp; C31 &amp; """" &amp; ",  " &amp; """" &amp; D31 &amp;  """" &amp;  ",  " &amp; """" &amp; E31 &amp; """" &amp; ",  " &amp; """" &amp; F31 &amp; """" &amp; ",  " &amp; """" &amp; G31 &amp; """" &amp; ",  " &amp; """" &amp; H31 &amp; """" &amp; "});"</f>
@@ -6564,39 +6564,39 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="I33" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A33 &amp; """" &amp; ",  " &amp; """" &amp; B33 &amp; """" &amp; ",  " &amp; """" &amp; C33 &amp; """" &amp; ",  " &amp; """" &amp; D33 &amp;  """" &amp;  ",  " &amp; """" &amp; E33 &amp; """" &amp; ",  " &amp; """" &amp; F33 &amp; """" &amp; ",  " &amp; """" &amp; G33 &amp; """" &amp; ",  " &amp; """" &amp; H33 &amp; """" &amp; "});"</f>
@@ -6605,39 +6605,39 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="I35" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A35 &amp; """" &amp; ",  " &amp; """" &amp; B35 &amp; """" &amp; ",  " &amp; """" &amp; C35 &amp; """" &amp; ",  " &amp; """" &amp; D35 &amp;  """" &amp;  ",  " &amp; """" &amp; E35 &amp; """" &amp; ",  " &amp; """" &amp; F35 &amp; """" &amp; ",  " &amp; """" &amp; G35 &amp; """" &amp; ",  " &amp; """" &amp; H35 &amp; """" &amp; "});"</f>
@@ -6687,19 +6687,19 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -6714,24 +6714,24 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="I2" s="1" t="str">
         <f t="shared" ref="I2:I9" si="0">"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
@@ -6740,24 +6740,24 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6766,24 +6766,24 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6792,22 +6792,22 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="I5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6816,20 +6816,20 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="I6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6838,26 +6838,26 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="I7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6866,24 +6866,24 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6892,22 +6892,22 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="I9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6957,19 +6957,19 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -6984,24 +6984,24 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="I2" s="1" t="str">
         <f t="shared" ref="I2:I7" si="0">"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
@@ -7010,24 +7010,24 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7036,24 +7036,24 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7062,22 +7062,22 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="I5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7086,20 +7086,20 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="I6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7108,26 +7108,26 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="I7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7197,19 +7197,19 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -7224,17 +7224,17 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="str">
@@ -7244,20 +7244,20 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I3" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A3 &amp; """" &amp; ",  " &amp; """" &amp; B3 &amp; """" &amp; ",  " &amp; """" &amp; C3 &amp; """" &amp; ",  " &amp; """" &amp; D3 &amp;  """" &amp;  ",  " &amp; """" &amp; E3 &amp; """" &amp; ",  " &amp; """" &amp; F3 &amp; """" &amp; ",  " &amp; """" &amp; G3 &amp; """" &amp; ",  " &amp; """" &amp; H3 &amp; """" &amp; "});"</f>
@@ -7266,24 +7266,24 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="I4" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A4 &amp; """" &amp; ",  " &amp; """" &amp; B4 &amp; """" &amp; ",  " &amp; """" &amp; C4 &amp; """" &amp; ",  " &amp; """" &amp; D4 &amp;  """" &amp;  ",  " &amp; """" &amp; E4 &amp; """" &amp; ",  " &amp; """" &amp; F4 &amp; """" &amp; ",  " &amp; """" &amp; G4 &amp; """" &amp; ",  " &amp; """" &amp; H4 &amp; """" &amp; "});"</f>
@@ -7292,24 +7292,24 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="I5" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A5 &amp; """" &amp; ",  " &amp; """" &amp; B5 &amp; """" &amp; ",  " &amp; """" &amp; C5 &amp; """" &amp; ",  " &amp; """" &amp; D5 &amp;  """" &amp;  ",  " &amp; """" &amp; E5 &amp; """" &amp; ",  " &amp; """" &amp; F5 &amp; """" &amp; ",  " &amp; """" &amp; G5 &amp; """" &amp; ",  " &amp; """" &amp; H5 &amp; """" &amp; "});"</f>
@@ -7318,24 +7318,24 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="I6" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A6 &amp; """" &amp; ",  " &amp; """" &amp; B6 &amp; """" &amp; ",  " &amp; """" &amp; C6 &amp; """" &amp; ",  " &amp; """" &amp; D6 &amp;  """" &amp;  ",  " &amp; """" &amp; E6 &amp; """" &amp; ",  " &amp; """" &amp; F6 &amp; """" &amp; ",  " &amp; """" &amp; G6 &amp; """" &amp; ",  " &amp; """" &amp; H6 &amp; """" &amp; "});"</f>
@@ -7344,24 +7344,24 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="I7" s="1" t="str">
         <f t="shared" ref="I7:I20" si="0">"list.add(new String[] {" &amp; """" &amp; A7 &amp; """" &amp; ",  " &amp; """" &amp; B7 &amp; """" &amp; ",  " &amp; """" &amp; C7 &amp; """" &amp; ",  " &amp; """" &amp; D7 &amp;  """" &amp;  ",  " &amp; """" &amp; E7 &amp; """" &amp; ",  " &amp; """" &amp; F7 &amp; """" &amp; ",  " &amp; """" &amp; G7 &amp; """" &amp; ",  " &amp; """" &amp; H7 &amp; """" &amp; "});"</f>
@@ -7370,24 +7370,24 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="I8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7396,24 +7396,24 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="I9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7422,24 +7422,24 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="I10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7448,24 +7448,24 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="I11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7474,24 +7474,24 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="I12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7500,24 +7500,24 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7526,24 +7526,24 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="I14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7552,24 +7552,24 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7578,24 +7578,24 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7604,24 +7604,24 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7630,24 +7630,24 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="I18" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7656,24 +7656,24 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="I19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7682,24 +7682,24 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="D20" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="I20" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7708,22 +7708,22 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="I21" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A21 &amp; """" &amp; ",  " &amp; """" &amp; B21 &amp; """" &amp; ",  " &amp; """" &amp; C21 &amp; """" &amp; ",  " &amp; """" &amp; D21 &amp;  """" &amp;  ",  " &amp; """" &amp; E21 &amp; """" &amp; ",  " &amp; """" &amp; F21 &amp; """" &amp; ",  " &amp; """" &amp; G21 &amp; """" &amp; ",  " &amp; """" &amp; H21 &amp; """" &amp; "});"</f>
@@ -7732,20 +7732,20 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="I22" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A22 &amp; """" &amp; ",  " &amp; """" &amp; B22 &amp; """" &amp; ",  " &amp; """" &amp; C22 &amp; """" &amp; ",  " &amp; """" &amp; D22 &amp;  """" &amp;  ",  " &amp; """" &amp; E22 &amp; """" &amp; ",  " &amp; """" &amp; F22 &amp; """" &amp; ",  " &amp; """" &amp; G22 &amp; """" &amp; ",  " &amp; """" &amp; H22 &amp; """" &amp; "});"</f>
@@ -7822,16 +7822,16 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -7850,20 +7850,20 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="I2" t="str">
         <f t="shared" ref="I2:I20" si="0">"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
@@ -7872,22 +7872,22 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="I3" t="str">
         <f t="shared" si="0"/>
@@ -7896,22 +7896,22 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="0"/>
@@ -7920,22 +7920,22 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="0"/>
@@ -7944,22 +7944,22 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="0"/>
@@ -7968,22 +7968,22 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="0"/>
@@ -7992,22 +7992,22 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="0"/>
@@ -8016,22 +8016,22 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="0"/>
@@ -8040,22 +8040,22 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="0"/>
@@ -8064,22 +8064,22 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="0"/>
@@ -8088,22 +8088,22 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="0"/>
@@ -8112,22 +8112,22 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="0"/>
@@ -8136,22 +8136,22 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="0"/>
@@ -8160,22 +8160,22 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="0"/>
@@ -8184,22 +8184,22 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="0"/>
@@ -8208,22 +8208,22 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="0"/>
@@ -8232,22 +8232,22 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="0"/>
@@ -8256,22 +8256,22 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="0"/>
@@ -8280,22 +8280,22 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="0"/>
@@ -8338,16 +8338,16 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -8365,20 +8365,20 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="I2" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
@@ -8387,22 +8387,22 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I3" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A3 &amp; """" &amp; ",  " &amp; """" &amp; B3 &amp; """" &amp; ",  " &amp; """" &amp; C3 &amp; """" &amp; ",  " &amp; """" &amp; D3 &amp;  """" &amp;  ",  " &amp; """" &amp; E3 &amp; """" &amp; ",  " &amp; """" &amp; F3 &amp; """" &amp; ",  " &amp; """" &amp; G3 &amp; """" &amp; ",  " &amp; """" &amp; H3 &amp; """" &amp; "});"</f>
@@ -8411,26 +8411,26 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" t="s">
         <v>296</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I4" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A4 &amp; """" &amp; ",  " &amp; """" &amp; B4 &amp; """" &amp; ",  " &amp; """" &amp; C4 &amp; """" &amp; ",  " &amp; """" &amp; D4 &amp;  """" &amp;  ",  " &amp; """" &amp; E4 &amp; """" &amp; ",  " &amp; """" &amp; F4 &amp; """" &amp; ",  " &amp; """" &amp; G4 &amp; """" &amp; ",  " &amp; """" &amp; H4 &amp; """" &amp; "});"</f>

--- a/data/Demo.xlsx
+++ b/data/Demo.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="464">
   <si>
     <t>Action</t>
   </si>
@@ -142,9 +142,6 @@
   </si>
   <si>
     <t>LocSpecs</t>
-  </si>
-  <si>
-    <t>QryProperty</t>
   </si>
   <si>
     <t>Quit</t>
@@ -1823,11 +1820,12 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
     <col min="7" max="7" width="40.42578125" customWidth="1"/>
     <col min="8" max="8" width="48.140625" customWidth="1"/>
     <col min="9" max="9" width="44" customWidth="1"/>
@@ -1835,7 +1833,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1847,7 +1845,7 @@
         <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -1919,10 +1917,10 @@
         <v>13</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="I4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1941,7 +1939,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>12</v>
@@ -2175,10 +2173,10 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>457</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>458</v>
       </c>
       <c r="I15" s="1" t="str">
         <f t="shared" ref="I15:I16" si="1">"list.add(new String[] {" &amp; """" &amp; A15 &amp; """" &amp; ",  " &amp; """" &amp; B15 &amp; """" &amp; ",  " &amp; """" &amp; C15 &amp; """" &amp; ",  " &amp; """" &amp; D15 &amp;  """" &amp;  ",  " &amp; """" &amp; E15 &amp; """" &amp; ",  " &amp; """" &amp; F15 &amp; """" &amp; ",  " &amp; """" &amp; G15 &amp; """" &amp; ",  " &amp; """" &amp; H15 &amp; """" &amp; "});"</f>
@@ -2197,7 +2195,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>26</v>
@@ -2219,10 +2217,10 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>459</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>460</v>
       </c>
       <c r="I17" s="1" t="str">
         <f t="shared" ref="I17" si="2">"list.add(new String[] {" &amp; """" &amp; A17 &amp; """" &amp; ",  " &amp; """" &amp; B17 &amp; """" &amp; ",  " &amp; """" &amp; C17 &amp; """" &amp; ",  " &amp; """" &amp; D17 &amp;  """" &amp;  ",  " &amp; """" &amp; E17 &amp; """" &amp; ",  " &amp; """" &amp; F17 &amp; """" &amp; ",  " &amp; """" &amp; G17 &amp; """" &amp; ",  " &amp; """" &amp; H17 &amp; """" &amp; "});"</f>
@@ -2241,10 +2239,10 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>456</v>
       </c>
       <c r="I18" s="1" t="str">
         <f t="shared" ref="I18" si="3">"list.add(new String[] {" &amp; """" &amp; A18 &amp; """" &amp; ",  " &amp; """" &amp; B18 &amp; """" &amp; ",  " &amp; """" &amp; C18 &amp; """" &amp; ",  " &amp; """" &amp; D18 &amp;  """" &amp;  ",  " &amp; """" &amp; E18 &amp; """" &amp; ",  " &amp; """" &amp; F18 &amp; """" &amp; ",  " &amp; """" &amp; G18 &amp; """" &amp; ",  " &amp; """" &amp; H18 &amp; """" &amp; "});"</f>
@@ -2331,7 +2329,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2358,17 +2356,17 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="str">
@@ -2378,24 +2376,24 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="I3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2404,26 +2402,26 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="I4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2432,26 +2430,26 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="I5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2460,26 +2458,26 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="I6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2488,24 +2486,24 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2514,22 +2512,22 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="I8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2538,22 +2536,22 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2562,24 +2560,24 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2588,22 +2586,22 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2656,7 +2654,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2683,17 +2681,17 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="str">
@@ -2703,24 +2701,24 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="I3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2729,26 +2727,26 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="I4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2757,26 +2755,26 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="I5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2785,26 +2783,26 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="I6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2813,24 +2811,24 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2839,22 +2837,22 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="I8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2863,22 +2861,22 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2887,24 +2885,24 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="I10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2913,22 +2911,22 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2984,7 +2982,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2996,7 +2994,7 @@
         <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -3011,10 +3009,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3022,7 +3020,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I2" s="1" t="str">
         <f t="shared" ref="I2:I7" si="0">"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
@@ -3031,20 +3029,20 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>329</v>
       </c>
       <c r="I3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3053,20 +3051,20 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="I4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3075,20 +3073,20 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="I5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3097,20 +3095,20 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3119,20 +3117,20 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="I7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3175,7 +3173,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3187,7 +3185,7 @@
         <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -3202,20 +3200,20 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I2" s="1" t="str">
         <f t="shared" ref="I2:I36" si="0">"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
@@ -3224,22 +3222,22 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3248,26 +3246,26 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="I4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3276,26 +3274,26 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="I5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3304,26 +3302,26 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="I6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3332,26 +3330,26 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="I7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3360,26 +3358,26 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="I8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3388,26 +3386,26 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>352</v>
       </c>
       <c r="I9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3416,22 +3414,22 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3440,20 +3438,20 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>357</v>
       </c>
       <c r="I11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3462,20 +3460,20 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="I12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3484,26 +3482,26 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="I13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3512,22 +3510,22 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>362</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3536,22 +3534,22 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3560,24 +3558,24 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="I16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3586,26 +3584,26 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="I17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3614,24 +3612,24 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>374</v>
       </c>
       <c r="I18" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3640,26 +3638,26 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>376</v>
       </c>
       <c r="I19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3668,24 +3666,24 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="I20" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3694,26 +3692,26 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="I21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3722,24 +3720,24 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>384</v>
       </c>
       <c r="I22" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3748,26 +3746,26 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D23" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="I23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3776,24 +3774,24 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="I24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3802,22 +3800,22 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I25" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3826,20 +3824,20 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I26" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3848,26 +3846,26 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="I27" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3876,20 +3874,20 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>398</v>
       </c>
       <c r="I28" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3898,22 +3896,22 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>400</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I29" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3922,20 +3920,20 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I30" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3944,10 +3942,10 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -3956,10 +3954,10 @@
         <v>13</v>
       </c>
       <c r="G31" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>404</v>
       </c>
       <c r="I31" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3968,20 +3966,20 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I32" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3990,26 +3988,26 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G33" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>407</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="I33" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4018,16 +4016,16 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
@@ -4035,7 +4033,7 @@
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I34" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4044,20 +4042,20 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I35" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4066,10 +4064,10 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -4077,7 +4075,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I36" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4134,7 +4132,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4160,20 +4158,20 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>413</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>414</v>
       </c>
       <c r="I2" s="2" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
@@ -4182,7 +4180,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -4192,10 +4190,10 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>416</v>
       </c>
       <c r="I3" s="2" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A3 &amp; """" &amp; ",  " &amp; """" &amp; B3 &amp; """" &amp; ",  " &amp; """" &amp; C3 &amp; """" &amp; ",  " &amp; """" &amp; D3 &amp;  """" &amp;  ",  " &amp; """" &amp; E3 &amp; """" &amp; ",  " &amp; """" &amp; F3 &amp; """" &amp; ",  " &amp; """" &amp; G3 &amp; """" &amp; ",  " &amp; """" &amp; H3 &amp; """" &amp; "});"</f>
@@ -4204,20 +4202,20 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>417</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>418</v>
       </c>
       <c r="I4" s="2" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A4 &amp; """" &amp; ",  " &amp; """" &amp; B4 &amp; """" &amp; ",  " &amp; """" &amp; C4 &amp; """" &amp; ",  " &amp; """" &amp; D4 &amp;  """" &amp;  ",  " &amp; """" &amp; E4 &amp; """" &amp; ",  " &amp; """" &amp; F4 &amp; """" &amp; ",  " &amp; """" &amp; G4 &amp; """" &amp; ",  " &amp; """" &amp; H4 &amp; """" &amp; "});"</f>
@@ -4255,7 +4253,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4281,16 +4279,16 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>413</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>414</v>
       </c>
       <c r="I2" s="2" t="str">
         <f t="shared" ref="I2:I18" si="0">"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
@@ -4299,16 +4297,16 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>420</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4317,19 +4315,19 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>422</v>
       </c>
       <c r="I4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4338,19 +4336,19 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>424</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>425</v>
       </c>
       <c r="I5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4359,19 +4357,19 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>427</v>
       </c>
       <c r="I6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4380,22 +4378,22 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4404,26 +4402,26 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>432</v>
       </c>
       <c r="I8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4432,20 +4430,20 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F9" s="3"/>
       <c r="H9" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4454,20 +4452,20 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F10" s="3"/>
       <c r="H10" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4476,20 +4474,20 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F11" s="3"/>
       <c r="H11" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I11" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4498,20 +4496,20 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F12" s="3"/>
       <c r="H12" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I12" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4520,20 +4518,20 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F13" s="3"/>
       <c r="H13" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I13" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4542,20 +4540,20 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F14" s="3"/>
       <c r="H14" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I14" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4564,26 +4562,26 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="I15" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4592,21 +4590,21 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="H16" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I16" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4615,20 +4613,20 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="I17" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4637,20 +4635,20 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I18" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4693,7 +4691,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4705,7 +4703,7 @@
         <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -4720,10 +4718,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -4731,7 +4729,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I2" s="1" t="str">
         <f t="shared" ref="I2:I7" si="0">"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
@@ -4740,20 +4738,20 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="I3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4762,20 +4760,20 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="I4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4784,20 +4782,20 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="I5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4806,20 +4804,20 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="I6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4828,20 +4826,20 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="I7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4939,7 +4937,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4951,7 +4949,7 @@
         <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -4966,20 +4964,20 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="I2" s="1" t="str">
         <f t="shared" ref="I2:I29" si="0">"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
@@ -4988,22 +4986,22 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="I3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5012,10 +5010,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -5030,22 +5028,22 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5054,26 +5052,26 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="I6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5082,22 +5080,22 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5106,26 +5104,26 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="I8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5134,26 +5132,26 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="I9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5162,26 +5160,26 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="I10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5190,26 +5188,26 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="I11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5218,26 +5216,26 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="I12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5246,26 +5244,26 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="I13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5274,26 +5272,26 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="I14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5302,26 +5300,26 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="I15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5330,24 +5328,24 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5356,26 +5354,26 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="I17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5384,26 +5382,26 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="I18" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5412,26 +5410,26 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="I19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5440,26 +5438,26 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D20" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="I20" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5468,26 +5466,26 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="I21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5496,26 +5494,26 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="I22" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5524,26 +5522,26 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D23" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="I23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5552,26 +5550,26 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D24" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="I24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5580,26 +5578,26 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="I25" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5608,26 +5606,26 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D26" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="I26" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5636,26 +5634,26 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D27" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="I27" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5664,26 +5662,26 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D28" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="I28" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5692,26 +5690,26 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D29" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="I29" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5720,26 +5718,26 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="C30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="E30" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="I30" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A6 &amp; """" &amp; ",  " &amp; """" &amp; B6 &amp; """" &amp; ",  " &amp; """" &amp; C6 &amp; """" &amp; ",  " &amp; """" &amp; D6 &amp;  """" &amp;  ",  " &amp; """" &amp; E30 &amp; """" &amp; ",  " &amp; """" &amp; F30 &amp; """" &amp; ",  " &amp; """" &amp; G30 &amp; """" &amp; ",  " &amp; """" &amp; H30 &amp; """" &amp; "});"</f>
@@ -5748,22 +5746,22 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I31" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A7 &amp; """" &amp; ",  " &amp; """" &amp; B7 &amp; """" &amp; ",  " &amp; """" &amp; C7 &amp; """" &amp; ",  " &amp; """" &amp; D7 &amp;  """" &amp;  ",  " &amp; """" &amp; E31 &amp; """" &amp; ",  " &amp; """" &amp; F31 &amp; """" &amp; ",  " &amp; """" &amp; G31 &amp; """" &amp; ",  " &amp; """" &amp; H31 &amp; """" &amp; "});"</f>
@@ -5772,76 +5770,76 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D32" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D33" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="I34" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A34 &amp; """" &amp; ",  " &amp; """" &amp; B34 &amp; """" &amp; ",  " &amp; """" &amp; C34 &amp; """" &amp; ",  " &amp; """" &amp; D34 &amp;  """" &amp;  ",  " &amp; """" &amp; E34 &amp; """" &amp; ",  " &amp; """" &amp; F34 &amp; """" &amp; ",  " &amp; """" &amp; G34 &amp; """" &amp; ",  " &amp; """" &amp; H34 &amp; """" &amp; "});"</f>
@@ -5850,22 +5848,22 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I35" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A35 &amp; """" &amp; ",  " &amp; """" &amp; B35 &amp; """" &amp; ",  " &amp; """" &amp; C35 &amp; """" &amp; ",  " &amp; """" &amp; D35 &amp;  """" &amp;  ",  " &amp; """" &amp; E35 &amp; """" &amp; ",  " &amp; """" &amp; F35 &amp; """" &amp; ",  " &amp; """" &amp; G35 &amp; """" &amp; ",  " &amp; """" &amp; H35 &amp; """" &amp; "});"</f>
@@ -5922,7 +5920,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -5934,7 +5932,7 @@
         <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -5949,39 +5947,39 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="I3" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A3 &amp; """" &amp; ",  " &amp; """" &amp; B3 &amp; """" &amp; ",  " &amp; """" &amp; C3 &amp; """" &amp; ",  " &amp; """" &amp; D3 &amp;  """" &amp;  ",  " &amp; """" &amp; E3 &amp; """" &amp; ",  " &amp; """" &amp; F3 &amp; """" &amp; ",  " &amp; """" &amp; G3 &amp; """" &amp; ",  " &amp; """" &amp; H3 &amp; """" &amp; "});"</f>
@@ -5990,39 +5988,39 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="I5" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A5 &amp; """" &amp; ",  " &amp; """" &amp; B5 &amp; """" &amp; ",  " &amp; """" &amp; C5 &amp; """" &amp; ",  " &amp; """" &amp; D5 &amp;  """" &amp;  ",  " &amp; """" &amp; E5 &amp; """" &amp; ",  " &amp; """" &amp; F5 &amp; """" &amp; ",  " &amp; """" &amp; G5 &amp; """" &amp; ",  " &amp; """" &amp; H5 &amp; """" &amp; "});"</f>
@@ -6031,39 +6029,39 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="I7" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A7 &amp; """" &amp; ",  " &amp; """" &amp; B7 &amp; """" &amp; ",  " &amp; """" &amp; C7 &amp; """" &amp; ",  " &amp; """" &amp; D7 &amp;  """" &amp;  ",  " &amp; """" &amp; E7 &amp; """" &amp; ",  " &amp; """" &amp; F7 &amp; """" &amp; ",  " &amp; """" &amp; G7 &amp; """" &amp; ",  " &amp; """" &amp; H7 &amp; """" &amp; "});"</f>
@@ -6072,39 +6070,39 @@
     </row>
     <row r="8" spans="1:9" ht="37.5" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="I9" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A9 &amp; """" &amp; ",  " &amp; """" &amp; B9 &amp; """" &amp; ",  " &amp; """" &amp; C9 &amp; """" &amp; ",  " &amp; """" &amp; D9 &amp;  """" &amp;  ",  " &amp; """" &amp; E9 &amp; """" &amp; ",  " &amp; """" &amp; F9 &amp; """" &amp; ",  " &amp; """" &amp; G9 &amp; """" &amp; ",  " &amp; """" &amp; H9 &amp; """" &amp; "});"</f>
@@ -6113,39 +6111,39 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="I11" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A11 &amp; """" &amp; ",  " &amp; """" &amp; B11 &amp; """" &amp; ",  " &amp; """" &amp; C11 &amp; """" &amp; ",  " &amp; """" &amp; D11 &amp;  """" &amp;  ",  " &amp; """" &amp; E11 &amp; """" &amp; ",  " &amp; """" &amp; F11 &amp; """" &amp; ",  " &amp; """" &amp; G11 &amp; """" &amp; ",  " &amp; """" &amp; H11 &amp; """" &amp; "});"</f>
@@ -6154,39 +6152,39 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="I13" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A13 &amp; """" &amp; ",  " &amp; """" &amp; B13 &amp; """" &amp; ",  " &amp; """" &amp; C13 &amp; """" &amp; ",  " &amp; """" &amp; D13 &amp;  """" &amp;  ",  " &amp; """" &amp; E13 &amp; """" &amp; ",  " &amp; """" &amp; F13 &amp; """" &amp; ",  " &amp; """" &amp; G13 &amp; """" &amp; ",  " &amp; """" &amp; H13 &amp; """" &amp; "});"</f>
@@ -6195,39 +6193,39 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="I15" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A15 &amp; """" &amp; ",  " &amp; """" &amp; B15 &amp; """" &amp; ",  " &amp; """" &amp; C15 &amp; """" &amp; ",  " &amp; """" &amp; D15 &amp;  """" &amp;  ",  " &amp; """" &amp; E15 &amp; """" &amp; ",  " &amp; """" &amp; F15 &amp; """" &amp; ",  " &amp; """" &amp; G15 &amp; """" &amp; ",  " &amp; """" &amp; H15 &amp; """" &amp; "});"</f>
@@ -6236,39 +6234,39 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="I17" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A17 &amp; """" &amp; ",  " &amp; """" &amp; B17 &amp; """" &amp; ",  " &amp; """" &amp; C17 &amp; """" &amp; ",  " &amp; """" &amp; D17 &amp;  """" &amp;  ",  " &amp; """" &amp; E17 &amp; """" &amp; ",  " &amp; """" &amp; F17 &amp; """" &amp; ",  " &amp; """" &amp; G17 &amp; """" &amp; ",  " &amp; """" &amp; H17 &amp; """" &amp; "});"</f>
@@ -6277,39 +6275,39 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="I19" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A19 &amp; """" &amp; ",  " &amp; """" &amp; B19 &amp; """" &amp; ",  " &amp; """" &amp; C19 &amp; """" &amp; ",  " &amp; """" &amp; D19 &amp;  """" &amp;  ",  " &amp; """" &amp; E19 &amp; """" &amp; ",  " &amp; """" &amp; F19 &amp; """" &amp; ",  " &amp; """" &amp; G19 &amp; """" &amp; ",  " &amp; """" &amp; H19 &amp; """" &amp; "});"</f>
@@ -6318,39 +6316,39 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="I21" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A21 &amp; """" &amp; ",  " &amp; """" &amp; B21 &amp; """" &amp; ",  " &amp; """" &amp; C21 &amp; """" &amp; ",  " &amp; """" &amp; D21 &amp;  """" &amp;  ",  " &amp; """" &amp; E21 &amp; """" &amp; ",  " &amp; """" &amp; F21 &amp; """" &amp; ",  " &amp; """" &amp; G21 &amp; """" &amp; ",  " &amp; """" &amp; H21 &amp; """" &amp; "});"</f>
@@ -6359,39 +6357,39 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="I23" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A23 &amp; """" &amp; ",  " &amp; """" &amp; B23 &amp; """" &amp; ",  " &amp; """" &amp; C23 &amp; """" &amp; ",  " &amp; """" &amp; D23 &amp;  """" &amp;  ",  " &amp; """" &amp; E23 &amp; """" &amp; ",  " &amp; """" &amp; F23 &amp; """" &amp; ",  " &amp; """" &amp; G23 &amp; """" &amp; ",  " &amp; """" &amp; H23 &amp; """" &amp; "});"</f>
@@ -6400,39 +6398,39 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="I25" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A25 &amp; """" &amp; ",  " &amp; """" &amp; B25 &amp; """" &amp; ",  " &amp; """" &amp; C25 &amp; """" &amp; ",  " &amp; """" &amp; D25 &amp;  """" &amp;  ",  " &amp; """" &amp; E25 &amp; """" &amp; ",  " &amp; """" &amp; F25 &amp; """" &amp; ",  " &amp; """" &amp; G25 &amp; """" &amp; ",  " &amp; """" &amp; H25 &amp; """" &amp; "});"</f>
@@ -6441,39 +6439,39 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="I27" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A27 &amp; """" &amp; ",  " &amp; """" &amp; B27 &amp; """" &amp; ",  " &amp; """" &amp; C27 &amp; """" &amp; ",  " &amp; """" &amp; D27 &amp;  """" &amp;  ",  " &amp; """" &amp; E27 &amp; """" &amp; ",  " &amp; """" &amp; F27 &amp; """" &amp; ",  " &amp; """" &amp; G27 &amp; """" &amp; ",  " &amp; """" &amp; H27 &amp; """" &amp; "});"</f>
@@ -6482,39 +6480,39 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="I29" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A29 &amp; """" &amp; ",  " &amp; """" &amp; B29 &amp; """" &amp; ",  " &amp; """" &amp; C29 &amp; """" &amp; ",  " &amp; """" &amp; D29 &amp;  """" &amp;  ",  " &amp; """" &amp; E29 &amp; """" &amp; ",  " &amp; """" &amp; F29 &amp; """" &amp; ",  " &amp; """" &amp; G29 &amp; """" &amp; ",  " &amp; """" &amp; H29 &amp; """" &amp; "});"</f>
@@ -6523,39 +6521,39 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="I31" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A31 &amp; """" &amp; ",  " &amp; """" &amp; B31 &amp; """" &amp; ",  " &amp; """" &amp; C31 &amp; """" &amp; ",  " &amp; """" &amp; D31 &amp;  """" &amp;  ",  " &amp; """" &amp; E31 &amp; """" &amp; ",  " &amp; """" &amp; F31 &amp; """" &amp; ",  " &amp; """" &amp; G31 &amp; """" &amp; ",  " &amp; """" &amp; H31 &amp; """" &amp; "});"</f>
@@ -6564,39 +6562,39 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="I33" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A33 &amp; """" &amp; ",  " &amp; """" &amp; B33 &amp; """" &amp; ",  " &amp; """" &amp; C33 &amp; """" &amp; ",  " &amp; """" &amp; D33 &amp;  """" &amp;  ",  " &amp; """" &amp; E33 &amp; """" &amp; ",  " &amp; """" &amp; F33 &amp; """" &amp; ",  " &amp; """" &amp; G33 &amp; """" &amp; ",  " &amp; """" &amp; H33 &amp; """" &amp; "});"</f>
@@ -6605,39 +6603,39 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="I35" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A35 &amp; """" &amp; ",  " &amp; """" &amp; B35 &amp; """" &amp; ",  " &amp; """" &amp; C35 &amp; """" &amp; ",  " &amp; """" &amp; D35 &amp;  """" &amp;  ",  " &amp; """" &amp; E35 &amp; """" &amp; ",  " &amp; """" &amp; F35 &amp; """" &amp; ",  " &amp; """" &amp; G35 &amp; """" &amp; ",  " &amp; """" &amp; H35 &amp; """" &amp; "});"</f>
@@ -6687,7 +6685,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -6699,7 +6697,7 @@
         <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -6714,24 +6712,24 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="I2" s="1" t="str">
         <f t="shared" ref="I2:I9" si="0">"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
@@ -6740,24 +6738,24 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6766,24 +6764,24 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6792,22 +6790,22 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="I5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6816,20 +6814,20 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="I6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6838,26 +6836,26 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="I7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6866,24 +6864,24 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6892,22 +6890,22 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="I9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6957,7 +6955,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -6969,7 +6967,7 @@
         <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -6984,24 +6982,24 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="I2" s="1" t="str">
         <f t="shared" ref="I2:I7" si="0">"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
@@ -7010,24 +7008,24 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7036,24 +7034,24 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7062,22 +7060,22 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="I5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7086,20 +7084,20 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="I6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7108,26 +7106,26 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="I7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7197,7 +7195,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -7209,7 +7207,7 @@
         <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -7224,17 +7222,17 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="str">
@@ -7244,20 +7242,20 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I3" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A3 &amp; """" &amp; ",  " &amp; """" &amp; B3 &amp; """" &amp; ",  " &amp; """" &amp; C3 &amp; """" &amp; ",  " &amp; """" &amp; D3 &amp;  """" &amp;  ",  " &amp; """" &amp; E3 &amp; """" &amp; ",  " &amp; """" &amp; F3 &amp; """" &amp; ",  " &amp; """" &amp; G3 &amp; """" &amp; ",  " &amp; """" &amp; H3 &amp; """" &amp; "});"</f>
@@ -7266,24 +7264,24 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="I4" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A4 &amp; """" &amp; ",  " &amp; """" &amp; B4 &amp; """" &amp; ",  " &amp; """" &amp; C4 &amp; """" &amp; ",  " &amp; """" &amp; D4 &amp;  """" &amp;  ",  " &amp; """" &amp; E4 &amp; """" &amp; ",  " &amp; """" &amp; F4 &amp; """" &amp; ",  " &amp; """" &amp; G4 &amp; """" &amp; ",  " &amp; """" &amp; H4 &amp; """" &amp; "});"</f>
@@ -7292,24 +7290,24 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="I5" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A5 &amp; """" &amp; ",  " &amp; """" &amp; B5 &amp; """" &amp; ",  " &amp; """" &amp; C5 &amp; """" &amp; ",  " &amp; """" &amp; D5 &amp;  """" &amp;  ",  " &amp; """" &amp; E5 &amp; """" &amp; ",  " &amp; """" &amp; F5 &amp; """" &amp; ",  " &amp; """" &amp; G5 &amp; """" &amp; ",  " &amp; """" &amp; H5 &amp; """" &amp; "});"</f>
@@ -7318,24 +7316,24 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="I6" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A6 &amp; """" &amp; ",  " &amp; """" &amp; B6 &amp; """" &amp; ",  " &amp; """" &amp; C6 &amp; """" &amp; ",  " &amp; """" &amp; D6 &amp;  """" &amp;  ",  " &amp; """" &amp; E6 &amp; """" &amp; ",  " &amp; """" &amp; F6 &amp; """" &amp; ",  " &amp; """" &amp; G6 &amp; """" &amp; ",  " &amp; """" &amp; H6 &amp; """" &amp; "});"</f>
@@ -7344,24 +7342,24 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="I7" s="1" t="str">
         <f t="shared" ref="I7:I20" si="0">"list.add(new String[] {" &amp; """" &amp; A7 &amp; """" &amp; ",  " &amp; """" &amp; B7 &amp; """" &amp; ",  " &amp; """" &amp; C7 &amp; """" &amp; ",  " &amp; """" &amp; D7 &amp;  """" &amp;  ",  " &amp; """" &amp; E7 &amp; """" &amp; ",  " &amp; """" &amp; F7 &amp; """" &amp; ",  " &amp; """" &amp; G7 &amp; """" &amp; ",  " &amp; """" &amp; H7 &amp; """" &amp; "});"</f>
@@ -7370,24 +7368,24 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="I8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7396,24 +7394,24 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="I9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7422,24 +7420,24 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="I10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7448,24 +7446,24 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="I11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7474,24 +7472,24 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="I12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7500,24 +7498,24 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7526,24 +7524,24 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="I14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7552,24 +7550,24 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7578,24 +7576,24 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7604,24 +7602,24 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7630,24 +7628,24 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="I18" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7656,24 +7654,24 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="I19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7682,24 +7680,24 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="D20" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="I20" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7708,22 +7706,22 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="I21" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A21 &amp; """" &amp; ",  " &amp; """" &amp; B21 &amp; """" &amp; ",  " &amp; """" &amp; C21 &amp; """" &amp; ",  " &amp; """" &amp; D21 &amp;  """" &amp;  ",  " &amp; """" &amp; E21 &amp; """" &amp; ",  " &amp; """" &amp; F21 &amp; """" &amp; ",  " &amp; """" &amp; G21 &amp; """" &amp; ",  " &amp; """" &amp; H21 &amp; """" &amp; "});"</f>
@@ -7732,20 +7730,20 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="I22" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A22 &amp; """" &amp; ",  " &amp; """" &amp; B22 &amp; """" &amp; ",  " &amp; """" &amp; C22 &amp; """" &amp; ",  " &amp; """" &amp; D22 &amp;  """" &amp;  ",  " &amp; """" &amp; E22 &amp; """" &amp; ",  " &amp; """" &amp; F22 &amp; """" &amp; ",  " &amp; """" &amp; G22 &amp; """" &amp; ",  " &amp; """" &amp; H22 &amp; """" &amp; "});"</f>
@@ -7822,7 +7820,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -7850,20 +7848,20 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="I2" t="str">
         <f t="shared" ref="I2:I20" si="0">"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
@@ -7872,22 +7870,22 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="I3" t="str">
         <f t="shared" si="0"/>
@@ -7896,22 +7894,22 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="0"/>
@@ -7920,22 +7918,22 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="0"/>
@@ -7944,22 +7942,22 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="0"/>
@@ -7968,22 +7966,22 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="0"/>
@@ -7992,22 +7990,22 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="0"/>
@@ -8016,22 +8014,22 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="0"/>
@@ -8040,22 +8038,22 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="0"/>
@@ -8064,22 +8062,22 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="0"/>
@@ -8088,22 +8086,22 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="0"/>
@@ -8112,22 +8110,22 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="0"/>
@@ -8136,22 +8134,22 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="0"/>
@@ -8160,22 +8158,22 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="0"/>
@@ -8184,22 +8182,22 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="0"/>
@@ -8208,22 +8206,22 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="0"/>
@@ -8232,22 +8230,22 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="0"/>
@@ -8256,22 +8254,22 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="0"/>
@@ -8280,22 +8278,22 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="0"/>
@@ -8338,7 +8336,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -8365,20 +8363,20 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="I2" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
@@ -8387,22 +8385,22 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I3" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A3 &amp; """" &amp; ",  " &amp; """" &amp; B3 &amp; """" &amp; ",  " &amp; """" &amp; C3 &amp; """" &amp; ",  " &amp; """" &amp; D3 &amp;  """" &amp;  ",  " &amp; """" &amp; E3 &amp; """" &amp; ",  " &amp; """" &amp; F3 &amp; """" &amp; ",  " &amp; """" &amp; G3 &amp; """" &amp; ",  " &amp; """" &amp; H3 &amp; """" &amp; "});"</f>
@@ -8411,26 +8409,26 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" t="s">
         <v>295</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I4" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A4 &amp; """" &amp; ",  " &amp; """" &amp; B4 &amp; """" &amp; ",  " &amp; """" &amp; C4 &amp; """" &amp; ",  " &amp; """" &amp; D4 &amp;  """" &amp;  ",  " &amp; """" &amp; E4 &amp; """" &amp; ",  " &amp; """" &amp; F4 &amp; """" &amp; ",  " &amp; """" &amp; G4 &amp; """" &amp; ",  " &amp; """" &amp; H4 &amp; """" &amp; "});"</f>

--- a/data/Demo.xlsx
+++ b/data/Demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="405" yWindow="210" windowWidth="23055" windowHeight="10950"/>
+    <workbookView xWindow="405" yWindow="210" windowWidth="23055" windowHeight="10950" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Root" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>Active</t>
   </si>
   <si>
-    <t>Data</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -1146,9 +1143,6 @@
     <t>Value={FirstName};CompareMode=Equal</t>
   </si>
   <si>
-    <t>Verify that data entere id First Name ({FirstName}) is still there</t>
-  </si>
-  <si>
     <t>last_name</t>
   </si>
   <si>
@@ -1426,6 +1420,12 @@
   </si>
   <si>
     <t>InputSpecs=File!Demo.txt;ptp=QSU</t>
+  </si>
+  <si>
+    <t>Params</t>
+  </si>
+  <si>
+    <t>Verify that Params entere id First Name ({FirstName}) is still there</t>
   </si>
 </sst>
 </file>
@@ -1819,8 +1819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1833,16 +1833,16 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -1851,28 +1851,28 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="I2" s="1" t="str">
         <f t="shared" ref="I2:I14" si="0">"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
@@ -1881,22 +1881,22 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="I3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1905,22 +1905,22 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1929,20 +1929,20 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1951,22 +1951,22 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="I6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1975,22 +1975,22 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="I7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1999,22 +1999,22 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="I8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2023,22 +2023,22 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="I9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2047,22 +2047,22 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="I10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2071,22 +2071,22 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2095,20 +2095,20 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="I12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2117,20 +2117,20 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="I13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2139,22 +2139,22 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="I14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2163,20 +2163,20 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I15" s="1" t="str">
         <f t="shared" ref="I15:I16" si="1">"list.add(new String[] {" &amp; """" &amp; A15 &amp; """" &amp; ",  " &amp; """" &amp; B15 &amp; """" &amp; ",  " &amp; """" &amp; C15 &amp; """" &amp; ",  " &amp; """" &amp; D15 &amp;  """" &amp;  ",  " &amp; """" &amp; E15 &amp; """" &amp; ",  " &amp; """" &amp; F15 &amp; """" &amp; ",  " &amp; """" &amp; G15 &amp; """" &amp; ",  " &amp; """" &amp; H15 &amp; """" &amp; "});"</f>
@@ -2185,20 +2185,20 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I16" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2207,20 +2207,20 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I17" s="1" t="str">
         <f t="shared" ref="I17" si="2">"list.add(new String[] {" &amp; """" &amp; A17 &amp; """" &amp; ",  " &amp; """" &amp; B17 &amp; """" &amp; ",  " &amp; """" &amp; C17 &amp; """" &amp; ",  " &amp; """" &amp; D17 &amp;  """" &amp;  ",  " &amp; """" &amp; E17 &amp; """" &amp; ",  " &amp; """" &amp; F17 &amp; """" &amp; ",  " &amp; """" &amp; G17 &amp; """" &amp; ",  " &amp; """" &amp; H17 &amp; """" &amp; "});"</f>
@@ -2229,20 +2229,20 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I18" s="1" t="str">
         <f t="shared" ref="I18" si="3">"list.add(new String[] {" &amp; """" &amp; A18 &amp; """" &amp; ",  " &amp; """" &amp; B18 &amp; """" &amp; ",  " &amp; """" &amp; C18 &amp; """" &amp; ",  " &amp; """" &amp; D18 &amp;  """" &amp;  ",  " &amp; """" &amp; E18 &amp; """" &amp; ",  " &amp; """" &amp; F18 &amp; """" &amp; ",  " &amp; """" &amp; G18 &amp; """" &amp; ",  " &amp; """" &amp; H18 &amp; """" &amp; "});"</f>
@@ -2313,7 +2313,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2329,16 +2329,16 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -2347,26 +2347,26 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="str">
@@ -2376,24 +2376,24 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>301</v>
       </c>
       <c r="I3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2402,26 +2402,26 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="I4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2430,26 +2430,26 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="I5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2458,26 +2458,26 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>310</v>
       </c>
       <c r="I6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2486,24 +2486,24 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2512,22 +2512,22 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>314</v>
       </c>
       <c r="I8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2536,22 +2536,22 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2560,24 +2560,24 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>317</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2586,22 +2586,22 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2644,7 +2644,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A11"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2654,16 +2654,16 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -2672,26 +2672,26 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="str">
@@ -2701,24 +2701,24 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>301</v>
       </c>
       <c r="I3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2727,26 +2727,26 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="I4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2755,26 +2755,26 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="I5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2783,26 +2783,26 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>310</v>
       </c>
       <c r="I6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2811,24 +2811,24 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2837,22 +2837,22 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>314</v>
       </c>
       <c r="I8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2861,22 +2861,22 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2885,24 +2885,24 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>317</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>319</v>
       </c>
       <c r="I10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2911,22 +2911,22 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2969,7 +2969,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I7"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2982,16 +2982,16 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -3000,19 +3000,19 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3020,7 +3020,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I2" s="1" t="str">
         <f t="shared" ref="I2:I7" si="0">"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
@@ -3029,20 +3029,20 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="I3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3051,20 +3051,20 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="I4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3073,20 +3073,20 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="I5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3095,20 +3095,20 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3117,20 +3117,20 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="I7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3157,7 +3157,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3173,16 +3173,16 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -3191,29 +3191,29 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I2" s="1" t="str">
         <f t="shared" ref="I2:I36" si="0">"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
@@ -3222,22 +3222,22 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3246,26 +3246,26 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="I4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3274,26 +3274,26 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>342</v>
       </c>
       <c r="I5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3302,26 +3302,26 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="I6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3330,26 +3330,26 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="I7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3358,26 +3358,26 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>349</v>
       </c>
       <c r="I8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3386,26 +3386,26 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="I9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3414,22 +3414,22 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3438,20 +3438,20 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="I11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3460,20 +3460,20 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>358</v>
       </c>
       <c r="I12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3482,26 +3482,26 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>349</v>
       </c>
       <c r="I13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3510,22 +3510,22 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>361</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3534,22 +3534,22 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>364</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3558,24 +3558,24 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="I16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3584,52 +3584,52 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>370</v>
+        <v>463</v>
       </c>
       <c r="I17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"AirTimeJob#",  "verifyWebElement",  "id",  "first_name",  "getText",  "",  "Value={FirstName};CompareMode=Equal",  "Verify that data entere id First Name ({FirstName}) is still there"});</v>
+        <v>list.add(new String[] {"AirTimeJob#",  "verifyWebElement",  "id",  "first_name",  "getText",  "",  "Value={FirstName};CompareMode=Equal",  "Verify that Params entere id First Name ({FirstName}) is still there"});</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I18" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3638,26 +3638,26 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3666,24 +3666,24 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I20" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3692,26 +3692,26 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3720,24 +3720,24 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I22" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3746,26 +3746,26 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D23" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3774,24 +3774,24 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="I24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3800,22 +3800,22 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I25" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3824,20 +3824,20 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I26" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3846,26 +3846,26 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I27" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3874,20 +3874,20 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I28" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3896,22 +3896,22 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I29" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3920,20 +3920,20 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="I30" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3942,22 +3942,22 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I31" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3966,20 +3966,20 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I32" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3988,26 +3988,26 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I33" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4016,24 +4016,24 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I34" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4042,20 +4042,20 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I35" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4064,10 +4064,10 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -4075,7 +4075,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="I36" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4125,23 +4125,23 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I4"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -4150,28 +4150,28 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="I2" s="2" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
@@ -4180,20 +4180,20 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I3" s="2" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A3 &amp; """" &amp; ",  " &amp; """" &amp; B3 &amp; """" &amp; ",  " &amp; """" &amp; C3 &amp; """" &amp; ",  " &amp; """" &amp; D3 &amp;  """" &amp;  ",  " &amp; """" &amp; E3 &amp; """" &amp; ",  " &amp; """" &amp; F3 &amp; """" &amp; ",  " &amp; """" &amp; G3 &amp; """" &amp; ",  " &amp; """" &amp; H3 &amp; """" &amp; "});"</f>
@@ -4202,20 +4202,20 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="I4" s="2" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A4 &amp; """" &amp; ",  " &amp; """" &amp; B4 &amp; """" &amp; ",  " &amp; """" &amp; C4 &amp; """" &amp; ",  " &amp; """" &amp; D4 &amp;  """" &amp;  ",  " &amp; """" &amp; E4 &amp; """" &amp; ",  " &amp; """" &amp; F4 &amp; """" &amp; ",  " &amp; """" &amp; G4 &amp; """" &amp; ",  " &amp; """" &amp; H4 &amp; """" &amp; "});"</f>
@@ -4246,23 +4246,23 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I18"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -4271,24 +4271,24 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="I2" s="2" t="str">
         <f t="shared" ref="I2:I18" si="0">"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
@@ -4297,16 +4297,16 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4315,19 +4315,19 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>420</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4336,19 +4336,19 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>422</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>424</v>
       </c>
       <c r="I5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4357,19 +4357,19 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="I6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4378,22 +4378,22 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4402,26 +4402,26 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="I8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4430,20 +4430,20 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F9" s="3"/>
       <c r="H9" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4452,20 +4452,20 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F10" s="3"/>
       <c r="H10" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="I10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4474,20 +4474,20 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F11" s="3"/>
       <c r="H11" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I11" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4496,20 +4496,20 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F12" s="3"/>
       <c r="H12" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I12" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4518,20 +4518,20 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F13" s="3"/>
       <c r="H13" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I13" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4540,20 +4540,20 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F14" s="3"/>
       <c r="H14" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="I14" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4562,26 +4562,26 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="I15" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4590,21 +4590,21 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="H16" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I16" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4613,20 +4613,20 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="I17" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4635,20 +4635,20 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I18" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4679,7 +4679,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4691,16 +4691,16 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -4709,19 +4709,19 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -4729,7 +4729,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I2" s="1" t="str">
         <f t="shared" ref="I2:I7" si="0">"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
@@ -4738,20 +4738,20 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="I3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4760,20 +4760,20 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="I4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4782,20 +4782,20 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="I5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4804,20 +4804,20 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="I6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4826,20 +4826,20 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="I7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4930,23 +4930,23 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I35"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -4955,29 +4955,29 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="I2" s="1" t="str">
         <f t="shared" ref="I2:I29" si="0">"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
@@ -4986,22 +4986,22 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="I3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5010,10 +5010,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -5028,22 +5028,22 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5052,26 +5052,26 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="I6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5080,22 +5080,22 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5104,26 +5104,26 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="I8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5132,26 +5132,26 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="I9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5160,26 +5160,26 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="I10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5188,26 +5188,26 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="I11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5216,26 +5216,26 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="I12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5244,26 +5244,26 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="I13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5272,26 +5272,26 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="I14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5300,26 +5300,26 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="I15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5328,24 +5328,24 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5354,26 +5354,26 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="I17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5382,26 +5382,26 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="I18" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5410,26 +5410,26 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="I19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5438,26 +5438,26 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D20" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="I20" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5466,26 +5466,26 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="I21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5494,26 +5494,26 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="I22" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5522,26 +5522,26 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D23" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="I23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5550,26 +5550,26 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D24" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="I24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5578,26 +5578,26 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="I25" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5606,26 +5606,26 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D26" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="I26" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5634,26 +5634,26 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D27" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="I27" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5662,26 +5662,26 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D28" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="I28" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5690,26 +5690,26 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D29" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="I29" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5718,26 +5718,26 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="C30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="E30" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="I30" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A6 &amp; """" &amp; ",  " &amp; """" &amp; B6 &amp; """" &amp; ",  " &amp; """" &amp; C6 &amp; """" &amp; ",  " &amp; """" &amp; D6 &amp;  """" &amp;  ",  " &amp; """" &amp; E30 &amp; """" &amp; ",  " &amp; """" &amp; F30 &amp; """" &amp; ",  " &amp; """" &amp; G30 &amp; """" &amp; ",  " &amp; """" &amp; H30 &amp; """" &amp; "});"</f>
@@ -5746,22 +5746,22 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I31" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A7 &amp; """" &amp; ",  " &amp; """" &amp; B7 &amp; """" &amp; ",  " &amp; """" &amp; C7 &amp; """" &amp; ",  " &amp; """" &amp; D7 &amp;  """" &amp;  ",  " &amp; """" &amp; E31 &amp; """" &amp; ",  " &amp; """" &amp; F31 &amp; """" &amp; ",  " &amp; """" &amp; G31 &amp; """" &amp; ",  " &amp; """" &amp; H31 &amp; """" &amp; "});"</f>
@@ -5770,76 +5770,76 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D32" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D33" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="I34" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A34 &amp; """" &amp; ",  " &amp; """" &amp; B34 &amp; """" &amp; ",  " &amp; """" &amp; C34 &amp; """" &amp; ",  " &amp; """" &amp; D34 &amp;  """" &amp;  ",  " &amp; """" &amp; E34 &amp; """" &amp; ",  " &amp; """" &amp; F34 &amp; """" &amp; ",  " &amp; """" &amp; G34 &amp; """" &amp; ",  " &amp; """" &amp; H34 &amp; """" &amp; "});"</f>
@@ -5848,22 +5848,22 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I35" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A35 &amp; """" &amp; ",  " &amp; """" &amp; B35 &amp; """" &amp; ",  " &amp; """" &amp; C35 &amp; """" &amp; ",  " &amp; """" &amp; D35 &amp;  """" &amp;  ",  " &amp; """" &amp; E35 &amp; """" &amp; ",  " &amp; """" &amp; F35 &amp; """" &amp; ",  " &amp; """" &amp; G35 &amp; """" &amp; ",  " &amp; """" &amp; H35 &amp; """" &amp; "});"</f>
@@ -5909,8 +5909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5920,16 +5920,16 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -5938,48 +5938,48 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="I3" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A3 &amp; """" &amp; ",  " &amp; """" &amp; B3 &amp; """" &amp; ",  " &amp; """" &amp; C3 &amp; """" &amp; ",  " &amp; """" &amp; D3 &amp;  """" &amp;  ",  " &amp; """" &amp; E3 &amp; """" &amp; ",  " &amp; """" &amp; F3 &amp; """" &amp; ",  " &amp; """" &amp; G3 &amp; """" &amp; ",  " &amp; """" &amp; H3 &amp; """" &amp; "});"</f>
@@ -5988,39 +5988,39 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="I5" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A5 &amp; """" &amp; ",  " &amp; """" &amp; B5 &amp; """" &amp; ",  " &amp; """" &amp; C5 &amp; """" &amp; ",  " &amp; """" &amp; D5 &amp;  """" &amp;  ",  " &amp; """" &amp; E5 &amp; """" &amp; ",  " &amp; """" &amp; F5 &amp; """" &amp; ",  " &amp; """" &amp; G5 &amp; """" &amp; ",  " &amp; """" &amp; H5 &amp; """" &amp; "});"</f>
@@ -6029,39 +6029,39 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="I7" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A7 &amp; """" &amp; ",  " &amp; """" &amp; B7 &amp; """" &amp; ",  " &amp; """" &amp; C7 &amp; """" &amp; ",  " &amp; """" &amp; D7 &amp;  """" &amp;  ",  " &amp; """" &amp; E7 &amp; """" &amp; ",  " &amp; """" &amp; F7 &amp; """" &amp; ",  " &amp; """" &amp; G7 &amp; """" &amp; ",  " &amp; """" &amp; H7 &amp; """" &amp; "});"</f>
@@ -6070,39 +6070,39 @@
     </row>
     <row r="8" spans="1:9" ht="37.5" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="I9" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A9 &amp; """" &amp; ",  " &amp; """" &amp; B9 &amp; """" &amp; ",  " &amp; """" &amp; C9 &amp; """" &amp; ",  " &amp; """" &amp; D9 &amp;  """" &amp;  ",  " &amp; """" &amp; E9 &amp; """" &amp; ",  " &amp; """" &amp; F9 &amp; """" &amp; ",  " &amp; """" &amp; G9 &amp; """" &amp; ",  " &amp; """" &amp; H9 &amp; """" &amp; "});"</f>
@@ -6111,39 +6111,39 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="I11" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A11 &amp; """" &amp; ",  " &amp; """" &amp; B11 &amp; """" &amp; ",  " &amp; """" &amp; C11 &amp; """" &amp; ",  " &amp; """" &amp; D11 &amp;  """" &amp;  ",  " &amp; """" &amp; E11 &amp; """" &amp; ",  " &amp; """" &amp; F11 &amp; """" &amp; ",  " &amp; """" &amp; G11 &amp; """" &amp; ",  " &amp; """" &amp; H11 &amp; """" &amp; "});"</f>
@@ -6152,39 +6152,39 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="I13" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A13 &amp; """" &amp; ",  " &amp; """" &amp; B13 &amp; """" &amp; ",  " &amp; """" &amp; C13 &amp; """" &amp; ",  " &amp; """" &amp; D13 &amp;  """" &amp;  ",  " &amp; """" &amp; E13 &amp; """" &amp; ",  " &amp; """" &amp; F13 &amp; """" &amp; ",  " &amp; """" &amp; G13 &amp; """" &amp; ",  " &amp; """" &amp; H13 &amp; """" &amp; "});"</f>
@@ -6193,39 +6193,39 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="I15" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A15 &amp; """" &amp; ",  " &amp; """" &amp; B15 &amp; """" &amp; ",  " &amp; """" &amp; C15 &amp; """" &amp; ",  " &amp; """" &amp; D15 &amp;  """" &amp;  ",  " &amp; """" &amp; E15 &amp; """" &amp; ",  " &amp; """" &amp; F15 &amp; """" &amp; ",  " &amp; """" &amp; G15 &amp; """" &amp; ",  " &amp; """" &amp; H15 &amp; """" &amp; "});"</f>
@@ -6234,39 +6234,39 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="I17" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A17 &amp; """" &amp; ",  " &amp; """" &amp; B17 &amp; """" &amp; ",  " &amp; """" &amp; C17 &amp; """" &amp; ",  " &amp; """" &amp; D17 &amp;  """" &amp;  ",  " &amp; """" &amp; E17 &amp; """" &amp; ",  " &amp; """" &amp; F17 &amp; """" &amp; ",  " &amp; """" &amp; G17 &amp; """" &amp; ",  " &amp; """" &amp; H17 &amp; """" &amp; "});"</f>
@@ -6275,39 +6275,39 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="I19" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A19 &amp; """" &amp; ",  " &amp; """" &amp; B19 &amp; """" &amp; ",  " &amp; """" &amp; C19 &amp; """" &amp; ",  " &amp; """" &amp; D19 &amp;  """" &amp;  ",  " &amp; """" &amp; E19 &amp; """" &amp; ",  " &amp; """" &amp; F19 &amp; """" &amp; ",  " &amp; """" &amp; G19 &amp; """" &amp; ",  " &amp; """" &amp; H19 &amp; """" &amp; "});"</f>
@@ -6316,39 +6316,39 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="I21" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A21 &amp; """" &amp; ",  " &amp; """" &amp; B21 &amp; """" &amp; ",  " &amp; """" &amp; C21 &amp; """" &amp; ",  " &amp; """" &amp; D21 &amp;  """" &amp;  ",  " &amp; """" &amp; E21 &amp; """" &amp; ",  " &amp; """" &amp; F21 &amp; """" &amp; ",  " &amp; """" &amp; G21 &amp; """" &amp; ",  " &amp; """" &amp; H21 &amp; """" &amp; "});"</f>
@@ -6357,39 +6357,39 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="I23" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A23 &amp; """" &amp; ",  " &amp; """" &amp; B23 &amp; """" &amp; ",  " &amp; """" &amp; C23 &amp; """" &amp; ",  " &amp; """" &amp; D23 &amp;  """" &amp;  ",  " &amp; """" &amp; E23 &amp; """" &amp; ",  " &amp; """" &amp; F23 &amp; """" &amp; ",  " &amp; """" &amp; G23 &amp; """" &amp; ",  " &amp; """" &amp; H23 &amp; """" &amp; "});"</f>
@@ -6398,39 +6398,39 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="I25" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A25 &amp; """" &amp; ",  " &amp; """" &amp; B25 &amp; """" &amp; ",  " &amp; """" &amp; C25 &amp; """" &amp; ",  " &amp; """" &amp; D25 &amp;  """" &amp;  ",  " &amp; """" &amp; E25 &amp; """" &amp; ",  " &amp; """" &amp; F25 &amp; """" &amp; ",  " &amp; """" &amp; G25 &amp; """" &amp; ",  " &amp; """" &amp; H25 &amp; """" &amp; "});"</f>
@@ -6439,39 +6439,39 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="I27" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A27 &amp; """" &amp; ",  " &amp; """" &amp; B27 &amp; """" &amp; ",  " &amp; """" &amp; C27 &amp; """" &amp; ",  " &amp; """" &amp; D27 &amp;  """" &amp;  ",  " &amp; """" &amp; E27 &amp; """" &amp; ",  " &amp; """" &amp; F27 &amp; """" &amp; ",  " &amp; """" &amp; G27 &amp; """" &amp; ",  " &amp; """" &amp; H27 &amp; """" &amp; "});"</f>
@@ -6480,39 +6480,39 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="I29" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A29 &amp; """" &amp; ",  " &amp; """" &amp; B29 &amp; """" &amp; ",  " &amp; """" &amp; C29 &amp; """" &amp; ",  " &amp; """" &amp; D29 &amp;  """" &amp;  ",  " &amp; """" &amp; E29 &amp; """" &amp; ",  " &amp; """" &amp; F29 &amp; """" &amp; ",  " &amp; """" &amp; G29 &amp; """" &amp; ",  " &amp; """" &amp; H29 &amp; """" &amp; "});"</f>
@@ -6521,39 +6521,39 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="I31" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A31 &amp; """" &amp; ",  " &amp; """" &amp; B31 &amp; """" &amp; ",  " &amp; """" &amp; C31 &amp; """" &amp; ",  " &amp; """" &amp; D31 &amp;  """" &amp;  ",  " &amp; """" &amp; E31 &amp; """" &amp; ",  " &amp; """" &amp; F31 &amp; """" &amp; ",  " &amp; """" &amp; G31 &amp; """" &amp; ",  " &amp; """" &amp; H31 &amp; """" &amp; "});"</f>
@@ -6562,39 +6562,39 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="I33" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A33 &amp; """" &amp; ",  " &amp; """" &amp; B33 &amp; """" &amp; ",  " &amp; """" &amp; C33 &amp; """" &amp; ",  " &amp; """" &amp; D33 &amp;  """" &amp;  ",  " &amp; """" &amp; E33 &amp; """" &amp; ",  " &amp; """" &amp; F33 &amp; """" &amp; ",  " &amp; """" &amp; G33 &amp; """" &amp; ",  " &amp; """" &amp; H33 &amp; """" &amp; "});"</f>
@@ -6603,39 +6603,39 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="I35" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A35 &amp; """" &amp; ",  " &amp; """" &amp; B35 &amp; """" &amp; ",  " &amp; """" &amp; C35 &amp; """" &amp; ",  " &amp; """" &amp; D35 &amp;  """" &amp;  ",  " &amp; """" &amp; E35 &amp; """" &amp; ",  " &amp; """" &amp; F35 &amp; """" &amp; ",  " &amp; """" &amp; G35 &amp; """" &amp; ",  " &amp; """" &amp; H35 &amp; """" &amp; "});"</f>
@@ -6678,23 +6678,23 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K9"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -6703,33 +6703,33 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="I2" s="1" t="str">
         <f t="shared" ref="I2:I9" si="0">"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
@@ -6738,24 +6738,24 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6764,24 +6764,24 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6790,22 +6790,22 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="I5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6814,20 +6814,20 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="I6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6836,26 +6836,26 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="I7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6864,24 +6864,24 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6890,22 +6890,22 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="I9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6948,23 +6948,23 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AD8"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -6973,33 +6973,33 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="I2" s="1" t="str">
         <f t="shared" ref="I2:I7" si="0">"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
@@ -7008,24 +7008,24 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7034,24 +7034,24 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7060,22 +7060,22 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="I5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7084,20 +7084,20 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="I6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7106,26 +7106,26 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="I7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7179,7 +7179,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7195,16 +7195,16 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -7213,26 +7213,26 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="str">
@@ -7242,20 +7242,20 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I3" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A3 &amp; """" &amp; ",  " &amp; """" &amp; B3 &amp; """" &amp; ",  " &amp; """" &amp; C3 &amp; """" &amp; ",  " &amp; """" &amp; D3 &amp;  """" &amp;  ",  " &amp; """" &amp; E3 &amp; """" &amp; ",  " &amp; """" &amp; F3 &amp; """" &amp; ",  " &amp; """" &amp; G3 &amp; """" &amp; ",  " &amp; """" &amp; H3 &amp; """" &amp; "});"</f>
@@ -7264,24 +7264,24 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="I4" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A4 &amp; """" &amp; ",  " &amp; """" &amp; B4 &amp; """" &amp; ",  " &amp; """" &amp; C4 &amp; """" &amp; ",  " &amp; """" &amp; D4 &amp;  """" &amp;  ",  " &amp; """" &amp; E4 &amp; """" &amp; ",  " &amp; """" &amp; F4 &amp; """" &amp; ",  " &amp; """" &amp; G4 &amp; """" &amp; ",  " &amp; """" &amp; H4 &amp; """" &amp; "});"</f>
@@ -7290,24 +7290,24 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="I5" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A5 &amp; """" &amp; ",  " &amp; """" &amp; B5 &amp; """" &amp; ",  " &amp; """" &amp; C5 &amp; """" &amp; ",  " &amp; """" &amp; D5 &amp;  """" &amp;  ",  " &amp; """" &amp; E5 &amp; """" &amp; ",  " &amp; """" &amp; F5 &amp; """" &amp; ",  " &amp; """" &amp; G5 &amp; """" &amp; ",  " &amp; """" &amp; H5 &amp; """" &amp; "});"</f>
@@ -7316,24 +7316,24 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="I6" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A6 &amp; """" &amp; ",  " &amp; """" &amp; B6 &amp; """" &amp; ",  " &amp; """" &amp; C6 &amp; """" &amp; ",  " &amp; """" &amp; D6 &amp;  """" &amp;  ",  " &amp; """" &amp; E6 &amp; """" &amp; ",  " &amp; """" &amp; F6 &amp; """" &amp; ",  " &amp; """" &amp; G6 &amp; """" &amp; ",  " &amp; """" &amp; H6 &amp; """" &amp; "});"</f>
@@ -7342,24 +7342,24 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="I7" s="1" t="str">
         <f t="shared" ref="I7:I20" si="0">"list.add(new String[] {" &amp; """" &amp; A7 &amp; """" &amp; ",  " &amp; """" &amp; B7 &amp; """" &amp; ",  " &amp; """" &amp; C7 &amp; """" &amp; ",  " &amp; """" &amp; D7 &amp;  """" &amp;  ",  " &amp; """" &amp; E7 &amp; """" &amp; ",  " &amp; """" &amp; F7 &amp; """" &amp; ",  " &amp; """" &amp; G7 &amp; """" &amp; ",  " &amp; """" &amp; H7 &amp; """" &amp; "});"</f>
@@ -7368,24 +7368,24 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="I8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7394,24 +7394,24 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="I9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7420,24 +7420,24 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="I10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7446,24 +7446,24 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="I11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7472,24 +7472,24 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="I12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7498,24 +7498,24 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7524,24 +7524,24 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="I14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7550,24 +7550,24 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7576,24 +7576,24 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7602,24 +7602,24 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7628,24 +7628,24 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="I18" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7654,24 +7654,24 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="I19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7680,24 +7680,24 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="D20" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="I20" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7706,22 +7706,22 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="I21" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A21 &amp; """" &amp; ",  " &amp; """" &amp; B21 &amp; """" &amp; ",  " &amp; """" &amp; C21 &amp; """" &amp; ",  " &amp; """" &amp; D21 &amp;  """" &amp;  ",  " &amp; """" &amp; E21 &amp; """" &amp; ",  " &amp; """" &amp; F21 &amp; """" &amp; ",  " &amp; """" &amp; G21 &amp; """" &amp; ",  " &amp; """" &amp; H21 &amp; """" &amp; "});"</f>
@@ -7730,20 +7730,20 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="I22" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A22 &amp; """" &amp; ",  " &amp; """" &amp; B22 &amp; """" &amp; ",  " &amp; """" &amp; C22 &amp; """" &amp; ",  " &amp; """" &amp; D22 &amp;  """" &amp;  ",  " &amp; """" &amp; E22 &amp; """" &amp; ",  " &amp; """" &amp; F22 &amp; """" &amp; ",  " &amp; """" &amp; G22 &amp; """" &amp; ",  " &amp; """" &amp; H22 &amp; """" &amp; "});"</f>
@@ -7805,7 +7805,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J20"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7820,16 +7820,16 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -7838,30 +7838,30 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="I2" t="str">
         <f t="shared" ref="I2:I20" si="0">"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
@@ -7870,22 +7870,22 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="I3" t="str">
         <f t="shared" si="0"/>
@@ -7894,22 +7894,22 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="0"/>
@@ -7918,22 +7918,22 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="0"/>
@@ -7942,22 +7942,22 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="0"/>
@@ -7966,22 +7966,22 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="0"/>
@@ -7990,22 +7990,22 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="0"/>
@@ -8014,22 +8014,22 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="0"/>
@@ -8038,22 +8038,22 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="0"/>
@@ -8062,22 +8062,22 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="0"/>
@@ -8086,22 +8086,22 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="0"/>
@@ -8110,22 +8110,22 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="0"/>
@@ -8134,22 +8134,22 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="0"/>
@@ -8158,22 +8158,22 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="0"/>
@@ -8182,22 +8182,22 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="0"/>
@@ -8206,22 +8206,22 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="0"/>
@@ -8230,22 +8230,22 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="0"/>
@@ -8254,22 +8254,22 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="0"/>
@@ -8278,22 +8278,22 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="0"/>
@@ -8324,7 +8324,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8336,16 +8336,16 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -8354,29 +8354,29 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="I2" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
@@ -8385,22 +8385,22 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I3" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A3 &amp; """" &amp; ",  " &amp; """" &amp; B3 &amp; """" &amp; ",  " &amp; """" &amp; C3 &amp; """" &amp; ",  " &amp; """" &amp; D3 &amp;  """" &amp;  ",  " &amp; """" &amp; E3 &amp; """" &amp; ",  " &amp; """" &amp; F3 &amp; """" &amp; ",  " &amp; """" &amp; G3 &amp; """" &amp; ",  " &amp; """" &amp; H3 &amp; """" &amp; "});"</f>
@@ -8409,26 +8409,26 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" t="s">
         <v>294</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I4" s="1" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A4 &amp; """" &amp; ",  " &amp; """" &amp; B4 &amp; """" &amp; ",  " &amp; """" &amp; C4 &amp; """" &amp; ",  " &amp; """" &amp; D4 &amp;  """" &amp;  ",  " &amp; """" &amp; E4 &amp; """" &amp; ",  " &amp; """" &amp; F4 &amp; """" &amp; ",  " &amp; """" &amp; G4 &amp; """" &amp; ",  " &amp; """" &amp; H4 &amp; """" &amp; "});"</f>
